--- a/results/summary_results.xlsx
+++ b/results/summary_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myanchev/git/cassandra/data/small_countries/results_various_models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myanchev/git/cassandra/data/small_countries/results_ban_revisions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5223A2-03AB-7945-9296-52F03ADF05FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0ED8817-C4F0-2144-9322-31540CDC0758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="1180" windowWidth="27640" windowHeight="16940" activeTab="7" xr2:uid="{3581F90C-9629-1144-A0C6-FE5562B1E6F8}"/>
+    <workbookView xWindow="1380" yWindow="2800" windowWidth="27640" windowHeight="16940" activeTab="6" xr2:uid="{3581F90C-9629-1144-A0C6-FE5562B1E6F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Bulgaria" sheetId="1" r:id="rId1"/>
@@ -37,12 +37,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="34">
   <si>
     <t>GDP Actual</t>
   </si>
@@ -212,674 +222,632 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>0.88077585706264905</v>
+            <v>0.68467210000000001</v>
+          </cell>
+          <cell r="C2">
+            <v>0.81672955000000003</v>
           </cell>
           <cell r="D2">
-            <v>0.21355067500622199</v>
+            <v>0.13205744559326099</v>
           </cell>
           <cell r="E2">
-            <v>3.7783104999999997E-2</v>
+            <v>8.9529990000000004E-2</v>
           </cell>
           <cell r="F2">
-            <v>1.2125988999999999</v>
+            <v>1.4140345000000001</v>
           </cell>
           <cell r="G2">
-            <v>1.1748158</v>
+            <v>1.3245045</v>
           </cell>
           <cell r="I2">
-            <v>0.36399913</v>
+            <v>0.38355403999999998</v>
           </cell>
           <cell r="J2">
-            <v>-6.1149765000000002E-2</v>
+            <v>-8.1533739999999993E-2</v>
           </cell>
           <cell r="K2">
-            <v>1.5519860999999999</v>
+            <v>1.5822563000000001</v>
           </cell>
           <cell r="L2">
-            <v>0.98588509999999996</v>
+            <v>1.1964246000000001</v>
           </cell>
           <cell r="M2">
-            <v>0.75928329999999999</v>
+            <v>0.43564596999999999</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.62171393483518</v>
+            <v>0.62828600000000001</v>
+          </cell>
+          <cell r="C3">
+            <v>0.72669755999999996</v>
           </cell>
           <cell r="D3">
-            <v>0.32038778216005898</v>
+            <v>9.8411564125060996E-2</v>
           </cell>
           <cell r="E3">
-            <v>7.0753880000000005E-2</v>
+            <v>-0.14063086999999999</v>
           </cell>
           <cell r="F3">
-            <v>1.6439980999999999</v>
+            <v>1.3629515999999999</v>
           </cell>
           <cell r="G3">
-            <v>1.5732442</v>
+            <v>1.5035825</v>
           </cell>
           <cell r="I3">
-            <v>0.47513139999999998</v>
+            <v>0.42491030000000002</v>
           </cell>
           <cell r="J3">
-            <v>-0.10543658</v>
+            <v>-0.13852069</v>
           </cell>
           <cell r="K3">
-            <v>1.4283946000000001</v>
+            <v>1.5110633</v>
           </cell>
           <cell r="L3">
-            <v>0.6291776</v>
+            <v>1.1330652000000001</v>
           </cell>
           <cell r="M3">
-            <v>0.41421774</v>
+            <v>0.55102633999999995</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.68843205309125</v>
+            <v>0.74306700000000003</v>
+          </cell>
+          <cell r="C4">
+            <v>0.69747095999999997</v>
           </cell>
           <cell r="D4">
-            <v>9.5402154943566801E-3</v>
+            <v>4.5596036998748798E-2</v>
           </cell>
           <cell r="E4">
-            <v>-0.31091364999999999</v>
+            <v>-0.21177208</v>
           </cell>
           <cell r="F4">
-            <v>1.4190803000000001</v>
+            <v>1.4314385999999999</v>
           </cell>
           <cell r="G4">
-            <v>1.7299939</v>
+            <v>1.6432106</v>
           </cell>
           <cell r="I4">
-            <v>0.51049310000000003</v>
+            <v>0.46765125000000002</v>
           </cell>
           <cell r="J4">
-            <v>-0.15692999999999999</v>
+            <v>-9.8198140000000003E-2</v>
           </cell>
           <cell r="K4">
-            <v>1.3445784999999999</v>
+            <v>1.4839859</v>
           </cell>
           <cell r="L4">
-            <v>0.97527280000000005</v>
+            <v>1.2066730000000001</v>
           </cell>
           <cell r="M4">
-            <v>0.66565280000000004</v>
+            <v>0.57665049999999995</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>0.68467205818291998</v>
+            <v>0.57244119999999998</v>
+          </cell>
+          <cell r="C5">
+            <v>0.58421909999999999</v>
           </cell>
           <cell r="D5">
-            <v>0.19291275684240899</v>
+            <v>1.17778980911255E-2</v>
           </cell>
           <cell r="E5">
-            <v>0.110183984</v>
+            <v>-0.36588502000000001</v>
           </cell>
           <cell r="F5">
-            <v>1.5388012</v>
+            <v>1.1939964999999999</v>
           </cell>
           <cell r="G5">
-            <v>1.4286171999999999</v>
+            <v>1.5598816</v>
           </cell>
           <cell r="I5">
-            <v>0.43705505</v>
+            <v>0.42555486999999997</v>
           </cell>
           <cell r="J5">
-            <v>-6.896803E-2</v>
+            <v>-0.21420591999999999</v>
           </cell>
           <cell r="K5">
-            <v>1.4732696999999999</v>
+            <v>1.4470961</v>
           </cell>
           <cell r="L5">
-            <v>0.90548635</v>
+            <v>1.2105944</v>
           </cell>
           <cell r="M5">
-            <v>0.47692224</v>
+            <v>0.70508990000000005</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>0.62828603944657002</v>
+            <v>0.61530799999999997</v>
+          </cell>
+          <cell r="C6">
+            <v>0.28265402000000001</v>
           </cell>
           <cell r="D6">
-            <v>0.20930471458556499</v>
+            <v>0.33265398278999297</v>
           </cell>
           <cell r="E6">
-            <v>-7.4453649999999998E-3</v>
+            <v>-0.76370716000000005</v>
           </cell>
           <cell r="F6">
-            <v>1.5379332999999999</v>
+            <v>0.92038363000000001</v>
           </cell>
           <cell r="G6">
-            <v>1.5453787000000001</v>
+            <v>1.6840908999999999</v>
           </cell>
           <cell r="I6">
-            <v>0.46814030000000001</v>
+            <v>0.44316410000000001</v>
           </cell>
           <cell r="J6">
-            <v>-9.1312290000000004E-2</v>
+            <v>-0.27634399999999998</v>
           </cell>
           <cell r="K6">
-            <v>1.4300721000000001</v>
+            <v>1.3306849000000001</v>
           </cell>
           <cell r="L6">
-            <v>0.82375145000000005</v>
+            <v>0.82741969999999998</v>
           </cell>
           <cell r="M6">
-            <v>0.52261400000000002</v>
+            <v>0.89852019999999999</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>0.74306704427558001</v>
+            <v>0.41625409999999902</v>
+          </cell>
+          <cell r="C7">
+            <v>0.4844292</v>
           </cell>
           <cell r="D7">
-            <v>2.5968092935858299E-2</v>
+            <v>6.8175110424423202E-2</v>
           </cell>
           <cell r="E7">
-            <v>6.5444969999999998E-3</v>
+            <v>-0.6257663</v>
           </cell>
           <cell r="F7">
-            <v>1.3260909000000001</v>
+            <v>1.2468106000000001</v>
           </cell>
           <cell r="G7">
-            <v>1.3195465</v>
+            <v>1.8725768</v>
           </cell>
           <cell r="I7">
-            <v>0.40581286</v>
+            <v>0.50736844999999997</v>
           </cell>
           <cell r="J7">
-            <v>-6.8753436000000001E-2</v>
+            <v>-0.20654458000000001</v>
           </cell>
           <cell r="K7">
-            <v>1.5092536999999999</v>
+            <v>1.3348088</v>
           </cell>
           <cell r="L7">
-            <v>1.4198115</v>
+            <v>0.89289397000000004</v>
           </cell>
           <cell r="M7">
-            <v>0.68074290000000004</v>
+            <v>0.73939500000000002</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8">
-            <v>0.5724411786536</v>
+            <v>3.7901061</v>
+          </cell>
+          <cell r="C8">
+            <v>0.33620480000000003</v>
           </cell>
           <cell r="D8">
-            <v>0.21812192788326501</v>
+            <v>3.4539013029704999</v>
           </cell>
           <cell r="E8">
-            <v>-0.21315282999999999</v>
+            <v>-0.72598169999999995</v>
           </cell>
           <cell r="F8">
-            <v>1.545358</v>
+            <v>1.0521246</v>
           </cell>
           <cell r="G8">
-            <v>1.7585108</v>
+            <v>1.7781062999999999</v>
           </cell>
           <cell r="I8">
-            <v>0.51954730000000005</v>
+            <v>0.47923344000000001</v>
           </cell>
           <cell r="J8">
-            <v>-0.15343270000000001</v>
+            <v>-0.21916527999999999</v>
           </cell>
           <cell r="K8">
-            <v>1.3468792000000001</v>
+            <v>1.3273349999999999</v>
           </cell>
           <cell r="L8">
-            <v>0.72257629999999995</v>
+            <v>6.9822819999999998E-9</v>
           </cell>
           <cell r="M8">
-            <v>0.56219850000000005</v>
+            <v>0.84800850000000005</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>0.61530797686368</v>
+            <v>-0.26303520000000002</v>
+          </cell>
+          <cell r="C9">
+            <v>3.7114395999999998</v>
           </cell>
           <cell r="D9">
-            <v>6.8480362556276403E-2</v>
+            <v>3.9744748095275799</v>
           </cell>
           <cell r="E9">
-            <v>-0.66568755999999996</v>
+            <v>3.4795866000000002</v>
           </cell>
           <cell r="F9">
-            <v>1.3849678999999999</v>
+            <v>4.5185804000000003</v>
           </cell>
           <cell r="G9">
-            <v>2.0506554000000001</v>
+            <v>1.0389938000000001</v>
           </cell>
           <cell r="I9">
-            <v>0.58450294000000003</v>
+            <v>0.25975323</v>
           </cell>
           <cell r="J9">
-            <v>-0.23274723999999999</v>
+            <v>0.33975798000000001</v>
           </cell>
           <cell r="K9">
-            <v>1.2309709</v>
+            <v>2.172987</v>
           </cell>
           <cell r="L9">
-            <v>0.78932020000000003</v>
+            <v>4.4226527999999999E-12</v>
           </cell>
           <cell r="M9">
-            <v>0.72823859999999996</v>
+            <v>3.6881004000000001E-10</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>0.41625408002347902</v>
+            <v>-0.64212250000000004</v>
+          </cell>
+          <cell r="C10">
+            <v>0.35449619999999998</v>
           </cell>
           <cell r="D10">
-            <v>0.216673099313067</v>
+            <v>0.99661871081352205</v>
           </cell>
           <cell r="E10">
-            <v>-0.48289530000000003</v>
+            <v>-0.53768813999999998</v>
           </cell>
           <cell r="F10">
-            <v>1.4370797</v>
+            <v>1.0628850000000001</v>
           </cell>
           <cell r="G10">
-            <v>1.919975</v>
+            <v>1.6005731999999999</v>
           </cell>
           <cell r="I10">
-            <v>0.55759099999999995</v>
+            <v>0.45174180000000003</v>
           </cell>
           <cell r="J10">
-            <v>-0.19058512</v>
+            <v>-0.11069999</v>
           </cell>
           <cell r="K10">
-            <v>1.2876763</v>
+            <v>1.4429471</v>
           </cell>
           <cell r="L10">
-            <v>0.66727230000000004</v>
+            <v>0.12141544</v>
           </cell>
           <cell r="M10">
-            <v>0.68235623999999995</v>
+            <v>0.85346246000000003</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>3.79010609740507</v>
+            <v>0.269872</v>
+          </cell>
+          <cell r="C11">
+            <v>6.9615709999999997E-2</v>
           </cell>
           <cell r="D11">
-            <v>3.4576957022596599</v>
+            <v>0.20025629319858501</v>
           </cell>
           <cell r="E11">
-            <v>-0.90024585000000001</v>
+            <v>-0.84675102999999996</v>
           </cell>
           <cell r="F11">
-            <v>1.1609691</v>
+            <v>0.72216590000000003</v>
           </cell>
           <cell r="G11">
-            <v>2.0612149999999998</v>
+            <v>1.5689169000000001</v>
           </cell>
           <cell r="I11">
-            <v>0.58079700000000001</v>
+            <v>0.43254959999999998</v>
           </cell>
           <cell r="J11">
-            <v>-0.26028190000000001</v>
+            <v>-0.17317149000000001</v>
           </cell>
           <cell r="K11">
-            <v>1.2054986000000001</v>
+            <v>1.3942032</v>
           </cell>
           <cell r="L11">
-            <v>5.6763709999999998E-9</v>
+            <v>1.0633149</v>
           </cell>
           <cell r="M11">
-            <v>0.85089915999999999</v>
+            <v>0.95951635000000002</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12">
-            <v>-0.26303519745234</v>
+            <v>-0.206285999999999</v>
+          </cell>
+          <cell r="C12">
+            <v>0.50289510000000004</v>
           </cell>
           <cell r="D12">
-            <v>4.05266131897333</v>
+            <v>0.70918111680603002</v>
           </cell>
           <cell r="E12">
-            <v>3.7070273999999999</v>
+            <v>-0.54617850000000001</v>
           </cell>
           <cell r="F12">
-            <v>4.1920742999999998</v>
+            <v>1.2502626999999999</v>
           </cell>
           <cell r="G12">
-            <v>0.48504686000000002</v>
+            <v>1.7964412999999999</v>
           </cell>
           <cell r="I12">
-            <v>0.12250352</v>
+            <v>0.49825191000000002</v>
           </cell>
           <cell r="J12">
-            <v>0.36304140000000001</v>
+            <v>-0.16627650999999999</v>
           </cell>
           <cell r="K12">
-            <v>2.4864619000000001</v>
+            <v>1.4281349000000001</v>
           </cell>
           <cell r="L12">
-            <v>2.2438625999999999E-19</v>
+            <v>0.28398960000000001</v>
           </cell>
           <cell r="M12">
-            <v>4.7508720000000001E-16</v>
+            <v>0.74122469999999996</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>-0.64212253250303997</v>
+            <v>-7.3236512999999999</v>
+          </cell>
+          <cell r="C13">
+            <v>-7.4532619999999996</v>
           </cell>
           <cell r="D13">
-            <v>0.82820571519556696</v>
+            <v>0.12961055226440399</v>
           </cell>
           <cell r="E13">
-            <v>-0.75558110000000001</v>
+            <v>-9.9439124999999997</v>
           </cell>
           <cell r="F13">
-            <v>0.88884896000000002</v>
+            <v>-5.0729674999999999</v>
           </cell>
           <cell r="G13">
-            <v>1.6444300000000001</v>
+            <v>4.8709449999999999</v>
           </cell>
           <cell r="I13">
-            <v>0.48407483000000001</v>
+            <v>1.1792984</v>
           </cell>
           <cell r="J13">
-            <v>-0.16051613000000001</v>
+            <v>-2.0262380000000002</v>
           </cell>
           <cell r="K13">
-            <v>1.3320476999999999</v>
+            <v>0.13434660000000001</v>
           </cell>
           <cell r="L13">
-            <v>0.19872883999999999</v>
+            <v>0.23745094</v>
           </cell>
           <cell r="M13">
-            <v>0.94318789999999997</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>0.26987198835288001</v>
+            <v>3.09490529999999</v>
+          </cell>
+          <cell r="C14">
+            <v>0.46014273</v>
           </cell>
           <cell r="D14">
-            <v>2.0939284023389401E-2</v>
+            <v>2.6347625683334299</v>
           </cell>
           <cell r="E14">
-            <v>-0.80539530000000004</v>
+            <v>0.10000439</v>
           </cell>
           <cell r="F14">
-            <v>1.0846378999999999</v>
+            <v>1.370255</v>
           </cell>
           <cell r="G14">
-            <v>1.8900332</v>
+            <v>1.2702506</v>
           </cell>
           <cell r="I14">
-            <v>0.5556297</v>
+            <v>0.3276502</v>
           </cell>
           <cell r="J14">
-            <v>-0.13751362</v>
+            <v>0.32087502000000001</v>
           </cell>
           <cell r="K14">
-            <v>1.2706227999999999</v>
+            <v>1.8260164000000001</v>
           </cell>
           <cell r="L14">
-            <v>0.85564154000000003</v>
+            <v>2.9472512999999998E-3</v>
           </cell>
           <cell r="M14">
-            <v>0.89123509999999995</v>
+            <v>0.79764820000000003</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15">
-            <v>-0.20628596724213999</v>
+            <v>1.4067505</v>
+          </cell>
+          <cell r="C15">
+            <v>3.0159867</v>
           </cell>
           <cell r="D15">
-            <v>0.42660978318394999</v>
+            <v>1.60923618098449</v>
           </cell>
           <cell r="E15">
-            <v>-0.17072335</v>
+            <v>2.7137701999999999</v>
           </cell>
           <cell r="F15">
-            <v>0.42831045000000001</v>
+            <v>3.6537660000000001</v>
           </cell>
           <cell r="G15">
-            <v>0.59903382999999999</v>
+            <v>0.93999577000000001</v>
           </cell>
           <cell r="I15">
-            <v>0.18187581999999999</v>
+            <v>0.27107012000000003</v>
           </cell>
           <cell r="J15">
-            <v>-0.20850437999999999</v>
+            <v>0.21021126000000001</v>
           </cell>
           <cell r="K15">
-            <v>1.857613</v>
+            <v>2.0803695000000002</v>
           </cell>
           <cell r="L15">
-            <v>0.22469017999999999</v>
+            <v>1.5279664000000001E-4</v>
           </cell>
           <cell r="M15">
-            <v>0.99949509999999997</v>
+            <v>8.2135425999999997E-7</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16">
-            <v>-7.3236512682204102</v>
+            <v>1.7864663999999999</v>
+          </cell>
+          <cell r="C16">
+            <v>1.3656158</v>
           </cell>
           <cell r="D16">
-            <v>0.184522197508349</v>
+            <v>0.42085055527343701</v>
           </cell>
           <cell r="E16">
-            <v>-10.971496999999999</v>
+            <v>0.81353222999999997</v>
           </cell>
           <cell r="F16">
-            <v>-4.4720383000000004</v>
+            <v>1.9695464</v>
           </cell>
           <cell r="G16">
-            <v>6.4994582999999997</v>
+            <v>1.1560142</v>
           </cell>
           <cell r="I16">
-            <v>1.561474</v>
+            <v>0.34464901999999997</v>
           </cell>
           <cell r="J16">
-            <v>-2.1378653000000001</v>
+            <v>3.256071E-2</v>
           </cell>
           <cell r="K16">
-            <v>0.22911239</v>
+            <v>1.7246087000000001</v>
           </cell>
           <cell r="L16">
-            <v>0.16858767999999999</v>
+            <v>0.41505966</v>
           </cell>
           <cell r="M16">
-            <v>1</v>
+            <v>4.1726159999999998E-2</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>3.0949053244241602</v>
+            <v>0.91578879999999996</v>
+          </cell>
+          <cell r="C17">
+            <v>1.5024351</v>
           </cell>
           <cell r="D17">
-            <v>2.5967265741476</v>
+            <v>0.58664628815765296</v>
           </cell>
           <cell r="E17">
-            <v>4.5464932999999999E-2</v>
+            <v>1.258426</v>
           </cell>
           <cell r="F17">
-            <v>1.5721210999999999</v>
+            <v>1.7735057999999999</v>
           </cell>
           <cell r="G17">
-            <v>1.5266561999999999</v>
+            <v>0.51507985999999994</v>
           </cell>
           <cell r="I17">
-            <v>0.40706784000000001</v>
+            <v>0.16587192000000001</v>
           </cell>
           <cell r="J17">
-            <v>0.36520153</v>
+            <v>2.7050103999999998E-2</v>
           </cell>
           <cell r="K17">
-            <v>1.6075117999999999</v>
+            <v>2.1973962999999999</v>
           </cell>
           <cell r="L17">
-            <v>4.4592763000000004E-3</v>
+            <v>3.5732704999999997E-2</v>
           </cell>
           <cell r="M17">
-            <v>0.78022159999999996</v>
+            <v>2.1089571999999999E-3</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>1.4067505455220799</v>
+            <v>0.83705510000000005</v>
+          </cell>
+          <cell r="C18">
+            <v>0.94101710000000005</v>
           </cell>
           <cell r="D18">
-            <v>0.97345317838539003</v>
+            <v>0.10396199127426101</v>
           </cell>
           <cell r="E18">
-            <v>2.0795379000000001</v>
+            <v>0.21576103999999999</v>
           </cell>
           <cell r="F18">
-            <v>2.7823045</v>
+            <v>1.5462461999999999</v>
           </cell>
           <cell r="G18">
-            <v>0.70276665999999999</v>
+            <v>1.3304851</v>
           </cell>
           <cell r="I18">
-            <v>0.2320103</v>
+            <v>0.3853203</v>
           </cell>
           <cell r="J18">
-            <v>8.4652439999999995E-2</v>
+            <v>-7.5490840000000003E-2</v>
           </cell>
           <cell r="K18">
-            <v>2.0104489999999999</v>
+            <v>1.5747796999999999</v>
           </cell>
           <cell r="L18">
-            <v>5.0709800000000001E-3</v>
+            <v>1.2945415</v>
           </cell>
           <cell r="M18">
-            <v>3.5835179999999997E-5</v>
+            <v>0.2961414</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19">
-            <v>1.78646644080213</v>
+            <v>1.0449264999999901</v>
+          </cell>
+          <cell r="C19">
+            <v>0.74612515999999995</v>
           </cell>
           <cell r="D19">
-            <v>1.01387538636258</v>
+            <v>0.29880133835220302</v>
           </cell>
           <cell r="E19">
-            <v>0.28590064999999998</v>
+            <v>-0.28985149999999998</v>
           </cell>
           <cell r="F19">
-            <v>1.1551096000000001</v>
+            <v>1.5980127</v>
           </cell>
           <cell r="G19">
-            <v>0.86920900000000001</v>
+            <v>1.8878641</v>
           </cell>
           <cell r="I19">
-            <v>0.27382958000000002</v>
+            <v>0.52901710000000002</v>
           </cell>
           <cell r="J19">
-            <v>-8.9248690000000006E-2</v>
+            <v>-0.10146951</v>
           </cell>
           <cell r="K19">
-            <v>1.7030953</v>
+            <v>1.3745183999999999</v>
           </cell>
           <cell r="L19">
-            <v>6.5061370000000004E-3</v>
+            <v>0.75652933</v>
           </cell>
           <cell r="M19">
-            <v>0.68947994999999995</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>0.91578881082393904</v>
-          </cell>
-          <cell r="D20">
-            <v>0.64842422666690402</v>
-          </cell>
-          <cell r="E20">
-            <v>1.3614409999999999</v>
-          </cell>
-          <cell r="F20">
-            <v>1.8807642</v>
-          </cell>
-          <cell r="G20">
-            <v>0.51932319999999998</v>
-          </cell>
-          <cell r="I20">
-            <v>0.17064547999999999</v>
-          </cell>
-          <cell r="J20">
-            <v>0.12298988</v>
-          </cell>
-          <cell r="K20">
-            <v>2.0932987000000001</v>
-          </cell>
-          <cell r="L20">
-            <v>9.1795790000000002E-3</v>
-          </cell>
-          <cell r="M20">
-            <v>6.8095524000000003E-4</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>0.83705506378197003</v>
-          </cell>
-          <cell r="D21">
-            <v>8.3484911384350699E-2</v>
-          </cell>
-          <cell r="E21">
-            <v>0.12577283</v>
-          </cell>
-          <cell r="F21">
-            <v>1.5475076000000001</v>
-          </cell>
-          <cell r="G21">
-            <v>1.4217348000000001</v>
-          </cell>
-          <cell r="I21">
-            <v>0.43114763</v>
-          </cell>
-          <cell r="J21">
-            <v>-0.11071520999999999</v>
-          </cell>
-          <cell r="K21">
-            <v>1.4681118</v>
-          </cell>
-          <cell r="L21">
-            <v>1.1370579000000001</v>
-          </cell>
-          <cell r="M21">
-            <v>0.42730546000000003</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>1.0449265368906699</v>
-          </cell>
-          <cell r="D22">
-            <v>0.20762146792094299</v>
-          </cell>
-          <cell r="E22">
-            <v>-6.4501909999999996E-2</v>
-          </cell>
-          <cell r="F22">
-            <v>1.5287644</v>
-          </cell>
-          <cell r="G22">
-            <v>1.5932662</v>
-          </cell>
-          <cell r="I22">
-            <v>0.47764862000000002</v>
-          </cell>
-          <cell r="J22">
-            <v>-0.13117129</v>
-          </cell>
-          <cell r="K22">
-            <v>1.4187342000000001</v>
-          </cell>
-          <cell r="L22">
-            <v>0.94440882999999998</v>
-          </cell>
-          <cell r="M22">
-            <v>0.52212053999999997</v>
+            <v>0.52012630000000004</v>
           </cell>
         </row>
       </sheetData>
@@ -898,296 +866,254 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="C2">
-            <v>1.14076499483782</v>
+            <v>0.76770467305333301</v>
           </cell>
           <cell r="D2">
-            <v>0.25998913777517701</v>
+            <v>8.3032573053333794E-2</v>
           </cell>
           <cell r="L2">
-            <v>0.52628457495189895</v>
+            <v>0.83727059021623296</v>
           </cell>
           <cell r="M2">
-            <v>0.34638271373646101</v>
+            <v>0.50135844284709496</v>
           </cell>
         </row>
         <row r="3">
           <cell r="C3">
-            <v>0.89134074965138899</v>
+            <v>0.69092428600289701</v>
           </cell>
           <cell r="D3">
-            <v>0.26962681481620898</v>
+            <v>6.26382860028976E-2</v>
           </cell>
           <cell r="L3">
-            <v>0.67210701028752196</v>
+            <v>0.78092951141738498</v>
           </cell>
           <cell r="M3">
-            <v>0.476483930606314</v>
+            <v>0.55565512177588094</v>
           </cell>
         </row>
         <row r="4">
           <cell r="C4">
-            <v>0.66620409156929095</v>
+            <v>0.82290131891964002</v>
           </cell>
           <cell r="D4">
-            <v>2.22279615219583E-2</v>
+            <v>7.9834318919639893E-2</v>
           </cell>
           <cell r="L4">
-            <v>0.82216853739865803</v>
+            <v>0.80658004669857097</v>
           </cell>
           <cell r="M4">
-            <v>0.64330145125663396</v>
+            <v>0.460420027320466</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>0.66188490375074405</v>
+            <v>0.68055951794036196</v>
           </cell>
           <cell r="D5">
-            <v>2.2787154432175001E-2</v>
+            <v>0.108118317940362</v>
           </cell>
           <cell r="L5">
-            <v>0.75547323993711801</v>
+            <v>0.750713162802779</v>
           </cell>
           <cell r="M5">
-            <v>0.63494746654192502</v>
+            <v>0.560324104775208</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>0.83212370412152203</v>
+            <v>0.634433407657923</v>
           </cell>
           <cell r="D6">
-            <v>0.20383766467495201</v>
+            <v>1.9125407657923799E-2</v>
           </cell>
           <cell r="L6">
-            <v>0.72647248998575897</v>
+            <v>0.75700082412513103</v>
           </cell>
           <cell r="M6">
-            <v>0.51973173046231103</v>
+            <v>0.58876912921187996</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>1.1376409925720701</v>
+            <v>0.676530604824094</v>
           </cell>
           <cell r="D7">
-            <v>0.394573948296496</v>
+            <v>0.26027650482409398</v>
           </cell>
           <cell r="L7">
-            <v>0.55686991686703302</v>
+            <v>0.66128375699358</v>
           </cell>
           <cell r="M7">
-            <v>0.28429616447575501</v>
+            <v>0.56328459046845303</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>0.72990768201235301</v>
+            <v>0.59549632657252005</v>
           </cell>
           <cell r="D8">
-            <v>0.15746650335875301</v>
+            <v>3.1946097734274699</v>
           </cell>
           <cell r="L8">
-            <v>0.748702511153295</v>
+            <v>2.3003136772797099E-7</v>
           </cell>
           <cell r="M8">
-            <v>0.58703036886651705</v>
+            <v>0.61689361617343097</v>
           </cell>
         </row>
         <row r="9">
           <cell r="C9">
-            <v>0.59799794567822695</v>
+            <v>2.15626556264665</v>
           </cell>
           <cell r="D9">
-            <v>1.73100311854524E-2</v>
+            <v>2.4193007626466501</v>
           </cell>
           <cell r="L9">
-            <v>0.68506760761742302</v>
+            <v>6.5211296452443801E-4</v>
           </cell>
           <cell r="M9">
-            <v>0.65866929539891905</v>
+            <v>1.2587340882828001E-2</v>
           </cell>
         </row>
         <row r="10">
           <cell r="C10">
-            <v>0.81219121465517097</v>
+            <v>0.27502748341407501</v>
           </cell>
           <cell r="D10">
-            <v>0.395937134631691</v>
+            <v>0.91714998341407605</v>
           </cell>
           <cell r="L10">
-            <v>0.615711214780859</v>
+            <v>0.21486670439362099</v>
           </cell>
           <cell r="M10">
-            <v>0.53801427650702405</v>
+            <v>0.80192973450578697</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>0.506006898594761</v>
+            <v>4.3066273893823503E-2</v>
           </cell>
           <cell r="D11">
-            <v>3.2840991988103099</v>
+            <v>0.226805726106176</v>
           </cell>
           <cell r="L11">
-            <v>5.6655517732185403E-7</v>
+            <v>0.63610744162060195</v>
           </cell>
           <cell r="M11">
-            <v>0.74106704104245302</v>
+            <v>0.85790092258801598</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>1.8842794375007601</v>
+            <v>0.61687727078172705</v>
           </cell>
           <cell r="D12">
-            <v>2.1473146349531</v>
+            <v>0.82316327078172702</v>
           </cell>
           <cell r="L12">
-            <v>3.3522695826988802E-6</v>
+            <v>0.26827270880806198</v>
           </cell>
           <cell r="M12">
-            <v>1.2546040175093E-2</v>
+            <v>0.62163434635635495</v>
           </cell>
         </row>
         <row r="13">
           <cell r="C13">
-            <v>0.20312245149528199</v>
+            <v>0.30184034032628598</v>
           </cell>
           <cell r="D13">
-            <v>0.84524498399832204</v>
+            <v>7.6254916403262802</v>
           </cell>
           <cell r="L13">
-            <v>2.24364438450954E-2</v>
+            <v>4.1623489596463801E-22</v>
           </cell>
           <cell r="M13">
-            <v>0.91679945655367401</v>
+            <v>0.70672861863520797</v>
           </cell>
         </row>
         <row r="14">
           <cell r="C14">
-            <v>0.12697111150233101</v>
+            <v>-3.0238119729238502</v>
           </cell>
           <cell r="D14">
-            <v>0.142900876850548</v>
+            <v>6.1187172729238499</v>
           </cell>
           <cell r="L14">
-            <v>0.704255322742249</v>
+            <v>4.8667926120037304E-7</v>
           </cell>
           <cell r="M14">
-            <v>0.88784228786585595</v>
+            <v>0.99960341171450096</v>
           </cell>
         </row>
         <row r="15">
           <cell r="C15">
-            <v>0.87688291510856597</v>
+            <v>1.84220065019653</v>
           </cell>
           <cell r="D15">
-            <v>1.0831688823507</v>
+            <v>0.43545015019653399</v>
           </cell>
           <cell r="L15">
-            <v>7.9280134784050606E-86</v>
+            <v>0.55606283044350202</v>
           </cell>
           <cell r="M15">
-            <v>0.46609910678187</v>
+            <v>3.5068660487888599E-2</v>
           </cell>
         </row>
         <row r="16">
           <cell r="C16">
-            <v>0.14178052101986499</v>
+            <v>1.26427533539538</v>
           </cell>
           <cell r="D16">
-            <v>7.4654317892402702</v>
+            <v>0.52219106460461395</v>
           </cell>
           <cell r="L16">
-            <v>2.1335072559930501E-5</v>
+            <v>0.52678373241835696</v>
           </cell>
           <cell r="M16">
-            <v>0.904824631107227</v>
+            <v>0.16058420841523299</v>
           </cell>
         </row>
         <row r="17">
           <cell r="C17">
-            <v>-2.7462421843777398</v>
+            <v>1.2099011641056301</v>
           </cell>
           <cell r="D17">
-            <v>5.8411475088019102</v>
+            <v>0.29411236410563601</v>
           </cell>
           <cell r="L17">
-            <v>1.0333761628767399E-6</v>
+            <v>0.82887086411941802</v>
           </cell>
           <cell r="M17">
-            <v>0.99997681071488997</v>
+            <v>0.14636303433308301</v>
           </cell>
         </row>
         <row r="18">
           <cell r="C18">
-            <v>2.0945787182593101</v>
+            <v>0.90453364402551995</v>
           </cell>
           <cell r="D18">
-            <v>0.68782817273723496</v>
+            <v>6.7478544025520698E-2</v>
           </cell>
           <cell r="L18">
-            <v>0.33590765528477301</v>
+            <v>0.85105117126546503</v>
           </cell>
           <cell r="M18">
-            <v>7.7157502868523603E-2</v>
+            <v>0.39865841247990802</v>
           </cell>
         </row>
         <row r="19">
           <cell r="C19">
-            <v>1.5927110516227001</v>
+            <v>0.98774899546759298</v>
           </cell>
           <cell r="D19">
-            <v>0.193755389179427</v>
+            <v>5.7177504532406803E-2</v>
           </cell>
           <cell r="L19">
-            <v>0.56250052652359495</v>
+            <v>0.866804109022415</v>
           </cell>
           <cell r="M19">
-            <v>0.20800548222125201</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>0.95531960776288605</v>
-          </cell>
-          <cell r="D20">
-            <v>3.9530796938946199E-2</v>
-          </cell>
-          <cell r="L20">
-            <v>0.64486164325333895</v>
-          </cell>
-          <cell r="M20">
-            <v>0.44066970756092</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>0.62859439529275696</v>
-          </cell>
-          <cell r="D21">
-            <v>0.20846066848921199</v>
-          </cell>
-          <cell r="L21">
-            <v>0.65215699621690704</v>
-          </cell>
-          <cell r="M21">
-            <v>0.65302282128685896</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>1.1638599155045799</v>
-          </cell>
-          <cell r="D22">
-            <v>0.118933378613914</v>
-          </cell>
-          <cell r="L22">
-            <v>0.79077829427236102</v>
-          </cell>
-          <cell r="M22">
-            <v>0.27985768704302399</v>
+            <v>0.34933973502280902</v>
           </cell>
         </row>
       </sheetData>
@@ -1206,737 +1132,737 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>1.1984395117181801</v>
+            <v>1.1984395000000001</v>
           </cell>
           <cell r="C2">
-            <v>0.43039625999999997</v>
+            <v>1.2614386</v>
           </cell>
           <cell r="D2">
-            <v>0.76804325288715503</v>
+            <v>6.2999108169555507E-2</v>
           </cell>
           <cell r="E2">
-            <v>-1.3270495</v>
+            <v>-0.88402944999999999</v>
           </cell>
           <cell r="F2">
-            <v>2.0158260000000001</v>
+            <v>3.6169875</v>
           </cell>
           <cell r="G2">
-            <v>3.3428754999999999</v>
+            <v>4.501017</v>
           </cell>
           <cell r="I2">
-            <v>0.49227166</v>
+            <v>0.66041386000000002</v>
           </cell>
           <cell r="J2">
-            <v>-5.8220513000000002E-2</v>
+            <v>5.4766636E-2</v>
           </cell>
           <cell r="K2">
-            <v>1.3025907000000001</v>
+            <v>1.2741275000000001</v>
           </cell>
           <cell r="L2">
-            <v>0.61289669999999996</v>
+            <v>0.72701179999999999</v>
           </cell>
           <cell r="M2">
-            <v>0.68622760000000005</v>
+            <v>0.36296737000000001</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1.97246960464513</v>
+            <v>1.9724695999999999</v>
           </cell>
           <cell r="C3">
-            <v>1.1425148000000001</v>
+            <v>1.3174644</v>
           </cell>
           <cell r="D3">
-            <v>0.82995477977789101</v>
+            <v>0.65500524834594698</v>
           </cell>
           <cell r="E3">
-            <v>-0.71933199999999997</v>
+            <v>-0.73530320000000005</v>
           </cell>
           <cell r="F3">
-            <v>3.3360612000000001</v>
+            <v>3.6751149999999999</v>
           </cell>
           <cell r="G3">
-            <v>4.0553929999999996</v>
+            <v>4.4104184999999996</v>
           </cell>
           <cell r="I3">
-            <v>0.59107750000000003</v>
+            <v>0.64731609999999995</v>
           </cell>
           <cell r="J3">
-            <v>9.7652520000000007E-2</v>
+            <v>7.9016489999999995E-2</v>
           </cell>
           <cell r="K3">
-            <v>1.2635563999999999</v>
+            <v>1.2958137999999999</v>
           </cell>
           <cell r="L3">
-            <v>0.51377773000000004</v>
+            <v>0.56400865</v>
           </cell>
           <cell r="M3">
-            <v>0.39046540000000002</v>
+            <v>0.33950138000000002</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>1.89866886802188</v>
+            <v>1.8986689000000001</v>
           </cell>
           <cell r="C4">
-            <v>1.5227846</v>
+            <v>1.5264187</v>
           </cell>
           <cell r="D4">
-            <v>0.37588427730074903</v>
+            <v>0.372250214086914</v>
           </cell>
           <cell r="E4">
-            <v>-0.30536020000000003</v>
+            <v>-0.44980013000000002</v>
           </cell>
           <cell r="F4">
-            <v>3.9637446000000001</v>
+            <v>3.9058242000000001</v>
           </cell>
           <cell r="G4">
-            <v>4.2691049999999997</v>
+            <v>4.3556239999999997</v>
           </cell>
           <cell r="I4">
-            <v>0.61316203999999996</v>
+            <v>0.63814389999999999</v>
           </cell>
           <cell r="J4">
-            <v>0.17117909000000001</v>
+            <v>0.10398999</v>
           </cell>
           <cell r="K4">
-            <v>1.2724960000000001</v>
+            <v>1.3115829999999999</v>
           </cell>
           <cell r="L4">
-            <v>0.65210705999999996</v>
+            <v>0.66797704000000002</v>
           </cell>
           <cell r="M4">
-            <v>0.26456376999999998</v>
+            <v>0.26973784000000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>0.35811277330264002</v>
+            <v>0.35811279999999901</v>
           </cell>
           <cell r="C5">
-            <v>1.3079135</v>
+            <v>1.5438341</v>
           </cell>
           <cell r="D5">
-            <v>0.949800768491183</v>
+            <v>1.18572129023284</v>
           </cell>
           <cell r="E5">
-            <v>-0.66025524999999996</v>
+            <v>-0.31800830000000002</v>
           </cell>
           <cell r="F5">
-            <v>3.6581635000000001</v>
+            <v>3.948658</v>
           </cell>
           <cell r="G5">
-            <v>4.3184189999999996</v>
+            <v>4.2666664000000001</v>
           </cell>
           <cell r="I5">
-            <v>0.62661135000000001</v>
+            <v>0.62144977000000001</v>
           </cell>
           <cell r="J5">
-            <v>0.10873590399999999</v>
+            <v>0.14096990000000001</v>
           </cell>
           <cell r="K5">
-            <v>1.2426558999999999</v>
+            <v>1.3271503</v>
           </cell>
           <cell r="L5">
-            <v>0.51263250000000005</v>
+            <v>0.40010289999999998</v>
           </cell>
           <cell r="M5">
-            <v>0.34254544999999997</v>
+            <v>0.25483084</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>1.4456858752087001</v>
+            <v>1.4456859</v>
           </cell>
           <cell r="C6">
-            <v>0.83297370000000004</v>
+            <v>0.76067364000000004</v>
           </cell>
           <cell r="D6">
-            <v>0.61271215656551103</v>
+            <v>0.685012257841491</v>
           </cell>
           <cell r="E6">
-            <v>-1.4398899000000001</v>
+            <v>-2.0274733999999999</v>
           </cell>
           <cell r="F6">
-            <v>3.046449</v>
+            <v>3.1417033999999999</v>
           </cell>
           <cell r="G6">
-            <v>4.4863385999999998</v>
+            <v>5.1691770000000004</v>
           </cell>
           <cell r="I6">
-            <v>0.65317166000000004</v>
+            <v>0.74054675999999997</v>
           </cell>
           <cell r="J6">
-            <v>-1.7079792999999999E-2</v>
+            <v>-0.11151643</v>
           </cell>
           <cell r="K6">
-            <v>1.2031061999999999</v>
+            <v>1.1428475</v>
           </cell>
           <cell r="L6">
-            <v>0.59608804999999998</v>
+            <v>0.5398811</v>
           </cell>
           <cell r="M6">
-            <v>0.50529279999999999</v>
+            <v>0.52429309999999996</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>1.0615788045935399</v>
+            <v>1.0615787999999999</v>
           </cell>
           <cell r="C7">
-            <v>1.4493963000000001</v>
+            <v>1.2662428999999999</v>
           </cell>
           <cell r="D7">
-            <v>0.38781744803860002</v>
+            <v>0.20466406174774099</v>
           </cell>
           <cell r="E7">
-            <v>-0.23217006000000001</v>
+            <v>-0.99487510000000001</v>
           </cell>
           <cell r="F7">
-            <v>3.5881287999999998</v>
+            <v>3.6353249999999999</v>
           </cell>
           <cell r="G7">
-            <v>3.8202989999999999</v>
+            <v>4.6302000000000003</v>
           </cell>
           <cell r="I7">
-            <v>0.55799860000000001</v>
+            <v>0.67720084999999997</v>
           </cell>
           <cell r="J7">
-            <v>0.13159841</v>
+            <v>2.8644077E-2</v>
           </cell>
           <cell r="K7">
-            <v>1.3318875999999999</v>
+            <v>1.2388098000000001</v>
           </cell>
           <cell r="L7">
-            <v>0.83805686000000001</v>
+            <v>0.6812068</v>
           </cell>
           <cell r="M7">
-            <v>0.26262533999999998</v>
+            <v>0.36848930000000002</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8">
-            <v>0.77574174152678999</v>
+            <v>0.77574169999999998</v>
           </cell>
           <cell r="C8">
-            <v>0.83855380000000002</v>
+            <v>0.71253330000000004</v>
           </cell>
           <cell r="D8">
-            <v>6.2812044750980997E-2</v>
+            <v>6.3208404845428404E-2</v>
           </cell>
           <cell r="E8">
-            <v>-1.573709</v>
+            <v>-2.2684530999999999</v>
           </cell>
           <cell r="F8">
-            <v>3.1240988000000001</v>
+            <v>3.1224050000000001</v>
           </cell>
           <cell r="G8">
-            <v>4.6978080000000002</v>
+            <v>5.3908579999999997</v>
           </cell>
           <cell r="I8">
-            <v>0.68106294000000001</v>
+            <v>0.76136820000000005</v>
           </cell>
           <cell r="J8">
-            <v>-3.6124616999999998E-2</v>
+            <v>-0.16278625999999999</v>
           </cell>
           <cell r="K8">
-            <v>1.1773328999999999</v>
+            <v>1.0932496</v>
           </cell>
           <cell r="L8">
-            <v>0.6546651</v>
+            <v>0.55106619999999995</v>
           </cell>
           <cell r="M8">
-            <v>0.50327129999999998</v>
+            <v>0.53513390000000005</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>0.68453622892454002</v>
+            <v>0.68453619999999904</v>
           </cell>
           <cell r="C9">
-            <v>0.86678759999999999</v>
+            <v>0.99490529999999999</v>
           </cell>
           <cell r="D9">
-            <v>0.18225138351366099</v>
+            <v>0.310369092987823</v>
           </cell>
           <cell r="E9">
-            <v>-1.3036867000000001</v>
+            <v>-1.5437132</v>
           </cell>
           <cell r="F9">
-            <v>3.0889125000000002</v>
+            <v>3.3471391000000001</v>
           </cell>
           <cell r="G9">
-            <v>4.3925989999999997</v>
+            <v>4.8908525000000003</v>
           </cell>
           <cell r="I9">
-            <v>0.639374</v>
+            <v>0.71010510000000004</v>
           </cell>
           <cell r="J9">
-            <v>1.5214040999999999E-2</v>
+            <v>-4.9827542000000002E-2</v>
           </cell>
           <cell r="K9">
-            <v>1.2010928000000001</v>
+            <v>1.1944471999999999</v>
           </cell>
           <cell r="L9">
-            <v>0.7030343</v>
+            <v>0.60485655000000005</v>
           </cell>
           <cell r="M9">
-            <v>0.49416347999999999</v>
+            <v>0.45697473999999999</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>1.37651893264667</v>
+            <v>1.3765189</v>
           </cell>
           <cell r="C10">
-            <v>0.97396799999999994</v>
+            <v>0.75238320000000003</v>
           </cell>
           <cell r="D10">
-            <v>0.402550903624453</v>
+            <v>0.62413572748794499</v>
           </cell>
           <cell r="E10">
-            <v>-1.3845582999999999</v>
+            <v>-2.1229247999999998</v>
           </cell>
           <cell r="F10">
-            <v>3.3090093</v>
+            <v>3.1428946999999998</v>
           </cell>
           <cell r="G10">
-            <v>4.6935678000000003</v>
+            <v>5.2658195000000001</v>
           </cell>
           <cell r="I10">
-            <v>0.68296659999999998</v>
+            <v>0.74987029999999999</v>
           </cell>
           <cell r="J10">
-            <v>-6.5034665E-3</v>
+            <v>-0.13472724999999999</v>
           </cell>
           <cell r="K10">
-            <v>1.1978259</v>
+            <v>1.1226041</v>
           </cell>
           <cell r="L10">
-            <v>0.62331694000000004</v>
+            <v>0.54424340000000004</v>
           </cell>
           <cell r="M10">
-            <v>0.46138653000000002</v>
+            <v>0.52582127000000001</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>1.6370484416725299</v>
+            <v>1.6370484000000001</v>
           </cell>
           <cell r="C11">
-            <v>0.82766740000000005</v>
+            <v>1.0725503999999999</v>
           </cell>
           <cell r="D11">
-            <v>0.80938102653046995</v>
+            <v>0.56449798400726303</v>
           </cell>
           <cell r="E11">
-            <v>-1.9240664000000001</v>
+            <v>-1.4716691</v>
           </cell>
           <cell r="F11">
-            <v>3.3037488000000002</v>
+            <v>3.4474597</v>
           </cell>
           <cell r="G11">
-            <v>5.2278149999999997</v>
+            <v>4.9191289999999999</v>
           </cell>
           <cell r="I11">
-            <v>0.75255614999999998</v>
+            <v>0.71243816999999998</v>
           </cell>
           <cell r="J11">
-            <v>-7.4178670000000002E-2</v>
+            <v>-4.6319899999999997E-2</v>
           </cell>
           <cell r="K11">
-            <v>1.1451530000000001</v>
+            <v>1.1742455999999999</v>
           </cell>
           <cell r="L11">
-            <v>0.50114274000000003</v>
+            <v>0.57232594000000003</v>
           </cell>
           <cell r="M11">
-            <v>0.50583750000000005</v>
+            <v>0.43545640000000002</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12">
-            <v>0.42620565706704999</v>
+            <v>0.42620569999999902</v>
           </cell>
           <cell r="C12">
-            <v>1.1073898</v>
+            <v>1.2042732</v>
           </cell>
           <cell r="D12">
-            <v>0.68118415063406001</v>
+            <v>0.77806752387695299</v>
           </cell>
           <cell r="E12">
-            <v>-1.4339622000000001</v>
+            <v>-1.2136681</v>
           </cell>
           <cell r="F12">
-            <v>3.620854</v>
+            <v>3.5669900999999999</v>
           </cell>
           <cell r="G12">
-            <v>5.0548162000000003</v>
+            <v>4.7806582000000004</v>
           </cell>
           <cell r="I12">
-            <v>0.73391472999999996</v>
+            <v>0.69621750000000004</v>
           </cell>
           <cell r="J12">
-            <v>-7.3358025000000004E-3</v>
+            <v>-1.4869031E-2</v>
           </cell>
           <cell r="K12">
-            <v>1.1818964000000001</v>
+            <v>1.2047669999999999</v>
           </cell>
           <cell r="L12">
-            <v>0.52256599999999997</v>
+            <v>0.51602780000000004</v>
           </cell>
           <cell r="M12">
-            <v>0.42690630000000002</v>
+            <v>0.3935632</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>0.69710165923830003</v>
+            <v>0.69710170000000005</v>
           </cell>
           <cell r="C13">
-            <v>0.30310047000000001</v>
+            <v>0.58094270000000003</v>
           </cell>
           <cell r="D13">
-            <v>0.39400119251008903</v>
+            <v>0.11615900962753301</v>
           </cell>
           <cell r="E13">
-            <v>-3.1706466999999998</v>
+            <v>-2.4571679999999998</v>
           </cell>
           <cell r="F13">
-            <v>2.9369814000000001</v>
+            <v>3.015949</v>
           </cell>
           <cell r="G13">
-            <v>6.1076280000000001</v>
+            <v>5.4731170000000002</v>
           </cell>
           <cell r="I13">
-            <v>0.85133150000000002</v>
+            <v>0.77084649999999999</v>
           </cell>
           <cell r="J13">
-            <v>-0.21712923000000001</v>
+            <v>-0.17206263999999999</v>
           </cell>
           <cell r="K13">
-            <v>1.0810153</v>
+            <v>1.0838357999999999</v>
           </cell>
           <cell r="L13">
-            <v>0.49293584000000001</v>
+            <v>0.54266274000000003</v>
           </cell>
           <cell r="M13">
-            <v>0.62471169999999998</v>
+            <v>0.56788680000000002</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>0.36475656096341003</v>
+            <v>0.36475659999999999</v>
           </cell>
           <cell r="C14">
-            <v>0.65660565999999998</v>
+            <v>0.7593164</v>
           </cell>
           <cell r="D14">
-            <v>0.29184909995196401</v>
+            <v>0.39455978479232701</v>
           </cell>
           <cell r="E14">
-            <v>-1.8578967</v>
+            <v>-2.0943329999999998</v>
           </cell>
           <cell r="F14">
-            <v>2.9168655999999999</v>
+            <v>3.1649761000000001</v>
           </cell>
           <cell r="G14">
-            <v>4.774762</v>
+            <v>5.259309</v>
           </cell>
           <cell r="I14">
-            <v>0.68840129999999999</v>
+            <v>0.74970113999999999</v>
           </cell>
           <cell r="J14">
-            <v>-7.3630705000000005E-2</v>
+            <v>-0.12536938</v>
           </cell>
           <cell r="K14">
-            <v>1.1567099000000001</v>
+            <v>1.1181946</v>
           </cell>
           <cell r="L14">
-            <v>0.60749109999999995</v>
+            <v>0.52553092999999995</v>
           </cell>
           <cell r="M14">
-            <v>0.55757665999999995</v>
+            <v>0.52392994999999998</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15">
-            <v>-1.2066581219643699</v>
+            <v>-1.2066581000000001</v>
           </cell>
           <cell r="C15">
-            <v>0.84940740000000003</v>
+            <v>0.88248026000000002</v>
           </cell>
           <cell r="D15">
-            <v>2.0560654968232202</v>
+            <v>2.08913836371002</v>
           </cell>
           <cell r="E15">
-            <v>-2.1982113999999999</v>
+            <v>-1.7215016999999999</v>
           </cell>
           <cell r="F15">
-            <v>3.3202588999999998</v>
+            <v>3.2107599000000002</v>
           </cell>
           <cell r="G15">
-            <v>5.5184702999999997</v>
+            <v>4.9322615000000001</v>
           </cell>
           <cell r="I15">
-            <v>0.79173183000000003</v>
+            <v>0.71448462999999995</v>
           </cell>
           <cell r="J15">
-            <v>-0.13801152</v>
+            <v>-7.3359995999999997E-2</v>
           </cell>
           <cell r="K15">
-            <v>1.1929888</v>
+            <v>1.1927851</v>
           </cell>
           <cell r="L15">
-            <v>0.21519335000000001</v>
+            <v>0.19564189000000001</v>
           </cell>
           <cell r="M15">
-            <v>0.49995148</v>
+            <v>0.49021905999999998</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16">
-            <v>-5.8116608769129501</v>
+            <v>-5.8116608999999997</v>
           </cell>
           <cell r="C16">
-            <v>-6.4910145000000004</v>
+            <v>-5.7945633000000001</v>
           </cell>
           <cell r="D16">
-            <v>0.67935360367786102</v>
+            <v>1.7097606542968401E-2</v>
           </cell>
           <cell r="E16">
-            <v>-17.368210000000001</v>
+            <v>-11.677408</v>
           </cell>
           <cell r="F16">
-            <v>-1.6668909000000001</v>
+            <v>-1.4532559</v>
           </cell>
           <cell r="G16">
-            <v>15.701319</v>
+            <v>10.224152999999999</v>
           </cell>
           <cell r="I16">
-            <v>1.3086134</v>
+            <v>1.1591309000000001</v>
           </cell>
           <cell r="J16">
-            <v>-1.3301461999999999</v>
+            <v>-1.3205003</v>
           </cell>
           <cell r="K16">
-            <v>0.82587169999999999</v>
+            <v>0.45385343</v>
           </cell>
           <cell r="L16">
-            <v>0.18090853000000001</v>
+            <v>0.22471923999999999</v>
           </cell>
           <cell r="M16">
-            <v>0.99992479999999995</v>
+            <v>0.99980959999999997</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>3.6193272437291499</v>
+            <v>3.6193271999999999</v>
           </cell>
           <cell r="C17">
-            <v>-1.8468036999999999</v>
+            <v>-1.4901707</v>
           </cell>
           <cell r="D17">
-            <v>5.4661309088902801</v>
+            <v>5.1094979172393797</v>
           </cell>
           <cell r="E17">
-            <v>-4.8435699999999997</v>
+            <v>-4.3385490000000004</v>
           </cell>
           <cell r="F17">
-            <v>-0.16471566000000001</v>
+            <v>-0.15993126999999999</v>
           </cell>
           <cell r="G17">
-            <v>4.6788544999999999</v>
+            <v>4.1786180000000002</v>
           </cell>
           <cell r="I17">
-            <v>0.59311663999999997</v>
+            <v>0.53797700000000004</v>
           </cell>
           <cell r="J17">
-            <v>-0.46505573</v>
+            <v>-0.40330806000000002</v>
           </cell>
           <cell r="K17">
-            <v>1.0908567</v>
+            <v>1.3981425999999999</v>
           </cell>
           <cell r="L17">
-            <v>2.3538900000000001E-8</v>
+            <v>8.8273663000000003E-7</v>
           </cell>
           <cell r="M17">
-            <v>0.99749522999999995</v>
+            <v>0.99706709999999998</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>2.19684116628477</v>
+            <v>2.1968412000000002</v>
           </cell>
           <cell r="C18">
-            <v>1.2294874</v>
+            <v>2.1229695999999998</v>
           </cell>
           <cell r="D18">
-            <v>0.96735374715635203</v>
+            <v>7.3871572619628997E-2</v>
           </cell>
           <cell r="E18">
-            <v>4.3588783999999998E-2</v>
+            <v>0.93837839999999995</v>
           </cell>
           <cell r="F18">
-            <v>3.0257022</v>
+            <v>4.7748220000000003</v>
           </cell>
           <cell r="G18">
-            <v>2.9821133999999998</v>
+            <v>3.8364440000000002</v>
           </cell>
           <cell r="I18">
-            <v>0.42996264000000001</v>
+            <v>0.50565963999999997</v>
           </cell>
           <cell r="J18">
-            <v>0.20500544000000001</v>
+            <v>0.36356339999999998</v>
           </cell>
           <cell r="K18">
-            <v>1.4260911999999999</v>
+            <v>1.5400324999999999</v>
           </cell>
           <cell r="L18">
-            <v>0.41975072000000002</v>
+            <v>0.93753600000000004</v>
           </cell>
           <cell r="M18">
-            <v>0.28493243000000001</v>
+            <v>3.9852551999999999E-2</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19">
-            <v>3.33053791781479</v>
+            <v>3.3305378999999999</v>
           </cell>
           <cell r="C19">
-            <v>-1.6458146E-2</v>
+            <v>1.6929335999999999</v>
           </cell>
           <cell r="D19">
-            <v>3.3469960640888798</v>
+            <v>1.63760434058227</v>
           </cell>
           <cell r="E19">
-            <v>-1.7435335000000001</v>
+            <v>0.22026213</v>
           </cell>
           <cell r="F19">
-            <v>1.2676400999999999</v>
+            <v>4.1459875000000004</v>
           </cell>
           <cell r="G19">
-            <v>3.0111737000000001</v>
+            <v>3.9257255</v>
           </cell>
           <cell r="I19">
-            <v>0.43560100000000002</v>
+            <v>0.55477770000000004</v>
           </cell>
           <cell r="J19">
-            <v>-0.16463091999999999</v>
+            <v>0.2510753</v>
           </cell>
           <cell r="K19">
-            <v>1.3221915</v>
+            <v>1.4353772</v>
           </cell>
           <cell r="L19">
-            <v>9.1443009999999996E-4</v>
+            <v>0.22806999999999999</v>
           </cell>
           <cell r="M19">
-            <v>0.87521093999999999</v>
+            <v>0.16125708999999999</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20">
-            <v>2.41904761904763</v>
+            <v>2.4190475999999999</v>
           </cell>
           <cell r="C20">
-            <v>1.5561788999999999</v>
+            <v>1.8836961000000001</v>
           </cell>
           <cell r="D20">
-            <v>0.86286869162605995</v>
+            <v>0.53535152074584902</v>
           </cell>
           <cell r="E20">
-            <v>0.36960850000000001</v>
+            <v>0.81486075999999996</v>
           </cell>
           <cell r="F20">
-            <v>3.7990599</v>
+            <v>4.4285445000000001</v>
           </cell>
           <cell r="G20">
-            <v>3.4294514999999999</v>
+            <v>3.6136837000000002</v>
           </cell>
           <cell r="I20">
-            <v>0.46301234000000002</v>
+            <v>0.47181440000000002</v>
           </cell>
           <cell r="J20">
-            <v>0.33137319999999998</v>
+            <v>0.37280595</v>
           </cell>
           <cell r="K20">
-            <v>1.3988361</v>
+            <v>1.5923096999999999</v>
           </cell>
           <cell r="L20">
-            <v>0.45846763000000001</v>
+            <v>0.59084219999999998</v>
           </cell>
           <cell r="M20">
-            <v>0.16057991999999999</v>
+            <v>5.4929949999999998E-2</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21">
-            <v>1.02530100023447</v>
+            <v>1.025301</v>
           </cell>
           <cell r="C21">
-            <v>1.6342584</v>
+            <v>1.762186</v>
           </cell>
           <cell r="D21">
-            <v>0.60895738923849096</v>
+            <v>0.73688505041503904</v>
           </cell>
           <cell r="E21">
-            <v>-0.13255550999999999</v>
+            <v>0.31778356000000002</v>
           </cell>
           <cell r="F21">
-            <v>4.1397542999999999</v>
+            <v>4.2429170000000003</v>
           </cell>
           <cell r="G21">
-            <v>4.2723100000000001</v>
+            <v>3.9251334999999998</v>
           </cell>
           <cell r="I21">
-            <v>0.60741155999999996</v>
+            <v>0.55073070000000002</v>
           </cell>
           <cell r="J21">
-            <v>0.20644199999999999</v>
+            <v>0.26558807000000001</v>
           </cell>
           <cell r="K21">
-            <v>1.2770082</v>
+            <v>1.4394579000000001</v>
           </cell>
           <cell r="L21">
-            <v>0.7050246</v>
+            <v>0.68694067000000003</v>
           </cell>
           <cell r="M21">
-            <v>0.22679247999999999</v>
+            <v>0.13939009999999999</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22">
-            <v>1.76646203347234</v>
+            <v>1.766462</v>
           </cell>
           <cell r="C22">
-            <v>1.1745954000000001</v>
+            <v>1.0438993000000001</v>
           </cell>
           <cell r="D22">
-            <v>0.59186667748479105</v>
+            <v>0.72256270228576602</v>
           </cell>
           <cell r="E22">
-            <v>-0.87755733999999996</v>
+            <v>-1.4645866999999999</v>
           </cell>
           <cell r="F22">
-            <v>3.370358</v>
+            <v>3.4193305999999999</v>
           </cell>
           <cell r="G22">
-            <v>4.2479152999999998</v>
+            <v>4.8839173000000002</v>
           </cell>
           <cell r="I22">
-            <v>0.62269540000000001</v>
+            <v>0.70884055000000001</v>
           </cell>
           <cell r="J22">
-            <v>4.0408075000000002E-2</v>
+            <v>-3.6054067000000002E-2</v>
           </cell>
           <cell r="K22">
-            <v>1.2595434999999999</v>
+            <v>1.1855895999999999</v>
           </cell>
           <cell r="L22">
-            <v>0.61159699999999995</v>
+            <v>0.53732179999999996</v>
           </cell>
           <cell r="M22">
-            <v>0.38585454000000002</v>
+            <v>0.44281542000000002</v>
           </cell>
         </row>
       </sheetData>
@@ -1952,299 +1878,299 @@
       <sheetName val="results_benchmark_Estonia"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="2">
           <cell r="C2">
-            <v>1.20421091141631</v>
+            <v>0.90571872268585096</v>
           </cell>
           <cell r="D2">
-            <v>5.7713996981365503E-3</v>
+            <v>0.29272077731414903</v>
           </cell>
           <cell r="L2">
-            <v>1.15850969983109</v>
+            <v>0.64634466650005995</v>
           </cell>
           <cell r="M2">
-            <v>0.32746563700944697</v>
+            <v>0.48181137460016599</v>
           </cell>
         </row>
         <row r="3">
           <cell r="C3">
-            <v>0.92124754548783205</v>
+            <v>0.92991802081131303</v>
           </cell>
           <cell r="D3">
-            <v>1.0512220591573</v>
+            <v>1.0425515791886799</v>
           </cell>
           <cell r="L3">
-            <v>0.474354733982848</v>
+            <v>0.45755316330104301</v>
           </cell>
           <cell r="M3">
-            <v>0.471158968250463</v>
+            <v>0.47396304580846998</v>
           </cell>
         </row>
         <row r="4">
           <cell r="C4">
-            <v>1.03949080064625</v>
+            <v>0.96732797761547995</v>
           </cell>
           <cell r="D4">
-            <v>0.85917806737562696</v>
+            <v>0.93134092238451904</v>
           </cell>
           <cell r="L4">
-            <v>0.48724239613006898</v>
+            <v>0.448979139245544</v>
           </cell>
           <cell r="M4">
-            <v>0.43614923698046898</v>
+            <v>0.46620361927914999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>0.92731882978143398</v>
+            <v>1.4786745740238201</v>
           </cell>
           <cell r="D5">
-            <v>0.56920605647879396</v>
+            <v>1.1205617740238201</v>
           </cell>
           <cell r="L5">
-            <v>0.75011890918149204</v>
+            <v>0.48092639757133798</v>
           </cell>
           <cell r="M5">
-            <v>0.47500862314998099</v>
+            <v>0.26661270338165999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>0.871662245965664</v>
+            <v>0.54050189190488096</v>
           </cell>
           <cell r="D6">
-            <v>0.57402362924303496</v>
+            <v>0.90518400809511801</v>
           </cell>
           <cell r="L6">
-            <v>0.76467607968914397</v>
+            <v>0.48970618352033501</v>
           </cell>
           <cell r="M6">
-            <v>0.490630823448713</v>
+            <v>0.59122627878536105</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>1.90442712183715</v>
+            <v>1.15793826844268</v>
           </cell>
           <cell r="D7">
-            <v>0.84284831724361498</v>
+            <v>9.63594684426827E-2</v>
           </cell>
           <cell r="L7">
-            <v>0.55037431593501795</v>
+            <v>0.73341594897625195</v>
           </cell>
           <cell r="M7">
-            <v>0.112265834987337</v>
+            <v>0.39422935548524102</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>0.77294110686222295</v>
+            <v>0.77975950829876395</v>
           </cell>
           <cell r="D8">
-            <v>2.80063466456637E-3</v>
+            <v>4.0178082987640798E-3</v>
           </cell>
           <cell r="L8">
-            <v>0.71568057573490995</v>
+            <v>0.63415498186010899</v>
           </cell>
           <cell r="M8">
-            <v>0.52525795315888202</v>
+            <v>0.52043711825802896</v>
           </cell>
         </row>
         <row r="9">
           <cell r="C9">
-            <v>0.44358508969538402</v>
+            <v>0.56384155459997498</v>
           </cell>
           <cell r="D9">
-            <v>0.24095113922915501</v>
+            <v>0.120694645400024</v>
           </cell>
           <cell r="L9">
-            <v>0.65070045148853395</v>
+            <v>0.60278978695448204</v>
           </cell>
           <cell r="M9">
-            <v>0.62450585825334404</v>
+            <v>0.57981315456289095</v>
           </cell>
         </row>
         <row r="10">
           <cell r="C10">
-            <v>1.0534846816172501</v>
+            <v>0.551398455737939</v>
           </cell>
           <cell r="D10">
-            <v>0.32303425102941502</v>
+            <v>0.82512044426205999</v>
           </cell>
           <cell r="L10">
-            <v>0.81639116582420002</v>
+            <v>0.48670433987400802</v>
           </cell>
           <cell r="M10">
-            <v>0.41747055136936601</v>
+            <v>0.58322430441557604</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>0.84400827133852596</v>
+            <v>1.20576235584151</v>
           </cell>
           <cell r="D11">
-            <v>0.79304017033400398</v>
+            <v>0.43128604415848498</v>
           </cell>
           <cell r="L11">
-            <v>0.47349039799631598</v>
+            <v>0.67113676858982796</v>
           </cell>
           <cell r="M11">
-            <v>0.50152985453182297</v>
+            <v>0.375591433200964</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>1.2276498005324299</v>
+            <v>1.0878986375455799</v>
           </cell>
           <cell r="D12">
-            <v>0.80144414346537995</v>
+            <v>0.66169293754558001</v>
           </cell>
           <cell r="L12">
-            <v>0.739499869401819</v>
+            <v>0.65297081453324402</v>
           </cell>
           <cell r="M12">
-            <v>0.36955815203703302</v>
+            <v>0.42428150583951502</v>
           </cell>
         </row>
         <row r="13">
           <cell r="C13">
-            <v>0.69597206174066695</v>
+            <v>0.76455429477115999</v>
           </cell>
           <cell r="D13">
-            <v>1.12959749763252E-3</v>
+            <v>6.7452594771160806E-2</v>
           </cell>
           <cell r="L13">
-            <v>0.65072195717190895</v>
+            <v>0.70635059422079505</v>
           </cell>
           <cell r="M13">
-            <v>0.54559948865410501</v>
+            <v>0.52771090781074104</v>
           </cell>
         </row>
         <row r="14">
           <cell r="C14">
-            <v>0.48659825316909799</v>
+            <v>0.88992703030050402</v>
           </cell>
           <cell r="D14">
-            <v>0.121841692205688</v>
+            <v>0.52517043030050403</v>
           </cell>
           <cell r="L14">
-            <v>0.69629462233033301</v>
+            <v>0.67389412054539299</v>
           </cell>
           <cell r="M14">
-            <v>0.60919873152366799</v>
+            <v>0.486382819920405</v>
           </cell>
         </row>
         <row r="15">
           <cell r="C15">
-            <v>2.6439884294238398</v>
+            <v>0.17285228150080401</v>
           </cell>
           <cell r="D15">
-            <v>3.85064655138821</v>
+            <v>1.3795103815008001</v>
           </cell>
           <cell r="L15">
-            <v>1.5629736024133001E-5</v>
+            <v>0.413346858306328</v>
           </cell>
           <cell r="M15">
-            <v>9.8234095094486603E-3</v>
+            <v>0.66433027166133996</v>
           </cell>
         </row>
         <row r="16">
           <cell r="C16">
-            <v>0.25763275505635502</v>
+            <v>1.50283720876164</v>
           </cell>
           <cell r="D16">
-            <v>6.0692936319693098</v>
+            <v>7.3144981087616401</v>
           </cell>
           <cell r="L16">
-            <v>3.7377469249152403E-7</v>
+            <v>1.8251110373885899E-10</v>
           </cell>
           <cell r="M16">
-            <v>0.61424427031104101</v>
+            <v>0.162082373567322</v>
           </cell>
         </row>
         <row r="17">
           <cell r="C17">
-            <v>-2.3065149618116698</v>
+            <v>-2.6848504496685601</v>
           </cell>
           <cell r="D17">
-            <v>5.9258422055408202</v>
+            <v>6.30417764966856</v>
           </cell>
           <cell r="L17">
-            <v>6.8817539457478905E-8</v>
+            <v>1.6066473465723701E-3</v>
           </cell>
           <cell r="M17">
-            <v>0.99927948814602297</v>
+            <v>0.97170727005664503</v>
           </cell>
         </row>
         <row r="18">
           <cell r="C18">
-            <v>1.8397689724857</v>
+            <v>1.38605602836061</v>
           </cell>
           <cell r="D18">
-            <v>0.35707219379906602</v>
+            <v>0.81078517163938602</v>
           </cell>
           <cell r="L18">
-            <v>1.15988358301871</v>
+            <v>0.44268659161481899</v>
           </cell>
           <cell r="M18">
-            <v>0.12702436683493301</v>
+            <v>0.35071363068803801</v>
           </cell>
         </row>
         <row r="19">
           <cell r="C19">
-            <v>1.29446795558254</v>
+            <v>1.59681812489659</v>
           </cell>
           <cell r="D19">
-            <v>2.03606996223224</v>
+            <v>1.7337197751033999</v>
           </cell>
           <cell r="L19">
-            <v>1.11409836378002E-4</v>
+            <v>0.22237574254979001</v>
           </cell>
           <cell r="M19">
-            <v>0.26667847722536497</v>
+            <v>0.21343977837333</v>
           </cell>
         </row>
         <row r="20">
           <cell r="C20">
-            <v>0.94324228336992799</v>
+            <v>1.24176139025968</v>
           </cell>
           <cell r="D20">
-            <v>1.4758053356776999</v>
+            <v>1.1772862097403101</v>
           </cell>
           <cell r="L20">
-            <v>0.31487963377384798</v>
+            <v>0.37617964374254798</v>
           </cell>
           <cell r="M20">
-            <v>0.46873347868602599</v>
+            <v>0.391291122799521</v>
           </cell>
         </row>
         <row r="21">
           <cell r="C21">
-            <v>0.93246448884230404</v>
+            <v>1.75063144579116</v>
           </cell>
           <cell r="D21">
-            <v>9.2836511392165894E-2</v>
+            <v>0.72533044579116102</v>
           </cell>
           <cell r="L21">
-            <v>0.59201916920321895</v>
+            <v>0.74132359955012295</v>
           </cell>
           <cell r="M21">
-            <v>0.476087709340487</v>
+            <v>0.15529141994054299</v>
           </cell>
         </row>
         <row r="22">
           <cell r="C22">
-            <v>1.68648363599055</v>
+            <v>1.1079757281307401</v>
           </cell>
           <cell r="D22">
-            <v>7.9978397481789101E-2</v>
+            <v>0.65848627186925501</v>
           </cell>
           <cell r="L22">
-            <v>1.1086920447264501</v>
+            <v>0.62205417914093297</v>
           </cell>
           <cell r="M22">
-            <v>0.184884546303383</v>
+            <v>0.40794802421646698</v>
           </cell>
         </row>
       </sheetData>
@@ -2263,359 +2189,308 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>1.2242718446601799</v>
+            <v>1.036133</v>
           </cell>
           <cell r="C2">
-            <v>1.0645761605806501</v>
+            <v>1.04163544906804</v>
           </cell>
           <cell r="D2">
-            <v>0.159695684079529</v>
+            <v>5.5024490680493001E-3</v>
           </cell>
           <cell r="L2">
-            <v>0.87027677799496905</v>
+            <v>0.97642368759311204</v>
           </cell>
           <cell r="M2">
-            <v>0.48358471034110001</v>
+            <v>0.41575798298683497</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1.1480802984817</v>
+            <v>0.8970863</v>
           </cell>
           <cell r="C3">
-            <v>1.1601251379739099</v>
+            <v>1.08317727887675</v>
           </cell>
           <cell r="D3">
-            <v>1.2044839492218301E-2</v>
+            <v>0.18609097887675</v>
           </cell>
           <cell r="L3">
-            <v>0.84347069203965697</v>
+            <v>0.98265245777107801</v>
           </cell>
           <cell r="M3">
-            <v>0.44560448668553498</v>
+            <v>0.396699197680562</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.85247207419067905</v>
+            <v>0.85498459999999998</v>
           </cell>
           <cell r="C4">
-            <v>1.14209579357559</v>
+            <v>1.39920542306266</v>
           </cell>
           <cell r="D4">
-            <v>0.28962371938491399</v>
+            <v>0.54422082306266295</v>
           </cell>
           <cell r="L4">
-            <v>0.86846319958278895</v>
+            <v>0.71420431504650905</v>
           </cell>
           <cell r="M4">
-            <v>0.45254422737993599</v>
+            <v>0.27982241434946598</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>1.03613302368439</v>
+            <v>1.2053041</v>
           </cell>
           <cell r="C5">
-            <v>0.87643009138911798</v>
+            <v>0.91456707123824998</v>
           </cell>
           <cell r="D5">
-            <v>0.15970293229527099</v>
+            <v>0.29073702876174901</v>
           </cell>
           <cell r="L5">
-            <v>0.83201135749536104</v>
+            <v>0.81783472879894004</v>
           </cell>
           <cell r="M5">
-            <v>0.56205011589054199</v>
+            <v>0.47545864511837099</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>0.89708633060050003</v>
+            <v>0.86655579999999999</v>
           </cell>
           <cell r="C6">
-            <v>1.1336714709826901</v>
+            <v>1.1356572226141499</v>
           </cell>
           <cell r="D6">
-            <v>0.23658514038219899</v>
+            <v>0.26910142261415798</v>
           </cell>
           <cell r="L6">
-            <v>0.88257142326396698</v>
+            <v>0.96442104876328005</v>
           </cell>
           <cell r="M6">
-            <v>0.45500588043893397</v>
+            <v>0.37383622486752499</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>0.85498464347970005</v>
+            <v>1.2837395999999901</v>
           </cell>
           <cell r="C7">
-            <v>1.52717075289062</v>
+            <v>1.00375951033932</v>
           </cell>
           <cell r="D7">
-            <v>0.67218610941092705</v>
+            <v>0.279980089660676</v>
           </cell>
           <cell r="L7">
-            <v>0.61229096560969198</v>
+            <v>0.85899161324638995</v>
           </cell>
           <cell r="M7">
-            <v>0.309383193395322</v>
+            <v>0.43368422127953499</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8">
-            <v>1.20530406950161</v>
+            <v>1.402795</v>
           </cell>
           <cell r="C8">
-            <v>0.90326323332056901</v>
+            <v>1.0688372400036901</v>
           </cell>
           <cell r="D8">
-            <v>0.30204083618104</v>
+            <v>0.33395775999630101</v>
           </cell>
           <cell r="L8">
-            <v>0.779286796016604</v>
+            <v>0.78329736237550296</v>
           </cell>
           <cell r="M8">
-            <v>0.55093534885322104</v>
+            <v>0.40830912646185002</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>0.86655582462860004</v>
+            <v>1.1810267999999999</v>
           </cell>
           <cell r="C9">
-            <v>0.96419747437571102</v>
+            <v>0.95416017006369802</v>
           </cell>
           <cell r="D9">
-            <v>9.76416497471118E-2</v>
+            <v>0.22686662993630199</v>
           </cell>
           <cell r="L9">
-            <v>0.83536114711950804</v>
+            <v>0.74300369040955905</v>
           </cell>
           <cell r="M9">
-            <v>0.524327851266296</v>
+            <v>0.462301692515389</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>1.2837395970509</v>
+            <v>0.39741379999999998</v>
           </cell>
           <cell r="C10">
-            <v>1.1726986214745401</v>
+            <v>0.69811592156631497</v>
           </cell>
           <cell r="D10">
-            <v>0.111040975576356</v>
+            <v>0.30070212156631498</v>
           </cell>
           <cell r="L10">
-            <v>0.89183286740380197</v>
+            <v>1.06124293541515</v>
           </cell>
           <cell r="M10">
-            <v>0.43707865093724702</v>
+            <v>0.56455076605936505</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>1.40279497611888</v>
+            <v>1.2897021</v>
           </cell>
           <cell r="C11">
-            <v>1.1302784346750301</v>
+            <v>0.86995570222349095</v>
           </cell>
           <cell r="D11">
-            <v>0.27251654144384002</v>
+            <v>0.41974639777650802</v>
           </cell>
           <cell r="L11">
-            <v>0.758287311655365</v>
+            <v>0.81310757963263003</v>
           </cell>
           <cell r="M11">
-            <v>0.45859196449960099</v>
+            <v>0.494511031399958</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12">
-            <v>1.18102681297209</v>
+            <v>0.73158529999999999</v>
           </cell>
           <cell r="C12">
-            <v>1.30070870091476</v>
+            <v>0.92254774111350502</v>
           </cell>
           <cell r="D12">
-            <v>0.119681887942673</v>
+            <v>0.19096244111350499</v>
           </cell>
           <cell r="L12">
-            <v>0.86137955028469804</v>
+            <v>0.88172296208474399</v>
           </cell>
           <cell r="M12">
-            <v>0.38711035550752398</v>
+            <v>0.47468880870189401</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>0.39741379310344999</v>
+            <v>-5.8640365000000001</v>
           </cell>
           <cell r="C13">
-            <v>1.1352338864037601</v>
+            <v>1.50549115723255</v>
           </cell>
           <cell r="D13">
-            <v>0.73782009330031195</v>
+            <v>7.3695276572325499</v>
           </cell>
           <cell r="L13">
-            <v>0.71262802423261895</v>
+            <v>6.9375372067493897E-4</v>
           </cell>
           <cell r="M13">
-            <v>0.45520557543490098</v>
+            <v>0.163389165882905</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>1.2897021320441999</v>
+            <v>3.8817072000000001</v>
           </cell>
           <cell r="C14">
-            <v>0.79577463194835996</v>
+            <v>-0.78496948923338705</v>
           </cell>
           <cell r="D14">
-            <v>0.49392750009583902</v>
+            <v>4.6666766892333804</v>
           </cell>
           <cell r="L14">
-            <v>0.71902069350926601</v>
+            <v>5.0685733716895601E-80</v>
           </cell>
           <cell r="M14">
-            <v>0.59548785821873396</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15">
-            <v>0.73158532760271</v>
+            <v>1.5550774999999999</v>
           </cell>
           <cell r="C15">
-            <v>1.8390654179711501</v>
+            <v>1.1567180734686999</v>
           </cell>
           <cell r="D15">
-            <v>1.1074800903684401</v>
+            <v>0.39835942653129303</v>
           </cell>
           <cell r="L15">
-            <v>0.43901600027235799</v>
+            <v>0.610731195978513</v>
           </cell>
           <cell r="M15">
-            <v>0.21424324260899</v>
+            <v>0.37174622063131102</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16">
-            <v>-5.8640364903303803</v>
+            <v>1.7075258</v>
           </cell>
           <cell r="C16">
-            <v>1.3407847535123401</v>
+            <v>1.5664540726796099</v>
           </cell>
           <cell r="D16">
-            <v>7.2048212438427299</v>
+            <v>0.141071727320387</v>
           </cell>
           <cell r="L16">
-            <v>2.9496379409838002E-4</v>
+            <v>1.0092332449828501</v>
           </cell>
           <cell r="M16">
-            <v>0.37069833902188198</v>
+            <v>0.23876979349174601</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>3.8817071644406198</v>
+            <v>1.2022796</v>
           </cell>
           <cell r="C17">
-            <v>-1.2305531999700701</v>
+            <v>1.3397505490405199</v>
           </cell>
           <cell r="D17">
-            <v>5.1122603644106901</v>
+            <v>0.13747094904052801</v>
           </cell>
           <cell r="L17">
-            <v>2.40151857237634E-48</v>
+            <v>1.13172954581734</v>
           </cell>
           <cell r="M17">
-            <v>1</v>
+            <v>0.25918476638976201</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>1.5550774526678</v>
+            <v>0.72037209999999996</v>
           </cell>
           <cell r="C18">
-            <v>1.7741415906900799</v>
+            <v>0.85198792310788596</v>
           </cell>
           <cell r="D18">
-            <v>0.219064138022282</v>
+            <v>0.131615823107886</v>
           </cell>
           <cell r="L18">
-            <v>0.70043293604640799</v>
+            <v>0.91882296424158005</v>
           </cell>
           <cell r="M18">
-            <v>0.24299247882977901</v>
+            <v>0.50246145706502598</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19">
-            <v>1.70752582473919</v>
+            <v>1.2538825999999901</v>
           </cell>
           <cell r="C19">
-            <v>1.1350083907424</v>
+            <v>1.0867780789803501</v>
           </cell>
           <cell r="D19">
-            <v>0.572517433996798</v>
+            <v>0.16710452101964299</v>
           </cell>
           <cell r="L19">
-            <v>0.64742484653096599</v>
+            <v>0.294003294627735</v>
           </cell>
           <cell r="M19">
-            <v>0.45609691989883</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>1.2022795820766099</v>
-          </cell>
-          <cell r="C20">
-            <v>0.90318003514053902</v>
-          </cell>
-          <cell r="D20">
-            <v>0.29909954693606999</v>
-          </cell>
-          <cell r="L20">
-            <v>0.69832268629209604</v>
-          </cell>
-          <cell r="M20">
-            <v>0.54613815214839601</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>0.72037212365702996</v>
-          </cell>
-          <cell r="C21">
-            <v>1.08344731178144</v>
-          </cell>
-          <cell r="D21">
-            <v>0.36307518812441197</v>
-          </cell>
-          <cell r="L21">
-            <v>0.85512069048633099</v>
-          </cell>
-          <cell r="M21">
-            <v>0.47769068011857502</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>1.2538826222004</v>
-          </cell>
-          <cell r="C22">
-            <v>1.38775987706051</v>
-          </cell>
-          <cell r="D22">
-            <v>0.13387725486011301</v>
-          </cell>
-          <cell r="L22">
-            <v>0.860707034212702</v>
-          </cell>
-          <cell r="M22">
-            <v>0.35407522114815099</v>
+            <v>0.46739022829566801</v>
           </cell>
         </row>
       </sheetData>
@@ -2634,674 +2509,578 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="C2">
-            <v>1.4434819999999999</v>
+            <v>1.2400675999999999</v>
           </cell>
           <cell r="D2">
-            <v>0.21921019669876701</v>
+            <v>0.20393460120391799</v>
           </cell>
           <cell r="E2">
-            <v>2.0062364999999999E-2</v>
+            <v>6.7602283999999999E-2</v>
           </cell>
           <cell r="F2">
-            <v>3.4447237999999998</v>
+            <v>2.7209968999999998</v>
           </cell>
           <cell r="G2">
-            <v>3.4246614000000002</v>
+            <v>2.6533945000000001</v>
           </cell>
           <cell r="I2">
-            <v>0.51150965999999998</v>
+            <v>0.40463734000000001</v>
           </cell>
           <cell r="J2">
-            <v>0.17697067999999999</v>
+            <v>0.10085534</v>
           </cell>
           <cell r="K2">
-            <v>1.3789089999999999</v>
+            <v>1.5419778</v>
           </cell>
           <cell r="L2">
-            <v>1.0068923999999999</v>
+            <v>1.360231</v>
           </cell>
           <cell r="M2">
-            <v>0.30225806999999999</v>
+            <v>0.25985311999999999</v>
           </cell>
         </row>
         <row r="3">
           <cell r="C3">
-            <v>1.1866346999999999</v>
+            <v>1.1346457000000001</v>
           </cell>
           <cell r="D3">
-            <v>3.8554361285450797E-2</v>
+            <v>0.23755940045471099</v>
           </cell>
           <cell r="E3">
-            <v>-1.0405256000000001</v>
+            <v>-0.64282669999999997</v>
           </cell>
           <cell r="F3">
-            <v>3.2622239999999998</v>
+            <v>2.8177938</v>
           </cell>
           <cell r="G3">
-            <v>4.3027496000000003</v>
+            <v>3.4606203999999998</v>
           </cell>
           <cell r="I3">
-            <v>0.64887720000000004</v>
+            <v>0.52334696000000003</v>
           </cell>
           <cell r="J3">
-            <v>-4.2573306999999998E-2</v>
+            <v>-2.6987339999999999E-2</v>
           </cell>
           <cell r="K3">
-            <v>1.2513018</v>
+            <v>1.4121334999999999</v>
           </cell>
           <cell r="L3">
-            <v>0.72442689999999998</v>
+            <v>0.93085949999999995</v>
           </cell>
           <cell r="M3">
-            <v>0.44480380000000003</v>
+            <v>0.37304989999999999</v>
           </cell>
         </row>
         <row r="4">
           <cell r="C4">
-            <v>1.1881685</v>
+            <v>1.1940713999999999</v>
           </cell>
           <cell r="D4">
-            <v>0.33569645150512001</v>
+            <v>0.339086812086486</v>
           </cell>
           <cell r="E4">
-            <v>-1.0051128</v>
+            <v>-0.63906589999999996</v>
           </cell>
           <cell r="F4">
-            <v>3.2554183000000001</v>
+            <v>2.7704105000000001</v>
           </cell>
           <cell r="G4">
-            <v>4.2605310000000003</v>
+            <v>3.4094764999999998</v>
           </cell>
           <cell r="I4">
-            <v>0.64316879999999998</v>
+            <v>0.51716620000000002</v>
           </cell>
           <cell r="J4">
-            <v>-3.5538199999999999E-2</v>
+            <v>-7.0685044000000002E-2</v>
           </cell>
           <cell r="K4">
-            <v>1.2555524</v>
+            <v>1.4629272</v>
           </cell>
           <cell r="L4">
-            <v>0.67819870000000004</v>
+            <v>0.86131829999999998</v>
           </cell>
           <cell r="M4">
-            <v>0.44356000000000001</v>
+            <v>0.34469031999999999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>1.3607726</v>
+            <v>1.1388136</v>
           </cell>
           <cell r="D5">
-            <v>0.324639586026303</v>
+            <v>6.6490485154724097E-2</v>
           </cell>
           <cell r="E5">
-            <v>-2.5250576E-2</v>
+            <v>-0.14293678000000001</v>
           </cell>
           <cell r="F5">
-            <v>3.1136045000000001</v>
+            <v>2.6535392</v>
           </cell>
           <cell r="G5">
-            <v>3.1388552000000001</v>
+            <v>2.7964760000000002</v>
           </cell>
           <cell r="I5">
-            <v>0.47882068</v>
+            <v>0.42586970000000002</v>
           </cell>
           <cell r="J5">
-            <v>0.116519466</v>
+            <v>7.5520690000000001E-2</v>
           </cell>
           <cell r="K5">
-            <v>1.4134469999999999</v>
+            <v>1.4958897</v>
           </cell>
           <cell r="L5">
-            <v>1.0080674999999999</v>
+            <v>1.2924310999999999</v>
           </cell>
           <cell r="M5">
-            <v>0.32617676000000001</v>
+            <v>0.33008720000000003</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>1.2347466</v>
+            <v>1.2570182999999999</v>
           </cell>
           <cell r="D6">
-            <v>0.33766024475502898</v>
+            <v>0.39046252771301199</v>
           </cell>
           <cell r="E6">
-            <v>-0.82895180000000002</v>
+            <v>-0.32704175000000002</v>
           </cell>
           <cell r="F6">
-            <v>3.3120484000000001</v>
+            <v>2.8972042</v>
           </cell>
           <cell r="G6">
-            <v>4.1410003</v>
+            <v>3.2242459999999999</v>
           </cell>
           <cell r="I6">
-            <v>0.62695800000000002</v>
+            <v>0.49088985000000002</v>
           </cell>
           <cell r="J6">
-            <v>3.8730241000000001E-3</v>
+            <v>1.6440090000000001E-2</v>
           </cell>
           <cell r="K6">
-            <v>1.2692695000000001</v>
+            <v>1.4540698999999999</v>
           </cell>
           <cell r="L6">
-            <v>0.70969605000000002</v>
+            <v>0.89589909999999995</v>
           </cell>
           <cell r="M6">
-            <v>0.42453154999999998</v>
+            <v>0.30512869999999997</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>1.3938699000000001</v>
+            <v>1.0540243</v>
           </cell>
           <cell r="D7">
-            <v>0.538885233381872</v>
+            <v>0.22971526127777001</v>
           </cell>
           <cell r="E7">
-            <v>-0.61070990000000003</v>
+            <v>-0.74283516000000005</v>
           </cell>
           <cell r="F7">
-            <v>3.9502343999999998</v>
+            <v>2.7285162999999999</v>
           </cell>
           <cell r="G7">
-            <v>4.5609446</v>
+            <v>3.4713516000000002</v>
           </cell>
           <cell r="I7">
-            <v>0.67441547000000002</v>
+            <v>0.52379279999999995</v>
           </cell>
           <cell r="J7">
-            <v>0.15301982</v>
+            <v>-3.5387293E-2</v>
           </cell>
           <cell r="K7">
-            <v>1.2256463</v>
+            <v>1.4004129999999999</v>
           </cell>
           <cell r="L7">
-            <v>0.64113295000000003</v>
+            <v>0.9557795</v>
           </cell>
           <cell r="M7">
-            <v>0.37959290000000001</v>
+            <v>0.40941040000000001</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>1.3194155000000001</v>
+            <v>1.1436356999999999</v>
           </cell>
           <cell r="D8">
-            <v>0.11411138059452</v>
+            <v>0.25915925018310498</v>
           </cell>
           <cell r="E8">
-            <v>-0.22932095999999999</v>
+            <v>-0.69648129999999997</v>
           </cell>
           <cell r="F8">
-            <v>3.094544</v>
+            <v>2.868595</v>
           </cell>
           <cell r="G8">
-            <v>3.3238650000000001</v>
+            <v>3.5650759999999999</v>
           </cell>
           <cell r="I8">
-            <v>0.50913112999999999</v>
+            <v>0.5374584</v>
           </cell>
           <cell r="J8">
-            <v>7.0046559999999994E-2</v>
+            <v>-3.2696693999999998E-2</v>
           </cell>
           <cell r="K8">
-            <v>1.381659</v>
+            <v>1.3931544</v>
           </cell>
           <cell r="L8">
-            <v>1.0178102</v>
+            <v>0.91491999999999996</v>
           </cell>
           <cell r="M8">
-            <v>0.35937544999999999</v>
+            <v>0.37426922000000001</v>
           </cell>
         </row>
         <row r="9">
           <cell r="C9">
-            <v>1.2660834000000001</v>
+            <v>1.1390212</v>
           </cell>
           <cell r="D9">
-            <v>0.399527535089722</v>
+            <v>4.2005641781616303E-2</v>
           </cell>
           <cell r="E9">
-            <v>-0.55309516000000003</v>
+            <v>-0.35790914000000001</v>
           </cell>
           <cell r="F9">
-            <v>2.9919120000000001</v>
+            <v>2.7329826000000002</v>
           </cell>
           <cell r="G9">
-            <v>3.545007</v>
+            <v>3.0908918000000001</v>
           </cell>
           <cell r="I9">
-            <v>0.54274940000000005</v>
+            <v>0.46903669999999997</v>
           </cell>
           <cell r="J9">
-            <v>-2.7998660000000002E-2</v>
+            <v>3.0243684E-2</v>
           </cell>
           <cell r="K9">
-            <v>1.3515185000000001</v>
+            <v>1.4364984000000001</v>
           </cell>
           <cell r="L9">
-            <v>0.78063004999999996</v>
+            <v>1.1498344</v>
           </cell>
           <cell r="M9">
-            <v>0.39535427000000001</v>
+            <v>0.35245278000000002</v>
           </cell>
         </row>
         <row r="10">
           <cell r="C10">
-            <v>1.2075438000000001</v>
+            <v>0.83743299999999998</v>
           </cell>
           <cell r="D10">
-            <v>7.6195747105831602E-2</v>
+            <v>0.44001918053741401</v>
           </cell>
           <cell r="E10">
-            <v>-0.91960894999999998</v>
+            <v>-0.33517282999999998</v>
           </cell>
           <cell r="F10">
-            <v>3.3802360999999999</v>
+            <v>2.1534019999999998</v>
           </cell>
           <cell r="G10">
-            <v>4.2998450000000004</v>
+            <v>2.488575</v>
           </cell>
           <cell r="I10">
-            <v>0.64895210000000003</v>
+            <v>0.3796602</v>
           </cell>
           <cell r="J10">
-            <v>1.28498E-2</v>
+            <v>5.2661527E-2</v>
           </cell>
           <cell r="K10">
-            <v>1.2477653</v>
+            <v>1.4859205</v>
           </cell>
           <cell r="L10">
-            <v>0.72224074999999999</v>
+            <v>0.96437349999999999</v>
           </cell>
           <cell r="M10">
-            <v>0.43736392000000002</v>
+            <v>0.51436369999999998</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>1.1837888999999999</v>
+            <v>0.90062370000000003</v>
           </cell>
           <cell r="D11">
-            <v>0.219006080511885</v>
+            <v>0.38907842083892802</v>
           </cell>
           <cell r="E11">
-            <v>-1.0262245000000001</v>
+            <v>-0.88228399999999996</v>
           </cell>
           <cell r="F11">
-            <v>3.1896205000000002</v>
+            <v>2.5270790000000001</v>
           </cell>
           <cell r="G11">
-            <v>4.2158449999999998</v>
+            <v>3.4093629999999999</v>
           </cell>
           <cell r="I11">
-            <v>0.63605343999999997</v>
+            <v>0.51343419999999995</v>
           </cell>
           <cell r="J11">
-            <v>-5.766553E-2</v>
+            <v>-4.6487003999999998E-2</v>
           </cell>
           <cell r="K11">
-            <v>1.2631357000000001</v>
+            <v>1.3930777000000001</v>
           </cell>
           <cell r="L11">
-            <v>0.73713379999999995</v>
+            <v>0.87276964999999995</v>
           </cell>
           <cell r="M11">
-            <v>0.44439430000000002</v>
+            <v>0.47962025000000003</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>1.3585160000000001</v>
+            <v>1.0874820999999999</v>
           </cell>
           <cell r="D12">
-            <v>0.17748916488740701</v>
+            <v>0.35589679476470898</v>
           </cell>
           <cell r="E12">
-            <v>-0.67090110000000003</v>
+            <v>-0.43799149999999998</v>
           </cell>
           <cell r="F12">
-            <v>3.5855025999999999</v>
+            <v>2.6732488000000001</v>
           </cell>
           <cell r="G12">
-            <v>4.2564039999999999</v>
+            <v>3.1112403999999998</v>
           </cell>
           <cell r="I12">
-            <v>0.6420785</v>
+            <v>0.47183757999999998</v>
           </cell>
           <cell r="J12">
-            <v>5.5442779999999997E-2</v>
+            <v>1.882938E-2</v>
           </cell>
           <cell r="K12">
-            <v>1.2606219999999999</v>
+            <v>1.4285569</v>
           </cell>
           <cell r="L12">
-            <v>0.73417909999999997</v>
+            <v>0.94584259999999998</v>
           </cell>
           <cell r="M12">
-            <v>0.38354355000000001</v>
+            <v>0.37962222000000001</v>
           </cell>
         </row>
         <row r="13">
           <cell r="C13">
-            <v>1.2848953999999999</v>
+            <v>-5.6037860000000004</v>
           </cell>
           <cell r="D13">
-            <v>0.88748162697101196</v>
+            <v>0.26025050833129798</v>
           </cell>
           <cell r="E13">
-            <v>-0.69534830000000003</v>
+            <v>-14.763104999999999</v>
           </cell>
           <cell r="F13">
-            <v>3.323248</v>
+            <v>0.61805575999999995</v>
           </cell>
           <cell r="G13">
-            <v>4.0185959999999996</v>
+            <v>15.381161000000001</v>
           </cell>
           <cell r="I13">
-            <v>0.60981649999999998</v>
+            <v>1.7963327</v>
           </cell>
           <cell r="J13">
-            <v>1.6665407E-2</v>
+            <v>-0.96473986</v>
           </cell>
           <cell r="K13">
-            <v>1.2867968999999999</v>
+            <v>0.60168060000000001</v>
           </cell>
           <cell r="L13">
-            <v>0.50270190000000003</v>
+            <v>0.15216133000000001</v>
           </cell>
           <cell r="M13">
-            <v>0.40284969999999998</v>
+            <v>0.95939695999999997</v>
           </cell>
         </row>
         <row r="14">
           <cell r="C14">
-            <v>0.99345773000000004</v>
+            <v>-0.61204829999999999</v>
           </cell>
           <cell r="D14">
-            <v>0.29624439745939102</v>
+            <v>4.4937555279228203</v>
           </cell>
           <cell r="E14">
-            <v>-1.1345662000000001</v>
+            <v>-1.5678369999999999</v>
           </cell>
           <cell r="F14">
-            <v>2.7264409999999999</v>
+            <v>0.26936611999999999</v>
           </cell>
           <cell r="G14">
-            <v>3.8610072</v>
+            <v>1.8372031</v>
           </cell>
           <cell r="I14">
-            <v>0.58065489999999997</v>
+            <v>0.28290004000000002</v>
           </cell>
           <cell r="J14">
-            <v>-0.11646193000000001</v>
+            <v>-3.5080800000000002E-2</v>
           </cell>
           <cell r="K14">
-            <v>1.3023473999999999</v>
+            <v>1.5361564999999999</v>
           </cell>
           <cell r="L14">
-            <v>0.8193492</v>
+            <v>1.6135692999999999E-6</v>
           </cell>
           <cell r="M14">
-            <v>0.51349400000000001</v>
+            <v>0.99126590000000003</v>
           </cell>
         </row>
         <row r="15">
           <cell r="C15">
-            <v>1.5513382</v>
+            <v>1.2989390000000001</v>
           </cell>
           <cell r="D15">
-            <v>0.81975286819807103</v>
+            <v>0.256138510360717</v>
           </cell>
           <cell r="E15">
-            <v>-0.40884150000000002</v>
+            <v>0.60535830000000002</v>
           </cell>
           <cell r="F15">
-            <v>4.5647216000000004</v>
+            <v>2.5225455999999999</v>
           </cell>
           <cell r="G15">
-            <v>4.9735630000000004</v>
+            <v>1.9171872000000001</v>
           </cell>
           <cell r="I15">
-            <v>0.70292699999999997</v>
+            <v>0.28131378000000001</v>
           </cell>
           <cell r="J15">
-            <v>0.28849520000000001</v>
+            <v>0.22462435</v>
           </cell>
           <cell r="K15">
-            <v>1.1916844</v>
+            <v>1.6470993</v>
           </cell>
           <cell r="L15">
-            <v>0.57450646000000005</v>
+            <v>1.2419411</v>
           </cell>
           <cell r="M15">
-            <v>0.34043780000000001</v>
+            <v>0.12617296</v>
           </cell>
         </row>
         <row r="16">
           <cell r="C16">
-            <v>-5.6402169999999998</v>
+            <v>1.6815485999999999</v>
           </cell>
           <cell r="D16">
-            <v>0.223819662937811</v>
+            <v>2.5977204571533099E-2</v>
           </cell>
           <cell r="E16">
-            <v>-13.876250000000001</v>
+            <v>0.64198964999999997</v>
           </cell>
           <cell r="F16">
-            <v>-0.19331760000000001</v>
+            <v>3.0528933999999999</v>
           </cell>
           <cell r="G16">
-            <v>13.682933</v>
+            <v>2.4109037</v>
           </cell>
           <cell r="I16">
-            <v>1.5446886</v>
+            <v>0.37393736999999999</v>
           </cell>
           <cell r="J16">
-            <v>-1.1870978000000001</v>
+            <v>0.105572</v>
           </cell>
           <cell r="K16">
-            <v>0.56834673999999996</v>
+            <v>1.6728472999999999</v>
           </cell>
           <cell r="L16">
-            <v>0.16573067999999999</v>
+            <v>1.7093929999999999</v>
           </cell>
           <cell r="M16">
-            <v>0.98961747</v>
+            <v>8.2172415999999998E-2</v>
           </cell>
         </row>
         <row r="17">
           <cell r="C17">
-            <v>0.13442942999999999</v>
+            <v>2.0400596000000002</v>
           </cell>
           <cell r="D17">
-            <v>3.7472777394394701</v>
+            <v>0.83777996649780195</v>
           </cell>
           <cell r="E17">
-            <v>-0.93404240000000005</v>
+            <v>1.6272224</v>
           </cell>
           <cell r="F17">
-            <v>0.95340440000000004</v>
+            <v>2.8426355999999999</v>
           </cell>
           <cell r="G17">
-            <v>1.8874469</v>
+            <v>1.2154132</v>
           </cell>
           <cell r="I17">
-            <v>0.29551696999999999</v>
+            <v>0.1920886</v>
           </cell>
           <cell r="J17">
-            <v>-0.10909885</v>
+            <v>0.17973469</v>
           </cell>
           <cell r="K17">
-            <v>1.5943735000000001</v>
+            <v>2.1354527000000001</v>
           </cell>
           <cell r="L17">
-            <v>1.4336493E-5</v>
+            <v>6.8045149999999999E-2</v>
           </cell>
           <cell r="M17">
-            <v>0.96011316999999996</v>
+            <v>1.9074694000000001E-3</v>
           </cell>
         </row>
         <row r="18">
           <cell r="C18">
-            <v>2.0735160000000001</v>
+            <v>0.95852894</v>
           </cell>
           <cell r="D18">
-            <v>0.51843843936100797</v>
+            <v>0.238156835909271</v>
           </cell>
           <cell r="E18">
-            <v>0.77370410000000001</v>
+            <v>-0.70025826000000002</v>
           </cell>
           <cell r="F18">
-            <v>4.3886447000000004</v>
+            <v>2.5305882</v>
           </cell>
           <cell r="G18">
-            <v>3.6149406000000002</v>
+            <v>3.2308463999999999</v>
           </cell>
           <cell r="I18">
-            <v>0.51381856000000004</v>
+            <v>0.48756206000000002</v>
           </cell>
           <cell r="J18">
-            <v>0.29421130000000001</v>
+            <v>-2.7021132E-2</v>
           </cell>
           <cell r="K18">
-            <v>1.4107277</v>
+            <v>1.3977643</v>
           </cell>
           <cell r="L18">
-            <v>0.89700663000000003</v>
+            <v>0.97983354</v>
           </cell>
           <cell r="M18">
-            <v>8.8829240000000004E-2</v>
+            <v>0.44936955000000001</v>
           </cell>
         </row>
         <row r="19">
           <cell r="C19">
-            <v>1.5591097</v>
+            <v>1.2734426999999999</v>
           </cell>
           <cell r="D19">
-            <v>0.148416136934024</v>
+            <v>1.95601452087403E-2</v>
           </cell>
           <cell r="E19">
-            <v>0.22041239000000001</v>
+            <v>0.71947116</v>
           </cell>
           <cell r="F19">
-            <v>3.5409666999999998</v>
+            <v>1.3526106</v>
           </cell>
           <cell r="G19">
-            <v>3.3205543</v>
+            <v>0.63313942999999995</v>
           </cell>
           <cell r="I19">
-            <v>0.49347580000000002</v>
+            <v>7.3022069999999994E-2</v>
           </cell>
           <cell r="J19">
-            <v>0.19832610000000001</v>
+            <v>-0.38741550000000002</v>
           </cell>
           <cell r="K19">
-            <v>1.4045839</v>
+            <v>2.7936396999999999</v>
           </cell>
           <cell r="L19">
-            <v>0.94023199999999996</v>
+            <v>8.4975719999999999</v>
           </cell>
           <cell r="M19">
-            <v>0.24146889999999999</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>1.5266535999999999</v>
-          </cell>
-          <cell r="D20">
-            <v>0.32437406534618002</v>
-          </cell>
-          <cell r="E20">
-            <v>0.62253709999999995</v>
-          </cell>
-          <cell r="F20">
-            <v>3.0846431000000001</v>
-          </cell>
-          <cell r="G20">
-            <v>2.4621059999999999</v>
-          </cell>
-          <cell r="I20">
-            <v>0.36443508000000002</v>
-          </cell>
-          <cell r="J20">
-            <v>0.23495490999999999</v>
-          </cell>
-          <cell r="K20">
-            <v>1.5575842</v>
-          </cell>
-          <cell r="L20">
-            <v>1.3451945000000001</v>
-          </cell>
-          <cell r="M20">
-            <v>0.16112035999999999</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>1.0241123000000001</v>
-          </cell>
-          <cell r="D21">
-            <v>0.30374022013111601</v>
-          </cell>
-          <cell r="E21">
-            <v>-1.4497392</v>
-          </cell>
-          <cell r="F21">
-            <v>2.9954068999999999</v>
-          </cell>
-          <cell r="G21">
-            <v>4.4451460000000003</v>
-          </cell>
-          <cell r="I21">
-            <v>0.66010670000000005</v>
-          </cell>
-          <cell r="J21">
-            <v>-0.14027682</v>
-          </cell>
-          <cell r="K21">
-            <v>1.2385112</v>
-          </cell>
-          <cell r="L21">
-            <v>0.63446340000000001</v>
-          </cell>
-          <cell r="M21">
-            <v>0.50097170000000002</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>1.3018145999999999</v>
-          </cell>
-          <cell r="D22">
-            <v>4.7931933921426098E-2</v>
-          </cell>
-          <cell r="E22">
-            <v>-0.75702480000000005</v>
-          </cell>
-          <cell r="F22">
-            <v>3.7328408</v>
-          </cell>
-          <cell r="G22">
-            <v>4.4898660000000001</v>
-          </cell>
-          <cell r="I22">
-            <v>0.67035719999999999</v>
-          </cell>
-          <cell r="J22">
-            <v>0.103891045</v>
-          </cell>
-          <cell r="K22">
-            <v>1.2277883999999999</v>
-          </cell>
-          <cell r="L22">
-            <v>0.69044702999999996</v>
-          </cell>
-          <cell r="M22">
-            <v>0.40888216999999999</v>
+            <v>7.2112789999999996E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -4664,10 +4443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E281A2-C842-414B-BDFE-553BF0214573}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A23"/>
+      <selection activeCell="B3" sqref="B3:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4729,863 +4508,740 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <f>[1]results_deepgar_Bulgaria!B2</f>
-        <v>0.88077585706264905</v>
+        <v>0.68467210000000001</v>
       </c>
       <c r="C3" s="1">
         <f>[2]results_benchmark_Bulgaria!C2</f>
-        <v>1.14076499483782</v>
+        <v>0.76770467305333301</v>
       </c>
       <c r="D3" s="1">
-        <f>[2]results_benchmark_Bulgaria!C2</f>
-        <v>1.14076499483782</v>
+        <f>[1]results_deepgar_Bulgaria!C2</f>
+        <v>0.81672955000000003</v>
       </c>
       <c r="E3" s="1">
+        <f>[2]results_benchmark_Bulgaria!D2</f>
+        <v>8.3032573053333794E-2</v>
+      </c>
+      <c r="F3" s="1">
         <f>[1]results_deepgar_Bulgaria!D2</f>
-        <v>0.21355067500622199</v>
-      </c>
-      <c r="F3" s="1">
-        <f>[2]results_benchmark_Bulgaria!D2</f>
-        <v>0.25998913777517701</v>
+        <v>0.13205744559326099</v>
       </c>
       <c r="G3" s="1">
+        <f>[2]results_benchmark_Bulgaria!L2</f>
+        <v>0.83727059021623296</v>
+      </c>
+      <c r="H3" s="1">
         <f>[1]results_deepgar_Bulgaria!L2</f>
-        <v>0.98588509999999996</v>
-      </c>
-      <c r="H3" s="1">
-        <f>[2]results_benchmark_Bulgaria!L2</f>
-        <v>0.52628457495189895</v>
+        <v>1.1964246000000001</v>
       </c>
       <c r="I3" s="1">
+        <f>[2]results_benchmark_Bulgaria!M2</f>
+        <v>0.50135844284709496</v>
+      </c>
+      <c r="J3" s="1">
         <f>[1]results_deepgar_Bulgaria!M2</f>
-        <v>0.75928329999999999</v>
-      </c>
-      <c r="J3" s="1">
-        <f>[2]results_benchmark_Bulgaria!M2</f>
-        <v>0.34638271373646101</v>
+        <v>0.43564596999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <f>[1]results_deepgar_Bulgaria!B3</f>
-        <v>0.62171393483518</v>
+        <v>0.62828600000000001</v>
       </c>
       <c r="C4" s="1">
         <f>[2]results_benchmark_Bulgaria!C3</f>
-        <v>0.89134074965138899</v>
+        <v>0.69092428600289701</v>
       </c>
       <c r="D4" s="1">
-        <f>[2]results_benchmark_Bulgaria!C3</f>
-        <v>0.89134074965138899</v>
+        <f>[1]results_deepgar_Bulgaria!C3</f>
+        <v>0.72669755999999996</v>
       </c>
       <c r="E4" s="1">
+        <f>[2]results_benchmark_Bulgaria!D3</f>
+        <v>6.26382860028976E-2</v>
+      </c>
+      <c r="F4" s="1">
         <f>[1]results_deepgar_Bulgaria!D3</f>
-        <v>0.32038778216005898</v>
-      </c>
-      <c r="F4" s="1">
-        <f>[2]results_benchmark_Bulgaria!D3</f>
-        <v>0.26962681481620898</v>
+        <v>9.8411564125060996E-2</v>
       </c>
       <c r="G4" s="1">
+        <f>[2]results_benchmark_Bulgaria!L3</f>
+        <v>0.78092951141738498</v>
+      </c>
+      <c r="H4" s="1">
         <f>[1]results_deepgar_Bulgaria!L3</f>
-        <v>0.6291776</v>
-      </c>
-      <c r="H4" s="1">
-        <f>[2]results_benchmark_Bulgaria!L3</f>
-        <v>0.67210701028752196</v>
+        <v>1.1330652000000001</v>
       </c>
       <c r="I4" s="1">
+        <f>[2]results_benchmark_Bulgaria!M3</f>
+        <v>0.55565512177588094</v>
+      </c>
+      <c r="J4" s="1">
         <f>[1]results_deepgar_Bulgaria!M3</f>
-        <v>0.41421774</v>
-      </c>
-      <c r="J4" s="1">
-        <f>[2]results_benchmark_Bulgaria!M3</f>
-        <v>0.476483930606314</v>
+        <v>0.55102633999999995</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <f>[1]results_deepgar_Bulgaria!B4</f>
-        <v>0.68843205309125</v>
+        <v>0.74306700000000003</v>
       </c>
       <c r="C5" s="1">
         <f>[2]results_benchmark_Bulgaria!C4</f>
-        <v>0.66620409156929095</v>
+        <v>0.82290131891964002</v>
       </c>
       <c r="D5" s="1">
-        <f>[2]results_benchmark_Bulgaria!C4</f>
-        <v>0.66620409156929095</v>
+        <f>[1]results_deepgar_Bulgaria!C4</f>
+        <v>0.69747095999999997</v>
       </c>
       <c r="E5" s="1">
+        <f>[2]results_benchmark_Bulgaria!D4</f>
+        <v>7.9834318919639893E-2</v>
+      </c>
+      <c r="F5" s="1">
         <f>[1]results_deepgar_Bulgaria!D4</f>
-        <v>9.5402154943566801E-3</v>
-      </c>
-      <c r="F5" s="1">
-        <f>[2]results_benchmark_Bulgaria!D4</f>
-        <v>2.22279615219583E-2</v>
+        <v>4.5596036998748798E-2</v>
       </c>
       <c r="G5" s="1">
+        <f>[2]results_benchmark_Bulgaria!L4</f>
+        <v>0.80658004669857097</v>
+      </c>
+      <c r="H5" s="1">
         <f>[1]results_deepgar_Bulgaria!L4</f>
-        <v>0.97527280000000005</v>
-      </c>
-      <c r="H5" s="1">
-        <f>[2]results_benchmark_Bulgaria!L4</f>
-        <v>0.82216853739865803</v>
+        <v>1.2066730000000001</v>
       </c>
       <c r="I5" s="1">
+        <f>[2]results_benchmark_Bulgaria!M4</f>
+        <v>0.460420027320466</v>
+      </c>
+      <c r="J5" s="1">
         <f>[1]results_deepgar_Bulgaria!M4</f>
-        <v>0.66565280000000004</v>
-      </c>
-      <c r="J5" s="1">
-        <f>[2]results_benchmark_Bulgaria!M4</f>
-        <v>0.64330145125663396</v>
+        <v>0.57665049999999995</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <f>[1]results_deepgar_Bulgaria!B5</f>
-        <v>0.68467205818291998</v>
+        <v>0.57244119999999998</v>
       </c>
       <c r="C6" s="1">
         <f>[2]results_benchmark_Bulgaria!C5</f>
-        <v>0.66188490375074405</v>
+        <v>0.68055951794036196</v>
       </c>
       <c r="D6" s="1">
-        <f>[2]results_benchmark_Bulgaria!C5</f>
-        <v>0.66188490375074405</v>
+        <f>[1]results_deepgar_Bulgaria!C5</f>
+        <v>0.58421909999999999</v>
       </c>
       <c r="E6" s="1">
+        <f>[2]results_benchmark_Bulgaria!D5</f>
+        <v>0.108118317940362</v>
+      </c>
+      <c r="F6" s="1">
         <f>[1]results_deepgar_Bulgaria!D5</f>
-        <v>0.19291275684240899</v>
-      </c>
-      <c r="F6" s="1">
-        <f>[2]results_benchmark_Bulgaria!D5</f>
-        <v>2.2787154432175001E-2</v>
+        <v>1.17778980911255E-2</v>
       </c>
       <c r="G6" s="1">
+        <f>[2]results_benchmark_Bulgaria!L5</f>
+        <v>0.750713162802779</v>
+      </c>
+      <c r="H6" s="1">
         <f>[1]results_deepgar_Bulgaria!L5</f>
-        <v>0.90548635</v>
-      </c>
-      <c r="H6" s="1">
-        <f>[2]results_benchmark_Bulgaria!L5</f>
-        <v>0.75547323993711801</v>
+        <v>1.2105944</v>
       </c>
       <c r="I6" s="1">
+        <f>[2]results_benchmark_Bulgaria!M5</f>
+        <v>0.560324104775208</v>
+      </c>
+      <c r="J6" s="1">
         <f>[1]results_deepgar_Bulgaria!M5</f>
-        <v>0.47692224</v>
-      </c>
-      <c r="J6" s="1">
-        <f>[2]results_benchmark_Bulgaria!M5</f>
-        <v>0.63494746654192502</v>
+        <v>0.70508990000000005</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <f>[1]results_deepgar_Bulgaria!B6</f>
-        <v>0.62828603944657002</v>
+        <v>0.61530799999999997</v>
       </c>
       <c r="C7" s="1">
         <f>[2]results_benchmark_Bulgaria!C6</f>
-        <v>0.83212370412152203</v>
+        <v>0.634433407657923</v>
       </c>
       <c r="D7" s="1">
-        <f>[2]results_benchmark_Bulgaria!C6</f>
-        <v>0.83212370412152203</v>
+        <f>[1]results_deepgar_Bulgaria!C6</f>
+        <v>0.28265402000000001</v>
       </c>
       <c r="E7" s="1">
+        <f>[2]results_benchmark_Bulgaria!D6</f>
+        <v>1.9125407657923799E-2</v>
+      </c>
+      <c r="F7" s="1">
         <f>[1]results_deepgar_Bulgaria!D6</f>
-        <v>0.20930471458556499</v>
-      </c>
-      <c r="F7" s="1">
-        <f>[2]results_benchmark_Bulgaria!D6</f>
-        <v>0.20383766467495201</v>
+        <v>0.33265398278999297</v>
       </c>
       <c r="G7" s="1">
+        <f>[2]results_benchmark_Bulgaria!L6</f>
+        <v>0.75700082412513103</v>
+      </c>
+      <c r="H7" s="1">
         <f>[1]results_deepgar_Bulgaria!L6</f>
-        <v>0.82375145000000005</v>
-      </c>
-      <c r="H7" s="1">
-        <f>[2]results_benchmark_Bulgaria!L6</f>
-        <v>0.72647248998575897</v>
+        <v>0.82741969999999998</v>
       </c>
       <c r="I7" s="1">
+        <f>[2]results_benchmark_Bulgaria!M6</f>
+        <v>0.58876912921187996</v>
+      </c>
+      <c r="J7" s="1">
         <f>[1]results_deepgar_Bulgaria!M6</f>
-        <v>0.52261400000000002</v>
-      </c>
-      <c r="J7" s="1">
-        <f>[2]results_benchmark_Bulgaria!M6</f>
-        <v>0.51973173046231103</v>
+        <v>0.89852019999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <f>[1]results_deepgar_Bulgaria!B7</f>
-        <v>0.74306704427558001</v>
+        <v>0.41625409999999902</v>
       </c>
       <c r="C8" s="1">
         <f>[2]results_benchmark_Bulgaria!C7</f>
-        <v>1.1376409925720701</v>
+        <v>0.676530604824094</v>
       </c>
       <c r="D8" s="1">
-        <f>[2]results_benchmark_Bulgaria!C7</f>
-        <v>1.1376409925720701</v>
+        <f>[1]results_deepgar_Bulgaria!C7</f>
+        <v>0.4844292</v>
       </c>
       <c r="E8" s="1">
+        <f>[2]results_benchmark_Bulgaria!D7</f>
+        <v>0.26027650482409398</v>
+      </c>
+      <c r="F8" s="1">
         <f>[1]results_deepgar_Bulgaria!D7</f>
-        <v>2.5968092935858299E-2</v>
-      </c>
-      <c r="F8" s="1">
-        <f>[2]results_benchmark_Bulgaria!D7</f>
-        <v>0.394573948296496</v>
+        <v>6.8175110424423202E-2</v>
       </c>
       <c r="G8" s="1">
+        <f>[2]results_benchmark_Bulgaria!L7</f>
+        <v>0.66128375699358</v>
+      </c>
+      <c r="H8" s="1">
         <f>[1]results_deepgar_Bulgaria!L7</f>
-        <v>1.4198115</v>
-      </c>
-      <c r="H8" s="1">
-        <f>[2]results_benchmark_Bulgaria!L7</f>
-        <v>0.55686991686703302</v>
+        <v>0.89289397000000004</v>
       </c>
       <c r="I8" s="1">
+        <f>[2]results_benchmark_Bulgaria!M7</f>
+        <v>0.56328459046845303</v>
+      </c>
+      <c r="J8" s="1">
         <f>[1]results_deepgar_Bulgaria!M7</f>
-        <v>0.68074290000000004</v>
-      </c>
-      <c r="J8" s="1">
-        <f>[2]results_benchmark_Bulgaria!M7</f>
-        <v>0.28429616447575501</v>
+        <v>0.73939500000000002</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <f>[1]results_deepgar_Bulgaria!B8</f>
-        <v>0.5724411786536</v>
+        <v>3.7901061</v>
       </c>
       <c r="C9" s="1">
         <f>[2]results_benchmark_Bulgaria!C8</f>
-        <v>0.72990768201235301</v>
+        <v>0.59549632657252005</v>
       </c>
       <c r="D9" s="1">
-        <f>[2]results_benchmark_Bulgaria!C8</f>
-        <v>0.72990768201235301</v>
+        <f>[1]results_deepgar_Bulgaria!C8</f>
+        <v>0.33620480000000003</v>
       </c>
       <c r="E9" s="1">
+        <f>[2]results_benchmark_Bulgaria!D8</f>
+        <v>3.1946097734274699</v>
+      </c>
+      <c r="F9" s="1">
         <f>[1]results_deepgar_Bulgaria!D8</f>
-        <v>0.21812192788326501</v>
-      </c>
-      <c r="F9" s="1">
-        <f>[2]results_benchmark_Bulgaria!D8</f>
-        <v>0.15746650335875301</v>
+        <v>3.4539013029704999</v>
       </c>
       <c r="G9" s="1">
+        <f>[2]results_benchmark_Bulgaria!L8</f>
+        <v>2.3003136772797099E-7</v>
+      </c>
+      <c r="H9" s="1">
         <f>[1]results_deepgar_Bulgaria!L8</f>
-        <v>0.72257629999999995</v>
-      </c>
-      <c r="H9" s="1">
-        <f>[2]results_benchmark_Bulgaria!L8</f>
-        <v>0.748702511153295</v>
+        <v>6.9822819999999998E-9</v>
       </c>
       <c r="I9" s="1">
+        <f>[2]results_benchmark_Bulgaria!M8</f>
+        <v>0.61689361617343097</v>
+      </c>
+      <c r="J9" s="1">
         <f>[1]results_deepgar_Bulgaria!M8</f>
-        <v>0.56219850000000005</v>
-      </c>
-      <c r="J9" s="1">
-        <f>[2]results_benchmark_Bulgaria!M8</f>
-        <v>0.58703036886651705</v>
+        <v>0.84800850000000005</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <f>[1]results_deepgar_Bulgaria!B9</f>
-        <v>0.61530797686368</v>
+        <v>-0.26303520000000002</v>
       </c>
       <c r="C10" s="1">
         <f>[2]results_benchmark_Bulgaria!C9</f>
-        <v>0.59799794567822695</v>
+        <v>2.15626556264665</v>
       </c>
       <c r="D10" s="1">
-        <f>[2]results_benchmark_Bulgaria!C9</f>
-        <v>0.59799794567822695</v>
+        <f>[1]results_deepgar_Bulgaria!C9</f>
+        <v>3.7114395999999998</v>
       </c>
       <c r="E10" s="1">
+        <f>[2]results_benchmark_Bulgaria!D9</f>
+        <v>2.4193007626466501</v>
+      </c>
+      <c r="F10" s="1">
         <f>[1]results_deepgar_Bulgaria!D9</f>
-        <v>6.8480362556276403E-2</v>
-      </c>
-      <c r="F10" s="1">
-        <f>[2]results_benchmark_Bulgaria!D9</f>
-        <v>1.73100311854524E-2</v>
+        <v>3.9744748095275799</v>
       </c>
       <c r="G10" s="1">
+        <f>[2]results_benchmark_Bulgaria!L9</f>
+        <v>6.5211296452443801E-4</v>
+      </c>
+      <c r="H10" s="1">
         <f>[1]results_deepgar_Bulgaria!L9</f>
-        <v>0.78932020000000003</v>
-      </c>
-      <c r="H10" s="1">
-        <f>[2]results_benchmark_Bulgaria!L9</f>
-        <v>0.68506760761742302</v>
+        <v>4.4226527999999999E-12</v>
       </c>
       <c r="I10" s="1">
+        <f>[2]results_benchmark_Bulgaria!M9</f>
+        <v>1.2587340882828001E-2</v>
+      </c>
+      <c r="J10" s="1">
         <f>[1]results_deepgar_Bulgaria!M9</f>
-        <v>0.72823859999999996</v>
-      </c>
-      <c r="J10" s="1">
-        <f>[2]results_benchmark_Bulgaria!M9</f>
-        <v>0.65866929539891905</v>
+        <v>3.6881004000000001E-10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
         <f>[1]results_deepgar_Bulgaria!B10</f>
-        <v>0.41625408002347902</v>
+        <v>-0.64212250000000004</v>
       </c>
       <c r="C11" s="1">
         <f>[2]results_benchmark_Bulgaria!C10</f>
-        <v>0.81219121465517097</v>
+        <v>0.27502748341407501</v>
       </c>
       <c r="D11" s="1">
-        <f>[2]results_benchmark_Bulgaria!C10</f>
-        <v>0.81219121465517097</v>
+        <f>[1]results_deepgar_Bulgaria!C10</f>
+        <v>0.35449619999999998</v>
       </c>
       <c r="E11" s="1">
+        <f>[2]results_benchmark_Bulgaria!D10</f>
+        <v>0.91714998341407605</v>
+      </c>
+      <c r="F11" s="1">
         <f>[1]results_deepgar_Bulgaria!D10</f>
-        <v>0.216673099313067</v>
-      </c>
-      <c r="F11" s="1">
-        <f>[2]results_benchmark_Bulgaria!D10</f>
-        <v>0.395937134631691</v>
+        <v>0.99661871081352205</v>
       </c>
       <c r="G11" s="1">
+        <f>[2]results_benchmark_Bulgaria!L10</f>
+        <v>0.21486670439362099</v>
+      </c>
+      <c r="H11" s="1">
         <f>[1]results_deepgar_Bulgaria!L10</f>
-        <v>0.66727230000000004</v>
-      </c>
-      <c r="H11" s="1">
-        <f>[2]results_benchmark_Bulgaria!L10</f>
-        <v>0.615711214780859</v>
+        <v>0.12141544</v>
       </c>
       <c r="I11" s="1">
+        <f>[2]results_benchmark_Bulgaria!M10</f>
+        <v>0.80192973450578697</v>
+      </c>
+      <c r="J11" s="1">
         <f>[1]results_deepgar_Bulgaria!M10</f>
-        <v>0.68235623999999995</v>
-      </c>
-      <c r="J11" s="1">
-        <f>[2]results_benchmark_Bulgaria!M10</f>
-        <v>0.53801427650702405</v>
+        <v>0.85346246000000003</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
         <f>[1]results_deepgar_Bulgaria!B11</f>
-        <v>3.79010609740507</v>
+        <v>0.269872</v>
       </c>
       <c r="C12" s="1">
         <f>[2]results_benchmark_Bulgaria!C11</f>
-        <v>0.506006898594761</v>
+        <v>4.3066273893823503E-2</v>
       </c>
       <c r="D12" s="1">
-        <f>[2]results_benchmark_Bulgaria!C11</f>
-        <v>0.506006898594761</v>
+        <f>[1]results_deepgar_Bulgaria!C11</f>
+        <v>6.9615709999999997E-2</v>
       </c>
       <c r="E12" s="1">
+        <f>[2]results_benchmark_Bulgaria!D11</f>
+        <v>0.226805726106176</v>
+      </c>
+      <c r="F12" s="1">
         <f>[1]results_deepgar_Bulgaria!D11</f>
-        <v>3.4576957022596599</v>
-      </c>
-      <c r="F12" s="1">
-        <f>[2]results_benchmark_Bulgaria!D11</f>
-        <v>3.2840991988103099</v>
+        <v>0.20025629319858501</v>
       </c>
       <c r="G12" s="1">
+        <f>[2]results_benchmark_Bulgaria!L11</f>
+        <v>0.63610744162060195</v>
+      </c>
+      <c r="H12" s="1">
         <f>[1]results_deepgar_Bulgaria!L11</f>
-        <v>5.6763709999999998E-9</v>
-      </c>
-      <c r="H12" s="1">
-        <f>[2]results_benchmark_Bulgaria!L11</f>
-        <v>5.6655517732185403E-7</v>
+        <v>1.0633149</v>
       </c>
       <c r="I12" s="1">
+        <f>[2]results_benchmark_Bulgaria!M11</f>
+        <v>0.85790092258801598</v>
+      </c>
+      <c r="J12" s="1">
         <f>[1]results_deepgar_Bulgaria!M11</f>
-        <v>0.85089915999999999</v>
-      </c>
-      <c r="J12" s="1">
-        <f>[2]results_benchmark_Bulgaria!M11</f>
-        <v>0.74106704104245302</v>
+        <v>0.95951635000000002</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1">
         <f>[1]results_deepgar_Bulgaria!B12</f>
-        <v>-0.26303519745234</v>
+        <v>-0.206285999999999</v>
       </c>
       <c r="C13" s="1">
         <f>[2]results_benchmark_Bulgaria!C12</f>
-        <v>1.8842794375007601</v>
+        <v>0.61687727078172705</v>
       </c>
       <c r="D13" s="1">
-        <f>[2]results_benchmark_Bulgaria!C12</f>
-        <v>1.8842794375007601</v>
+        <f>[1]results_deepgar_Bulgaria!C12</f>
+        <v>0.50289510000000004</v>
       </c>
       <c r="E13" s="1">
+        <f>[2]results_benchmark_Bulgaria!D12</f>
+        <v>0.82316327078172702</v>
+      </c>
+      <c r="F13" s="1">
         <f>[1]results_deepgar_Bulgaria!D12</f>
-        <v>4.05266131897333</v>
-      </c>
-      <c r="F13" s="1">
-        <f>[2]results_benchmark_Bulgaria!D12</f>
-        <v>2.1473146349531</v>
+        <v>0.70918111680603002</v>
       </c>
       <c r="G13" s="1">
+        <f>[2]results_benchmark_Bulgaria!L12</f>
+        <v>0.26827270880806198</v>
+      </c>
+      <c r="H13" s="1">
         <f>[1]results_deepgar_Bulgaria!L12</f>
-        <v>2.2438625999999999E-19</v>
-      </c>
-      <c r="H13" s="1">
-        <f>[2]results_benchmark_Bulgaria!L12</f>
-        <v>3.3522695826988802E-6</v>
+        <v>0.28398960000000001</v>
       </c>
       <c r="I13" s="1">
+        <f>[2]results_benchmark_Bulgaria!M12</f>
+        <v>0.62163434635635495</v>
+      </c>
+      <c r="J13" s="1">
         <f>[1]results_deepgar_Bulgaria!M12</f>
-        <v>4.7508720000000001E-16</v>
-      </c>
-      <c r="J13" s="1">
-        <f>[2]results_benchmark_Bulgaria!M12</f>
-        <v>1.2546040175093E-2</v>
+        <v>0.74122469999999996</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
         <f>[1]results_deepgar_Bulgaria!B13</f>
-        <v>-0.64212253250303997</v>
+        <v>-7.3236512999999999</v>
       </c>
       <c r="C14" s="1">
         <f>[2]results_benchmark_Bulgaria!C13</f>
-        <v>0.20312245149528199</v>
+        <v>0.30184034032628598</v>
       </c>
       <c r="D14" s="1">
-        <f>[2]results_benchmark_Bulgaria!C13</f>
-        <v>0.20312245149528199</v>
+        <f>[1]results_deepgar_Bulgaria!C13</f>
+        <v>-7.4532619999999996</v>
       </c>
       <c r="E14" s="1">
+        <f>[2]results_benchmark_Bulgaria!D13</f>
+        <v>7.6254916403262802</v>
+      </c>
+      <c r="F14" s="1">
         <f>[1]results_deepgar_Bulgaria!D13</f>
-        <v>0.82820571519556696</v>
-      </c>
-      <c r="F14" s="1">
-        <f>[2]results_benchmark_Bulgaria!D13</f>
-        <v>0.84524498399832204</v>
+        <v>0.12961055226440399</v>
       </c>
       <c r="G14" s="1">
+        <f>[2]results_benchmark_Bulgaria!L13</f>
+        <v>4.1623489596463801E-22</v>
+      </c>
+      <c r="H14" s="1">
         <f>[1]results_deepgar_Bulgaria!L13</f>
-        <v>0.19872883999999999</v>
-      </c>
-      <c r="H14" s="1">
-        <f>[2]results_benchmark_Bulgaria!L13</f>
-        <v>2.24364438450954E-2</v>
+        <v>0.23745094</v>
       </c>
       <c r="I14" s="1">
+        <f>[2]results_benchmark_Bulgaria!M13</f>
+        <v>0.70672861863520797</v>
+      </c>
+      <c r="J14" s="1">
         <f>[1]results_deepgar_Bulgaria!M13</f>
-        <v>0.94318789999999997</v>
-      </c>
-      <c r="J14" s="1">
-        <f>[2]results_benchmark_Bulgaria!M13</f>
-        <v>0.91679945655367401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1">
         <f>[1]results_deepgar_Bulgaria!B14</f>
-        <v>0.26987198835288001</v>
+        <v>3.09490529999999</v>
       </c>
       <c r="C15" s="1">
         <f>[2]results_benchmark_Bulgaria!C14</f>
-        <v>0.12697111150233101</v>
+        <v>-3.0238119729238502</v>
       </c>
       <c r="D15" s="1">
-        <f>[2]results_benchmark_Bulgaria!C14</f>
-        <v>0.12697111150233101</v>
+        <f>[1]results_deepgar_Bulgaria!C14</f>
+        <v>0.46014273</v>
       </c>
       <c r="E15" s="1">
+        <f>[2]results_benchmark_Bulgaria!D14</f>
+        <v>6.1187172729238499</v>
+      </c>
+      <c r="F15" s="1">
         <f>[1]results_deepgar_Bulgaria!D14</f>
-        <v>2.0939284023389401E-2</v>
-      </c>
-      <c r="F15" s="1">
-        <f>[2]results_benchmark_Bulgaria!D14</f>
-        <v>0.142900876850548</v>
+        <v>2.6347625683334299</v>
       </c>
       <c r="G15" s="1">
+        <f>[2]results_benchmark_Bulgaria!L14</f>
+        <v>4.8667926120037304E-7</v>
+      </c>
+      <c r="H15" s="1">
         <f>[1]results_deepgar_Bulgaria!L14</f>
-        <v>0.85564154000000003</v>
-      </c>
-      <c r="H15" s="1">
-        <f>[2]results_benchmark_Bulgaria!L14</f>
-        <v>0.704255322742249</v>
+        <v>2.9472512999999998E-3</v>
       </c>
       <c r="I15" s="1">
+        <f>[2]results_benchmark_Bulgaria!M14</f>
+        <v>0.99960341171450096</v>
+      </c>
+      <c r="J15" s="1">
         <f>[1]results_deepgar_Bulgaria!M14</f>
-        <v>0.89123509999999995</v>
-      </c>
-      <c r="J15" s="1">
-        <f>[2]results_benchmark_Bulgaria!M14</f>
-        <v>0.88784228786585595</v>
+        <v>0.79764820000000003</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1">
         <f>[1]results_deepgar_Bulgaria!B15</f>
-        <v>-0.20628596724213999</v>
+        <v>1.4067505</v>
       </c>
       <c r="C16" s="1">
         <f>[2]results_benchmark_Bulgaria!C15</f>
-        <v>0.87688291510856597</v>
+        <v>1.84220065019653</v>
       </c>
       <c r="D16" s="1">
-        <f>[2]results_benchmark_Bulgaria!C15</f>
-        <v>0.87688291510856597</v>
+        <f>[1]results_deepgar_Bulgaria!C15</f>
+        <v>3.0159867</v>
       </c>
       <c r="E16" s="1">
+        <f>[2]results_benchmark_Bulgaria!D15</f>
+        <v>0.43545015019653399</v>
+      </c>
+      <c r="F16" s="1">
         <f>[1]results_deepgar_Bulgaria!D15</f>
-        <v>0.42660978318394999</v>
-      </c>
-      <c r="F16" s="1">
-        <f>[2]results_benchmark_Bulgaria!D15</f>
-        <v>1.0831688823507</v>
+        <v>1.60923618098449</v>
       </c>
       <c r="G16" s="1">
+        <f>[2]results_benchmark_Bulgaria!L15</f>
+        <v>0.55606283044350202</v>
+      </c>
+      <c r="H16" s="1">
         <f>[1]results_deepgar_Bulgaria!L15</f>
-        <v>0.22469017999999999</v>
-      </c>
-      <c r="H16" s="1">
-        <f>[2]results_benchmark_Bulgaria!L15</f>
-        <v>7.9280134784050606E-86</v>
+        <v>1.5279664000000001E-4</v>
       </c>
       <c r="I16" s="1">
+        <f>[2]results_benchmark_Bulgaria!M15</f>
+        <v>3.5068660487888599E-2</v>
+      </c>
+      <c r="J16" s="1">
         <f>[1]results_deepgar_Bulgaria!M15</f>
-        <v>0.99949509999999997</v>
-      </c>
-      <c r="J16" s="1">
-        <f>[2]results_benchmark_Bulgaria!M15</f>
-        <v>0.46609910678187</v>
+        <v>8.2135425999999997E-7</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <f>[1]results_deepgar_Bulgaria!B16</f>
-        <v>-7.3236512682204102</v>
+        <v>1.7864663999999999</v>
       </c>
       <c r="C17" s="1">
         <f>[2]results_benchmark_Bulgaria!C16</f>
-        <v>0.14178052101986499</v>
+        <v>1.26427533539538</v>
       </c>
       <c r="D17" s="1">
-        <f>[2]results_benchmark_Bulgaria!C16</f>
-        <v>0.14178052101986499</v>
+        <f>[1]results_deepgar_Bulgaria!C16</f>
+        <v>1.3656158</v>
       </c>
       <c r="E17" s="1">
+        <f>[2]results_benchmark_Bulgaria!D16</f>
+        <v>0.52219106460461395</v>
+      </c>
+      <c r="F17" s="1">
         <f>[1]results_deepgar_Bulgaria!D16</f>
-        <v>0.184522197508349</v>
-      </c>
-      <c r="F17" s="1">
-        <f>[2]results_benchmark_Bulgaria!D16</f>
-        <v>7.4654317892402702</v>
+        <v>0.42085055527343701</v>
       </c>
       <c r="G17" s="1">
+        <f>[2]results_benchmark_Bulgaria!L16</f>
+        <v>0.52678373241835696</v>
+      </c>
+      <c r="H17" s="1">
         <f>[1]results_deepgar_Bulgaria!L16</f>
-        <v>0.16858767999999999</v>
-      </c>
-      <c r="H17" s="1">
-        <f>[2]results_benchmark_Bulgaria!L16</f>
-        <v>2.1335072559930501E-5</v>
+        <v>0.41505966</v>
       </c>
       <c r="I17" s="1">
+        <f>[2]results_benchmark_Bulgaria!M16</f>
+        <v>0.16058420841523299</v>
+      </c>
+      <c r="J17" s="1">
         <f>[1]results_deepgar_Bulgaria!M16</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <f>[2]results_benchmark_Bulgaria!M16</f>
-        <v>0.904824631107227</v>
+        <v>4.1726159999999998E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <f>[1]results_deepgar_Bulgaria!B17</f>
-        <v>3.0949053244241602</v>
+        <v>0.91578879999999996</v>
       </c>
       <c r="C18" s="1">
         <f>[2]results_benchmark_Bulgaria!C17</f>
-        <v>-2.7462421843777398</v>
+        <v>1.2099011641056301</v>
       </c>
       <c r="D18" s="1">
-        <f>[2]results_benchmark_Bulgaria!C17</f>
-        <v>-2.7462421843777398</v>
+        <f>[1]results_deepgar_Bulgaria!C17</f>
+        <v>1.5024351</v>
       </c>
       <c r="E18" s="1">
+        <f>[2]results_benchmark_Bulgaria!D17</f>
+        <v>0.29411236410563601</v>
+      </c>
+      <c r="F18" s="1">
         <f>[1]results_deepgar_Bulgaria!D17</f>
-        <v>2.5967265741476</v>
-      </c>
-      <c r="F18" s="1">
-        <f>[2]results_benchmark_Bulgaria!D17</f>
-        <v>5.8411475088019102</v>
+        <v>0.58664628815765296</v>
       </c>
       <c r="G18" s="1">
+        <f>[2]results_benchmark_Bulgaria!L17</f>
+        <v>0.82887086411941802</v>
+      </c>
+      <c r="H18" s="1">
         <f>[1]results_deepgar_Bulgaria!L17</f>
-        <v>4.4592763000000004E-3</v>
-      </c>
-      <c r="H18" s="1">
-        <f>[2]results_benchmark_Bulgaria!L17</f>
-        <v>1.0333761628767399E-6</v>
+        <v>3.5732704999999997E-2</v>
       </c>
       <c r="I18" s="1">
+        <f>[2]results_benchmark_Bulgaria!M17</f>
+        <v>0.14636303433308301</v>
+      </c>
+      <c r="J18" s="1">
         <f>[1]results_deepgar_Bulgaria!M17</f>
-        <v>0.78022159999999996</v>
-      </c>
-      <c r="J18" s="1">
-        <f>[2]results_benchmark_Bulgaria!M17</f>
-        <v>0.99997681071488997</v>
+        <v>2.1089571999999999E-3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
         <f>[1]results_deepgar_Bulgaria!B18</f>
-        <v>1.4067505455220799</v>
+        <v>0.83705510000000005</v>
       </c>
       <c r="C19" s="1">
         <f>[2]results_benchmark_Bulgaria!C18</f>
-        <v>2.0945787182593101</v>
+        <v>0.90453364402551995</v>
       </c>
       <c r="D19" s="1">
-        <f>[2]results_benchmark_Bulgaria!C18</f>
-        <v>2.0945787182593101</v>
+        <f>[1]results_deepgar_Bulgaria!C18</f>
+        <v>0.94101710000000005</v>
       </c>
       <c r="E19" s="1">
+        <f>[2]results_benchmark_Bulgaria!D18</f>
+        <v>6.7478544025520698E-2</v>
+      </c>
+      <c r="F19" s="1">
         <f>[1]results_deepgar_Bulgaria!D18</f>
-        <v>0.97345317838539003</v>
-      </c>
-      <c r="F19" s="1">
-        <f>[2]results_benchmark_Bulgaria!D18</f>
-        <v>0.68782817273723496</v>
+        <v>0.10396199127426101</v>
       </c>
       <c r="G19" s="1">
+        <f>[2]results_benchmark_Bulgaria!L18</f>
+        <v>0.85105117126546503</v>
+      </c>
+      <c r="H19" s="1">
         <f>[1]results_deepgar_Bulgaria!L18</f>
-        <v>5.0709800000000001E-3</v>
-      </c>
-      <c r="H19" s="1">
-        <f>[2]results_benchmark_Bulgaria!L18</f>
-        <v>0.33590765528477301</v>
+        <v>1.2945415</v>
       </c>
       <c r="I19" s="1">
+        <f>[2]results_benchmark_Bulgaria!M18</f>
+        <v>0.39865841247990802</v>
+      </c>
+      <c r="J19" s="1">
         <f>[1]results_deepgar_Bulgaria!M18</f>
-        <v>3.5835179999999997E-5</v>
-      </c>
-      <c r="J19" s="1">
-        <f>[2]results_benchmark_Bulgaria!M18</f>
-        <v>7.7157502868523603E-2</v>
+        <v>0.2961414</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1">
         <f>[1]results_deepgar_Bulgaria!B19</f>
-        <v>1.78646644080213</v>
+        <v>1.0449264999999901</v>
       </c>
       <c r="C20" s="1">
         <f>[2]results_benchmark_Bulgaria!C19</f>
-        <v>1.5927110516227001</v>
+        <v>0.98774899546759298</v>
       </c>
       <c r="D20" s="1">
-        <f>[2]results_benchmark_Bulgaria!C19</f>
-        <v>1.5927110516227001</v>
+        <f>[1]results_deepgar_Bulgaria!C19</f>
+        <v>0.74612515999999995</v>
       </c>
       <c r="E20" s="1">
+        <f>[2]results_benchmark_Bulgaria!D19</f>
+        <v>5.7177504532406803E-2</v>
+      </c>
+      <c r="F20" s="1">
         <f>[1]results_deepgar_Bulgaria!D19</f>
-        <v>1.01387538636258</v>
-      </c>
-      <c r="F20" s="1">
-        <f>[2]results_benchmark_Bulgaria!D19</f>
-        <v>0.193755389179427</v>
+        <v>0.29880133835220302</v>
       </c>
       <c r="G20" s="1">
+        <f>[2]results_benchmark_Bulgaria!L19</f>
+        <v>0.866804109022415</v>
+      </c>
+      <c r="H20" s="1">
         <f>[1]results_deepgar_Bulgaria!L19</f>
-        <v>6.5061370000000004E-3</v>
-      </c>
-      <c r="H20" s="1">
-        <f>[2]results_benchmark_Bulgaria!L19</f>
-        <v>0.56250052652359495</v>
+        <v>0.75652933</v>
       </c>
       <c r="I20" s="1">
+        <f>[2]results_benchmark_Bulgaria!M19</f>
+        <v>0.34933973502280902</v>
+      </c>
+      <c r="J20" s="1">
         <f>[1]results_deepgar_Bulgaria!M19</f>
-        <v>0.68947994999999995</v>
-      </c>
-      <c r="J20" s="1">
-        <f>[2]results_benchmark_Bulgaria!M19</f>
-        <v>0.20800548222125201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1">
-        <f>[1]results_deepgar_Bulgaria!B20</f>
-        <v>0.91578881082393904</v>
-      </c>
-      <c r="C21" s="1">
-        <f>[2]results_benchmark_Bulgaria!C20</f>
-        <v>0.95531960776288605</v>
-      </c>
-      <c r="D21" s="1">
-        <f>[2]results_benchmark_Bulgaria!C20</f>
-        <v>0.95531960776288605</v>
-      </c>
-      <c r="E21" s="1">
-        <f>[1]results_deepgar_Bulgaria!D20</f>
-        <v>0.64842422666690402</v>
-      </c>
-      <c r="F21" s="1">
-        <f>[2]results_benchmark_Bulgaria!D20</f>
-        <v>3.9530796938946199E-2</v>
-      </c>
-      <c r="G21" s="1">
-        <f>[1]results_deepgar_Bulgaria!L20</f>
-        <v>9.1795790000000002E-3</v>
-      </c>
-      <c r="H21" s="1">
-        <f>[2]results_benchmark_Bulgaria!L20</f>
-        <v>0.64486164325333895</v>
-      </c>
-      <c r="I21" s="1">
-        <f>[1]results_deepgar_Bulgaria!M20</f>
-        <v>6.8095524000000003E-4</v>
-      </c>
-      <c r="J21" s="1">
-        <f>[2]results_benchmark_Bulgaria!M20</f>
-        <v>0.44066970756092</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1">
-        <f>[1]results_deepgar_Bulgaria!B21</f>
-        <v>0.83705506378197003</v>
-      </c>
-      <c r="C22" s="1">
-        <f>[2]results_benchmark_Bulgaria!C21</f>
-        <v>0.62859439529275696</v>
-      </c>
-      <c r="D22" s="1">
-        <f>[2]results_benchmark_Bulgaria!C21</f>
-        <v>0.62859439529275696</v>
-      </c>
-      <c r="E22" s="1">
-        <f>[1]results_deepgar_Bulgaria!D21</f>
-        <v>8.3484911384350699E-2</v>
-      </c>
-      <c r="F22" s="1">
-        <f>[2]results_benchmark_Bulgaria!D21</f>
-        <v>0.20846066848921199</v>
-      </c>
-      <c r="G22" s="1">
-        <f>[1]results_deepgar_Bulgaria!L21</f>
-        <v>1.1370579000000001</v>
-      </c>
-      <c r="H22" s="1">
-        <f>[2]results_benchmark_Bulgaria!L21</f>
-        <v>0.65215699621690704</v>
-      </c>
-      <c r="I22" s="1">
-        <f>[1]results_deepgar_Bulgaria!M21</f>
-        <v>0.42730546000000003</v>
-      </c>
-      <c r="J22" s="1">
-        <f>[2]results_benchmark_Bulgaria!M21</f>
-        <v>0.65302282128685896</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1">
-        <f>[1]results_deepgar_Bulgaria!B22</f>
-        <v>1.0449265368906699</v>
-      </c>
-      <c r="C23" s="1">
-        <f>[2]results_benchmark_Bulgaria!C22</f>
-        <v>1.1638599155045799</v>
-      </c>
-      <c r="D23" s="1">
-        <f>[2]results_benchmark_Bulgaria!C22</f>
-        <v>1.1638599155045799</v>
-      </c>
-      <c r="E23" s="1">
-        <f>[1]results_deepgar_Bulgaria!D22</f>
-        <v>0.20762146792094299</v>
-      </c>
-      <c r="F23" s="1">
-        <f>[2]results_benchmark_Bulgaria!D22</f>
-        <v>0.118933378613914</v>
-      </c>
-      <c r="G23" s="1">
-        <f>[1]results_deepgar_Bulgaria!L22</f>
-        <v>0.94440882999999998</v>
-      </c>
-      <c r="H23" s="1">
-        <f>[2]results_benchmark_Bulgaria!L22</f>
-        <v>0.79077829427236102</v>
-      </c>
-      <c r="I23" s="1">
-        <f>[1]results_deepgar_Bulgaria!M22</f>
-        <v>0.52212053999999997</v>
-      </c>
-      <c r="J23" s="1">
-        <f>[2]results_benchmark_Bulgaria!M22</f>
-        <v>0.27985768704302399</v>
+        <v>0.52012630000000004</v>
       </c>
     </row>
   </sheetData>
@@ -5598,7 +5254,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J23"/>
+      <selection activeCell="B3" sqref="B3:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5664,39 +5320,39 @@
       </c>
       <c r="B3" s="1">
         <f>[3]results_deepgar_Estonia!B2</f>
-        <v>1.1984395117181801</v>
+        <v>1.1984395000000001</v>
       </c>
       <c r="C3" s="1">
         <f>[4]results_benchmark_Estonia!C2</f>
-        <v>1.20421091141631</v>
+        <v>0.90571872268585096</v>
       </c>
       <c r="D3" s="1">
         <f>[3]results_deepgar_Estonia!C2</f>
-        <v>0.43039625999999997</v>
+        <v>1.2614386</v>
       </c>
       <c r="E3" s="1">
         <f>[4]results_benchmark_Estonia!D2</f>
-        <v>5.7713996981365503E-3</v>
+        <v>0.29272077731414903</v>
       </c>
       <c r="F3" s="1">
         <f>[3]results_deepgar_Estonia!D2</f>
-        <v>0.76804325288715503</v>
+        <v>6.2999108169555507E-2</v>
       </c>
       <c r="G3" s="1">
         <f>[4]results_benchmark_Estonia!L2</f>
-        <v>1.15850969983109</v>
+        <v>0.64634466650005995</v>
       </c>
       <c r="H3" s="1">
         <f>[3]results_deepgar_Estonia!L2</f>
-        <v>0.61289669999999996</v>
+        <v>0.72701179999999999</v>
       </c>
       <c r="I3" s="1">
         <f>[4]results_benchmark_Estonia!M2</f>
-        <v>0.32746563700944697</v>
+        <v>0.48181137460016599</v>
       </c>
       <c r="J3" s="1">
         <f>[3]results_deepgar_Estonia!M2</f>
-        <v>0.68622760000000005</v>
+        <v>0.36296737000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -5705,39 +5361,39 @@
       </c>
       <c r="B4" s="1">
         <f>[3]results_deepgar_Estonia!B3</f>
-        <v>1.97246960464513</v>
+        <v>1.9724695999999999</v>
       </c>
       <c r="C4" s="1">
         <f>[4]results_benchmark_Estonia!C3</f>
-        <v>0.92124754548783205</v>
+        <v>0.92991802081131303</v>
       </c>
       <c r="D4" s="1">
         <f>[3]results_deepgar_Estonia!C3</f>
-        <v>1.1425148000000001</v>
+        <v>1.3174644</v>
       </c>
       <c r="E4" s="1">
         <f>[4]results_benchmark_Estonia!D3</f>
-        <v>1.0512220591573</v>
+        <v>1.0425515791886799</v>
       </c>
       <c r="F4" s="1">
         <f>[3]results_deepgar_Estonia!D3</f>
-        <v>0.82995477977789101</v>
+        <v>0.65500524834594698</v>
       </c>
       <c r="G4" s="1">
         <f>[4]results_benchmark_Estonia!L3</f>
-        <v>0.474354733982848</v>
+        <v>0.45755316330104301</v>
       </c>
       <c r="H4" s="1">
         <f>[3]results_deepgar_Estonia!L3</f>
-        <v>0.51377773000000004</v>
+        <v>0.56400865</v>
       </c>
       <c r="I4" s="1">
         <f>[4]results_benchmark_Estonia!M3</f>
-        <v>0.471158968250463</v>
+        <v>0.47396304580846998</v>
       </c>
       <c r="J4" s="1">
         <f>[3]results_deepgar_Estonia!M3</f>
-        <v>0.39046540000000002</v>
+        <v>0.33950138000000002</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -5746,39 +5402,39 @@
       </c>
       <c r="B5" s="1">
         <f>[3]results_deepgar_Estonia!B4</f>
-        <v>1.89866886802188</v>
+        <v>1.8986689000000001</v>
       </c>
       <c r="C5" s="1">
         <f>[4]results_benchmark_Estonia!C4</f>
-        <v>1.03949080064625</v>
+        <v>0.96732797761547995</v>
       </c>
       <c r="D5" s="1">
         <f>[3]results_deepgar_Estonia!C4</f>
-        <v>1.5227846</v>
+        <v>1.5264187</v>
       </c>
       <c r="E5" s="1">
         <f>[4]results_benchmark_Estonia!D4</f>
-        <v>0.85917806737562696</v>
+        <v>0.93134092238451904</v>
       </c>
       <c r="F5" s="1">
         <f>[3]results_deepgar_Estonia!D4</f>
-        <v>0.37588427730074903</v>
+        <v>0.372250214086914</v>
       </c>
       <c r="G5" s="1">
         <f>[4]results_benchmark_Estonia!L4</f>
-        <v>0.48724239613006898</v>
+        <v>0.448979139245544</v>
       </c>
       <c r="H5" s="1">
         <f>[3]results_deepgar_Estonia!L4</f>
-        <v>0.65210705999999996</v>
+        <v>0.66797704000000002</v>
       </c>
       <c r="I5" s="1">
         <f>[4]results_benchmark_Estonia!M4</f>
-        <v>0.43614923698046898</v>
+        <v>0.46620361927914999</v>
       </c>
       <c r="J5" s="1">
         <f>[3]results_deepgar_Estonia!M4</f>
-        <v>0.26456376999999998</v>
+        <v>0.26973784000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -5787,39 +5443,39 @@
       </c>
       <c r="B6" s="1">
         <f>[3]results_deepgar_Estonia!B5</f>
-        <v>0.35811277330264002</v>
+        <v>0.35811279999999901</v>
       </c>
       <c r="C6" s="1">
         <f>[4]results_benchmark_Estonia!C5</f>
-        <v>0.92731882978143398</v>
+        <v>1.4786745740238201</v>
       </c>
       <c r="D6" s="1">
         <f>[3]results_deepgar_Estonia!C5</f>
-        <v>1.3079135</v>
+        <v>1.5438341</v>
       </c>
       <c r="E6" s="1">
         <f>[4]results_benchmark_Estonia!D5</f>
-        <v>0.56920605647879396</v>
+        <v>1.1205617740238201</v>
       </c>
       <c r="F6" s="1">
         <f>[3]results_deepgar_Estonia!D5</f>
-        <v>0.949800768491183</v>
+        <v>1.18572129023284</v>
       </c>
       <c r="G6" s="1">
         <f>[4]results_benchmark_Estonia!L5</f>
-        <v>0.75011890918149204</v>
+        <v>0.48092639757133798</v>
       </c>
       <c r="H6" s="1">
         <f>[3]results_deepgar_Estonia!L5</f>
-        <v>0.51263250000000005</v>
+        <v>0.40010289999999998</v>
       </c>
       <c r="I6" s="1">
         <f>[4]results_benchmark_Estonia!M5</f>
-        <v>0.47500862314998099</v>
+        <v>0.26661270338165999</v>
       </c>
       <c r="J6" s="1">
         <f>[3]results_deepgar_Estonia!M5</f>
-        <v>0.34254544999999997</v>
+        <v>0.25483084</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -5828,39 +5484,39 @@
       </c>
       <c r="B7" s="1">
         <f>[3]results_deepgar_Estonia!B6</f>
-        <v>1.4456858752087001</v>
+        <v>1.4456859</v>
       </c>
       <c r="C7" s="1">
         <f>[4]results_benchmark_Estonia!C6</f>
-        <v>0.871662245965664</v>
+        <v>0.54050189190488096</v>
       </c>
       <c r="D7" s="1">
         <f>[3]results_deepgar_Estonia!C6</f>
-        <v>0.83297370000000004</v>
+        <v>0.76067364000000004</v>
       </c>
       <c r="E7" s="1">
         <f>[4]results_benchmark_Estonia!D6</f>
-        <v>0.57402362924303496</v>
+        <v>0.90518400809511801</v>
       </c>
       <c r="F7" s="1">
         <f>[3]results_deepgar_Estonia!D6</f>
-        <v>0.61271215656551103</v>
+        <v>0.685012257841491</v>
       </c>
       <c r="G7" s="1">
         <f>[4]results_benchmark_Estonia!L6</f>
-        <v>0.76467607968914397</v>
+        <v>0.48970618352033501</v>
       </c>
       <c r="H7" s="1">
         <f>[3]results_deepgar_Estonia!L6</f>
-        <v>0.59608804999999998</v>
+        <v>0.5398811</v>
       </c>
       <c r="I7" s="1">
         <f>[4]results_benchmark_Estonia!M6</f>
-        <v>0.490630823448713</v>
+        <v>0.59122627878536105</v>
       </c>
       <c r="J7" s="1">
         <f>[3]results_deepgar_Estonia!M6</f>
-        <v>0.50529279999999999</v>
+        <v>0.52429309999999996</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -5869,39 +5525,39 @@
       </c>
       <c r="B8" s="1">
         <f>[3]results_deepgar_Estonia!B7</f>
-        <v>1.0615788045935399</v>
+        <v>1.0615787999999999</v>
       </c>
       <c r="C8" s="1">
         <f>[4]results_benchmark_Estonia!C7</f>
-        <v>1.90442712183715</v>
+        <v>1.15793826844268</v>
       </c>
       <c r="D8" s="1">
         <f>[3]results_deepgar_Estonia!C7</f>
-        <v>1.4493963000000001</v>
+        <v>1.2662428999999999</v>
       </c>
       <c r="E8" s="1">
         <f>[4]results_benchmark_Estonia!D7</f>
-        <v>0.84284831724361498</v>
+        <v>9.63594684426827E-2</v>
       </c>
       <c r="F8" s="1">
         <f>[3]results_deepgar_Estonia!D7</f>
-        <v>0.38781744803860002</v>
+        <v>0.20466406174774099</v>
       </c>
       <c r="G8" s="1">
         <f>[4]results_benchmark_Estonia!L7</f>
-        <v>0.55037431593501795</v>
+        <v>0.73341594897625195</v>
       </c>
       <c r="H8" s="1">
         <f>[3]results_deepgar_Estonia!L7</f>
-        <v>0.83805686000000001</v>
+        <v>0.6812068</v>
       </c>
       <c r="I8" s="1">
         <f>[4]results_benchmark_Estonia!M7</f>
-        <v>0.112265834987337</v>
+        <v>0.39422935548524102</v>
       </c>
       <c r="J8" s="1">
         <f>[3]results_deepgar_Estonia!M7</f>
-        <v>0.26262533999999998</v>
+        <v>0.36848930000000002</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -5910,39 +5566,39 @@
       </c>
       <c r="B9" s="1">
         <f>[3]results_deepgar_Estonia!B8</f>
-        <v>0.77574174152678999</v>
+        <v>0.77574169999999998</v>
       </c>
       <c r="C9" s="1">
         <f>[4]results_benchmark_Estonia!C8</f>
-        <v>0.77294110686222295</v>
+        <v>0.77975950829876395</v>
       </c>
       <c r="D9" s="1">
         <f>[3]results_deepgar_Estonia!C8</f>
-        <v>0.83855380000000002</v>
+        <v>0.71253330000000004</v>
       </c>
       <c r="E9" s="1">
         <f>[4]results_benchmark_Estonia!D8</f>
-        <v>2.80063466456637E-3</v>
+        <v>4.0178082987640798E-3</v>
       </c>
       <c r="F9" s="1">
         <f>[3]results_deepgar_Estonia!D8</f>
-        <v>6.2812044750980997E-2</v>
+        <v>6.3208404845428404E-2</v>
       </c>
       <c r="G9" s="1">
         <f>[4]results_benchmark_Estonia!L8</f>
-        <v>0.71568057573490995</v>
+        <v>0.63415498186010899</v>
       </c>
       <c r="H9" s="1">
         <f>[3]results_deepgar_Estonia!L8</f>
-        <v>0.6546651</v>
+        <v>0.55106619999999995</v>
       </c>
       <c r="I9" s="1">
         <f>[4]results_benchmark_Estonia!M8</f>
-        <v>0.52525795315888202</v>
+        <v>0.52043711825802896</v>
       </c>
       <c r="J9" s="1">
         <f>[3]results_deepgar_Estonia!M8</f>
-        <v>0.50327129999999998</v>
+        <v>0.53513390000000005</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -5951,39 +5607,39 @@
       </c>
       <c r="B10" s="1">
         <f>[3]results_deepgar_Estonia!B9</f>
-        <v>0.68453622892454002</v>
+        <v>0.68453619999999904</v>
       </c>
       <c r="C10" s="1">
         <f>[4]results_benchmark_Estonia!C9</f>
-        <v>0.44358508969538402</v>
+        <v>0.56384155459997498</v>
       </c>
       <c r="D10" s="1">
         <f>[3]results_deepgar_Estonia!C9</f>
-        <v>0.86678759999999999</v>
+        <v>0.99490529999999999</v>
       </c>
       <c r="E10" s="1">
         <f>[4]results_benchmark_Estonia!D9</f>
-        <v>0.24095113922915501</v>
+        <v>0.120694645400024</v>
       </c>
       <c r="F10" s="1">
         <f>[3]results_deepgar_Estonia!D9</f>
-        <v>0.18225138351366099</v>
+        <v>0.310369092987823</v>
       </c>
       <c r="G10" s="1">
         <f>[4]results_benchmark_Estonia!L9</f>
-        <v>0.65070045148853395</v>
+        <v>0.60278978695448204</v>
       </c>
       <c r="H10" s="1">
         <f>[3]results_deepgar_Estonia!L9</f>
-        <v>0.7030343</v>
+        <v>0.60485655000000005</v>
       </c>
       <c r="I10" s="1">
         <f>[4]results_benchmark_Estonia!M9</f>
-        <v>0.62450585825334404</v>
+        <v>0.57981315456289095</v>
       </c>
       <c r="J10" s="1">
         <f>[3]results_deepgar_Estonia!M9</f>
-        <v>0.49416347999999999</v>
+        <v>0.45697473999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -5992,39 +5648,39 @@
       </c>
       <c r="B11" s="1">
         <f>[3]results_deepgar_Estonia!B10</f>
-        <v>1.37651893264667</v>
+        <v>1.3765189</v>
       </c>
       <c r="C11" s="1">
         <f>[4]results_benchmark_Estonia!C10</f>
-        <v>1.0534846816172501</v>
+        <v>0.551398455737939</v>
       </c>
       <c r="D11" s="1">
         <f>[3]results_deepgar_Estonia!C10</f>
-        <v>0.97396799999999994</v>
+        <v>0.75238320000000003</v>
       </c>
       <c r="E11" s="1">
         <f>[4]results_benchmark_Estonia!D10</f>
-        <v>0.32303425102941502</v>
+        <v>0.82512044426205999</v>
       </c>
       <c r="F11" s="1">
         <f>[3]results_deepgar_Estonia!D10</f>
-        <v>0.402550903624453</v>
+        <v>0.62413572748794499</v>
       </c>
       <c r="G11" s="1">
         <f>[4]results_benchmark_Estonia!L10</f>
-        <v>0.81639116582420002</v>
+        <v>0.48670433987400802</v>
       </c>
       <c r="H11" s="1">
         <f>[3]results_deepgar_Estonia!L10</f>
-        <v>0.62331694000000004</v>
+        <v>0.54424340000000004</v>
       </c>
       <c r="I11" s="1">
         <f>[4]results_benchmark_Estonia!M10</f>
-        <v>0.41747055136936601</v>
+        <v>0.58322430441557604</v>
       </c>
       <c r="J11" s="1">
         <f>[3]results_deepgar_Estonia!M10</f>
-        <v>0.46138653000000002</v>
+        <v>0.52582127000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -6033,39 +5689,39 @@
       </c>
       <c r="B12" s="1">
         <f>[3]results_deepgar_Estonia!B11</f>
-        <v>1.6370484416725299</v>
+        <v>1.6370484000000001</v>
       </c>
       <c r="C12" s="1">
         <f>[4]results_benchmark_Estonia!C11</f>
-        <v>0.84400827133852596</v>
+        <v>1.20576235584151</v>
       </c>
       <c r="D12" s="1">
         <f>[3]results_deepgar_Estonia!C11</f>
-        <v>0.82766740000000005</v>
+        <v>1.0725503999999999</v>
       </c>
       <c r="E12" s="1">
         <f>[4]results_benchmark_Estonia!D11</f>
-        <v>0.79304017033400398</v>
+        <v>0.43128604415848498</v>
       </c>
       <c r="F12" s="1">
         <f>[3]results_deepgar_Estonia!D11</f>
-        <v>0.80938102653046995</v>
+        <v>0.56449798400726303</v>
       </c>
       <c r="G12" s="1">
         <f>[4]results_benchmark_Estonia!L11</f>
-        <v>0.47349039799631598</v>
+        <v>0.67113676858982796</v>
       </c>
       <c r="H12" s="1">
         <f>[3]results_deepgar_Estonia!L11</f>
-        <v>0.50114274000000003</v>
+        <v>0.57232594000000003</v>
       </c>
       <c r="I12" s="1">
         <f>[4]results_benchmark_Estonia!M11</f>
-        <v>0.50152985453182297</v>
+        <v>0.375591433200964</v>
       </c>
       <c r="J12" s="1">
         <f>[3]results_deepgar_Estonia!M11</f>
-        <v>0.50583750000000005</v>
+        <v>0.43545640000000002</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -6074,39 +5730,39 @@
       </c>
       <c r="B13" s="1">
         <f>[3]results_deepgar_Estonia!B12</f>
-        <v>0.42620565706704999</v>
+        <v>0.42620569999999902</v>
       </c>
       <c r="C13" s="1">
         <f>[4]results_benchmark_Estonia!C12</f>
-        <v>1.2276498005324299</v>
+        <v>1.0878986375455799</v>
       </c>
       <c r="D13" s="1">
         <f>[3]results_deepgar_Estonia!C12</f>
-        <v>1.1073898</v>
+        <v>1.2042732</v>
       </c>
       <c r="E13" s="1">
         <f>[4]results_benchmark_Estonia!D12</f>
-        <v>0.80144414346537995</v>
+        <v>0.66169293754558001</v>
       </c>
       <c r="F13" s="1">
         <f>[3]results_deepgar_Estonia!D12</f>
-        <v>0.68118415063406001</v>
+        <v>0.77806752387695299</v>
       </c>
       <c r="G13" s="1">
         <f>[4]results_benchmark_Estonia!L12</f>
-        <v>0.739499869401819</v>
+        <v>0.65297081453324402</v>
       </c>
       <c r="H13" s="1">
         <f>[3]results_deepgar_Estonia!L12</f>
-        <v>0.52256599999999997</v>
+        <v>0.51602780000000004</v>
       </c>
       <c r="I13" s="1">
         <f>[4]results_benchmark_Estonia!M12</f>
-        <v>0.36955815203703302</v>
+        <v>0.42428150583951502</v>
       </c>
       <c r="J13" s="1">
         <f>[3]results_deepgar_Estonia!M12</f>
-        <v>0.42690630000000002</v>
+        <v>0.3935632</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -6115,39 +5771,39 @@
       </c>
       <c r="B14" s="1">
         <f>[3]results_deepgar_Estonia!B13</f>
-        <v>0.69710165923830003</v>
+        <v>0.69710170000000005</v>
       </c>
       <c r="C14" s="1">
         <f>[4]results_benchmark_Estonia!C13</f>
-        <v>0.69597206174066695</v>
+        <v>0.76455429477115999</v>
       </c>
       <c r="D14" s="1">
         <f>[3]results_deepgar_Estonia!C13</f>
-        <v>0.30310047000000001</v>
+        <v>0.58094270000000003</v>
       </c>
       <c r="E14" s="1">
         <f>[4]results_benchmark_Estonia!D13</f>
-        <v>1.12959749763252E-3</v>
+        <v>6.7452594771160806E-2</v>
       </c>
       <c r="F14" s="1">
         <f>[3]results_deepgar_Estonia!D13</f>
-        <v>0.39400119251008903</v>
+        <v>0.11615900962753301</v>
       </c>
       <c r="G14" s="1">
         <f>[4]results_benchmark_Estonia!L13</f>
-        <v>0.65072195717190895</v>
+        <v>0.70635059422079505</v>
       </c>
       <c r="H14" s="1">
         <f>[3]results_deepgar_Estonia!L13</f>
-        <v>0.49293584000000001</v>
+        <v>0.54266274000000003</v>
       </c>
       <c r="I14" s="1">
         <f>[4]results_benchmark_Estonia!M13</f>
-        <v>0.54559948865410501</v>
+        <v>0.52771090781074104</v>
       </c>
       <c r="J14" s="1">
         <f>[3]results_deepgar_Estonia!M13</f>
-        <v>0.62471169999999998</v>
+        <v>0.56788680000000002</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -6156,39 +5812,39 @@
       </c>
       <c r="B15" s="1">
         <f>[3]results_deepgar_Estonia!B14</f>
-        <v>0.36475656096341003</v>
+        <v>0.36475659999999999</v>
       </c>
       <c r="C15" s="1">
         <f>[4]results_benchmark_Estonia!C14</f>
-        <v>0.48659825316909799</v>
+        <v>0.88992703030050402</v>
       </c>
       <c r="D15" s="1">
         <f>[3]results_deepgar_Estonia!C14</f>
-        <v>0.65660565999999998</v>
+        <v>0.7593164</v>
       </c>
       <c r="E15" s="1">
         <f>[4]results_benchmark_Estonia!D14</f>
-        <v>0.121841692205688</v>
+        <v>0.52517043030050403</v>
       </c>
       <c r="F15" s="1">
         <f>[3]results_deepgar_Estonia!D14</f>
-        <v>0.29184909995196401</v>
+        <v>0.39455978479232701</v>
       </c>
       <c r="G15" s="1">
         <f>[4]results_benchmark_Estonia!L14</f>
-        <v>0.69629462233033301</v>
+        <v>0.67389412054539299</v>
       </c>
       <c r="H15" s="1">
         <f>[3]results_deepgar_Estonia!L14</f>
-        <v>0.60749109999999995</v>
+        <v>0.52553092999999995</v>
       </c>
       <c r="I15" s="1">
         <f>[4]results_benchmark_Estonia!M14</f>
-        <v>0.60919873152366799</v>
+        <v>0.486382819920405</v>
       </c>
       <c r="J15" s="1">
         <f>[3]results_deepgar_Estonia!M14</f>
-        <v>0.55757665999999995</v>
+        <v>0.52392994999999998</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -6197,39 +5853,39 @@
       </c>
       <c r="B16" s="1">
         <f>[3]results_deepgar_Estonia!B15</f>
-        <v>-1.2066581219643699</v>
+        <v>-1.2066581000000001</v>
       </c>
       <c r="C16" s="1">
         <f>[4]results_benchmark_Estonia!C15</f>
-        <v>2.6439884294238398</v>
+        <v>0.17285228150080401</v>
       </c>
       <c r="D16" s="1">
         <f>[3]results_deepgar_Estonia!C15</f>
-        <v>0.84940740000000003</v>
+        <v>0.88248026000000002</v>
       </c>
       <c r="E16" s="1">
         <f>[4]results_benchmark_Estonia!D15</f>
-        <v>3.85064655138821</v>
+        <v>1.3795103815008001</v>
       </c>
       <c r="F16" s="1">
         <f>[3]results_deepgar_Estonia!D15</f>
-        <v>2.0560654968232202</v>
+        <v>2.08913836371002</v>
       </c>
       <c r="G16" s="1">
         <f>[4]results_benchmark_Estonia!L15</f>
-        <v>1.5629736024133001E-5</v>
+        <v>0.413346858306328</v>
       </c>
       <c r="H16" s="1">
         <f>[3]results_deepgar_Estonia!L15</f>
-        <v>0.21519335000000001</v>
+        <v>0.19564189000000001</v>
       </c>
       <c r="I16" s="1">
         <f>[4]results_benchmark_Estonia!M15</f>
-        <v>9.8234095094486603E-3</v>
+        <v>0.66433027166133996</v>
       </c>
       <c r="J16" s="1">
         <f>[3]results_deepgar_Estonia!M15</f>
-        <v>0.49995148</v>
+        <v>0.49021905999999998</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -6238,39 +5894,39 @@
       </c>
       <c r="B17" s="1">
         <f>[3]results_deepgar_Estonia!B16</f>
-        <v>-5.8116608769129501</v>
+        <v>-5.8116608999999997</v>
       </c>
       <c r="C17" s="1">
         <f>[4]results_benchmark_Estonia!C16</f>
-        <v>0.25763275505635502</v>
+        <v>1.50283720876164</v>
       </c>
       <c r="D17" s="1">
         <f>[3]results_deepgar_Estonia!C16</f>
-        <v>-6.4910145000000004</v>
+        <v>-5.7945633000000001</v>
       </c>
       <c r="E17" s="1">
         <f>[4]results_benchmark_Estonia!D16</f>
-        <v>6.0692936319693098</v>
+        <v>7.3144981087616401</v>
       </c>
       <c r="F17" s="1">
         <f>[3]results_deepgar_Estonia!D16</f>
-        <v>0.67935360367786102</v>
+        <v>1.7097606542968401E-2</v>
       </c>
       <c r="G17" s="1">
         <f>[4]results_benchmark_Estonia!L16</f>
-        <v>3.7377469249152403E-7</v>
+        <v>1.8251110373885899E-10</v>
       </c>
       <c r="H17" s="1">
         <f>[3]results_deepgar_Estonia!L16</f>
-        <v>0.18090853000000001</v>
+        <v>0.22471923999999999</v>
       </c>
       <c r="I17" s="1">
         <f>[4]results_benchmark_Estonia!M16</f>
-        <v>0.61424427031104101</v>
+        <v>0.162082373567322</v>
       </c>
       <c r="J17" s="1">
         <f>[3]results_deepgar_Estonia!M16</f>
-        <v>0.99992479999999995</v>
+        <v>0.99980959999999997</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -6279,39 +5935,39 @@
       </c>
       <c r="B18" s="1">
         <f>[3]results_deepgar_Estonia!B17</f>
-        <v>3.6193272437291499</v>
+        <v>3.6193271999999999</v>
       </c>
       <c r="C18" s="1">
         <f>[4]results_benchmark_Estonia!C17</f>
-        <v>-2.3065149618116698</v>
+        <v>-2.6848504496685601</v>
       </c>
       <c r="D18" s="1">
         <f>[3]results_deepgar_Estonia!C17</f>
-        <v>-1.8468036999999999</v>
+        <v>-1.4901707</v>
       </c>
       <c r="E18" s="1">
         <f>[4]results_benchmark_Estonia!D17</f>
-        <v>5.9258422055408202</v>
+        <v>6.30417764966856</v>
       </c>
       <c r="F18" s="1">
         <f>[3]results_deepgar_Estonia!D17</f>
-        <v>5.4661309088902801</v>
+        <v>5.1094979172393797</v>
       </c>
       <c r="G18" s="1">
         <f>[4]results_benchmark_Estonia!L17</f>
-        <v>6.8817539457478905E-8</v>
+        <v>1.6066473465723701E-3</v>
       </c>
       <c r="H18" s="1">
         <f>[3]results_deepgar_Estonia!L17</f>
-        <v>2.3538900000000001E-8</v>
+        <v>8.8273663000000003E-7</v>
       </c>
       <c r="I18" s="1">
         <f>[4]results_benchmark_Estonia!M17</f>
-        <v>0.99927948814602297</v>
+        <v>0.97170727005664503</v>
       </c>
       <c r="J18" s="1">
         <f>[3]results_deepgar_Estonia!M17</f>
-        <v>0.99749522999999995</v>
+        <v>0.99706709999999998</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -6320,39 +5976,39 @@
       </c>
       <c r="B19" s="1">
         <f>[3]results_deepgar_Estonia!B18</f>
-        <v>2.19684116628477</v>
+        <v>2.1968412000000002</v>
       </c>
       <c r="C19" s="1">
         <f>[4]results_benchmark_Estonia!C18</f>
-        <v>1.8397689724857</v>
+        <v>1.38605602836061</v>
       </c>
       <c r="D19" s="1">
         <f>[3]results_deepgar_Estonia!C18</f>
-        <v>1.2294874</v>
+        <v>2.1229695999999998</v>
       </c>
       <c r="E19" s="1">
         <f>[4]results_benchmark_Estonia!D18</f>
-        <v>0.35707219379906602</v>
+        <v>0.81078517163938602</v>
       </c>
       <c r="F19" s="1">
         <f>[3]results_deepgar_Estonia!D18</f>
-        <v>0.96735374715635203</v>
+        <v>7.3871572619628997E-2</v>
       </c>
       <c r="G19" s="1">
         <f>[4]results_benchmark_Estonia!L18</f>
-        <v>1.15988358301871</v>
+        <v>0.44268659161481899</v>
       </c>
       <c r="H19" s="1">
         <f>[3]results_deepgar_Estonia!L18</f>
-        <v>0.41975072000000002</v>
+        <v>0.93753600000000004</v>
       </c>
       <c r="I19" s="1">
         <f>[4]results_benchmark_Estonia!M18</f>
-        <v>0.12702436683493301</v>
+        <v>0.35071363068803801</v>
       </c>
       <c r="J19" s="1">
         <f>[3]results_deepgar_Estonia!M18</f>
-        <v>0.28493243000000001</v>
+        <v>3.9852551999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -6361,39 +6017,39 @@
       </c>
       <c r="B20" s="1">
         <f>[3]results_deepgar_Estonia!B19</f>
-        <v>3.33053791781479</v>
+        <v>3.3305378999999999</v>
       </c>
       <c r="C20" s="1">
         <f>[4]results_benchmark_Estonia!C19</f>
-        <v>1.29446795558254</v>
+        <v>1.59681812489659</v>
       </c>
       <c r="D20" s="1">
         <f>[3]results_deepgar_Estonia!C19</f>
-        <v>-1.6458146E-2</v>
+        <v>1.6929335999999999</v>
       </c>
       <c r="E20" s="1">
         <f>[4]results_benchmark_Estonia!D19</f>
-        <v>2.03606996223224</v>
+        <v>1.7337197751033999</v>
       </c>
       <c r="F20" s="1">
         <f>[3]results_deepgar_Estonia!D19</f>
-        <v>3.3469960640888798</v>
+        <v>1.63760434058227</v>
       </c>
       <c r="G20" s="1">
         <f>[4]results_benchmark_Estonia!L19</f>
-        <v>1.11409836378002E-4</v>
+        <v>0.22237574254979001</v>
       </c>
       <c r="H20" s="1">
         <f>[3]results_deepgar_Estonia!L19</f>
-        <v>9.1443009999999996E-4</v>
+        <v>0.22806999999999999</v>
       </c>
       <c r="I20" s="1">
         <f>[4]results_benchmark_Estonia!M19</f>
-        <v>0.26667847722536497</v>
+        <v>0.21343977837333</v>
       </c>
       <c r="J20" s="1">
         <f>[3]results_deepgar_Estonia!M19</f>
-        <v>0.87521093999999999</v>
+        <v>0.16125708999999999</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -6402,39 +6058,39 @@
       </c>
       <c r="B21" s="1">
         <f>[3]results_deepgar_Estonia!B20</f>
-        <v>2.41904761904763</v>
+        <v>2.4190475999999999</v>
       </c>
       <c r="C21" s="1">
         <f>[4]results_benchmark_Estonia!C20</f>
-        <v>0.94324228336992799</v>
+        <v>1.24176139025968</v>
       </c>
       <c r="D21" s="1">
         <f>[3]results_deepgar_Estonia!C20</f>
-        <v>1.5561788999999999</v>
+        <v>1.8836961000000001</v>
       </c>
       <c r="E21" s="1">
         <f>[4]results_benchmark_Estonia!D20</f>
-        <v>1.4758053356776999</v>
+        <v>1.1772862097403101</v>
       </c>
       <c r="F21" s="1">
         <f>[3]results_deepgar_Estonia!D20</f>
-        <v>0.86286869162605995</v>
+        <v>0.53535152074584902</v>
       </c>
       <c r="G21" s="1">
         <f>[4]results_benchmark_Estonia!L20</f>
-        <v>0.31487963377384798</v>
+        <v>0.37617964374254798</v>
       </c>
       <c r="H21" s="1">
         <f>[3]results_deepgar_Estonia!L20</f>
-        <v>0.45846763000000001</v>
+        <v>0.59084219999999998</v>
       </c>
       <c r="I21" s="1">
         <f>[4]results_benchmark_Estonia!M20</f>
-        <v>0.46873347868602599</v>
+        <v>0.391291122799521</v>
       </c>
       <c r="J21" s="1">
         <f>[3]results_deepgar_Estonia!M20</f>
-        <v>0.16057991999999999</v>
+        <v>5.4929949999999998E-2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -6443,39 +6099,39 @@
       </c>
       <c r="B22" s="1">
         <f>[3]results_deepgar_Estonia!B21</f>
-        <v>1.02530100023447</v>
+        <v>1.025301</v>
       </c>
       <c r="C22" s="1">
         <f>[4]results_benchmark_Estonia!C21</f>
-        <v>0.93246448884230404</v>
+        <v>1.75063144579116</v>
       </c>
       <c r="D22" s="1">
         <f>[3]results_deepgar_Estonia!C21</f>
-        <v>1.6342584</v>
+        <v>1.762186</v>
       </c>
       <c r="E22" s="1">
         <f>[4]results_benchmark_Estonia!D21</f>
-        <v>9.2836511392165894E-2</v>
+        <v>0.72533044579116102</v>
       </c>
       <c r="F22" s="1">
         <f>[3]results_deepgar_Estonia!D21</f>
-        <v>0.60895738923849096</v>
+        <v>0.73688505041503904</v>
       </c>
       <c r="G22" s="1">
         <f>[4]results_benchmark_Estonia!L21</f>
-        <v>0.59201916920321895</v>
+        <v>0.74132359955012295</v>
       </c>
       <c r="H22" s="1">
         <f>[3]results_deepgar_Estonia!L21</f>
-        <v>0.7050246</v>
+        <v>0.68694067000000003</v>
       </c>
       <c r="I22" s="1">
         <f>[4]results_benchmark_Estonia!M21</f>
-        <v>0.476087709340487</v>
+        <v>0.15529141994054299</v>
       </c>
       <c r="J22" s="1">
         <f>[3]results_deepgar_Estonia!M21</f>
-        <v>0.22679247999999999</v>
+        <v>0.13939009999999999</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -6484,39 +6140,39 @@
       </c>
       <c r="B23" s="1">
         <f>[3]results_deepgar_Estonia!B22</f>
-        <v>1.76646203347234</v>
+        <v>1.766462</v>
       </c>
       <c r="C23" s="1">
         <f>[4]results_benchmark_Estonia!C22</f>
-        <v>1.68648363599055</v>
+        <v>1.1079757281307401</v>
       </c>
       <c r="D23" s="1">
         <f>[3]results_deepgar_Estonia!C22</f>
-        <v>1.1745954000000001</v>
+        <v>1.0438993000000001</v>
       </c>
       <c r="E23" s="1">
         <f>[4]results_benchmark_Estonia!D22</f>
-        <v>7.9978397481789101E-2</v>
+        <v>0.65848627186925501</v>
       </c>
       <c r="F23" s="1">
         <f>[3]results_deepgar_Estonia!D22</f>
-        <v>0.59186667748479105</v>
+        <v>0.72256270228576602</v>
       </c>
       <c r="G23" s="1">
         <f>[4]results_benchmark_Estonia!L22</f>
-        <v>1.1086920447264501</v>
+        <v>0.62205417914093297</v>
       </c>
       <c r="H23" s="1">
         <f>[3]results_deepgar_Estonia!L22</f>
-        <v>0.61159699999999995</v>
+        <v>0.53732179999999996</v>
       </c>
       <c r="I23" s="1">
         <f>[4]results_benchmark_Estonia!M22</f>
-        <v>0.184884546303383</v>
+        <v>0.40794802421646698</v>
       </c>
       <c r="J23" s="1">
         <f>[3]results_deepgar_Estonia!M22</f>
-        <v>0.38585454000000002</v>
+        <v>0.44281542000000002</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -6537,10 +6193,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C63BAF-765D-7945-A5B9-9755B6ED8F48}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J23"/>
+      <selection activeCell="B3" sqref="B3:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6602,863 +6258,740 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <f>[5]results_benchmark_Lithuania!B2</f>
-        <v>1.2242718446601799</v>
+        <v>1.036133</v>
       </c>
       <c r="C3" s="1">
         <f>[5]results_benchmark_Lithuania!C2</f>
-        <v>1.0645761605806501</v>
+        <v>1.04163544906804</v>
       </c>
       <c r="D3" s="1">
         <f>[6]results_deepgar_Lithuania!C2</f>
-        <v>1.4434819999999999</v>
+        <v>1.2400675999999999</v>
       </c>
       <c r="E3" s="1">
         <f>[5]results_benchmark_Lithuania!D2</f>
-        <v>0.159695684079529</v>
+        <v>5.5024490680493001E-3</v>
       </c>
       <c r="F3" s="1">
         <f>[6]results_deepgar_Lithuania!D2</f>
-        <v>0.21921019669876701</v>
+        <v>0.20393460120391799</v>
       </c>
       <c r="G3" s="1">
         <f>[5]results_benchmark_Lithuania!L2</f>
-        <v>0.87027677799496905</v>
+        <v>0.97642368759311204</v>
       </c>
       <c r="H3" s="1">
         <f>[6]results_deepgar_Lithuania!L2</f>
-        <v>1.0068923999999999</v>
+        <v>1.360231</v>
       </c>
       <c r="I3" s="1">
         <f>[5]results_benchmark_Lithuania!M2</f>
-        <v>0.48358471034110001</v>
+        <v>0.41575798298683497</v>
       </c>
       <c r="J3" s="1">
         <f>[6]results_deepgar_Lithuania!M2</f>
-        <v>0.30225806999999999</v>
+        <v>0.25985311999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <f>[5]results_benchmark_Lithuania!B3</f>
-        <v>1.1480802984817</v>
+        <v>0.8970863</v>
       </c>
       <c r="C4" s="1">
         <f>[5]results_benchmark_Lithuania!C3</f>
-        <v>1.1601251379739099</v>
+        <v>1.08317727887675</v>
       </c>
       <c r="D4" s="1">
         <f>[6]results_deepgar_Lithuania!C3</f>
-        <v>1.1866346999999999</v>
+        <v>1.1346457000000001</v>
       </c>
       <c r="E4" s="1">
         <f>[5]results_benchmark_Lithuania!D3</f>
-        <v>1.2044839492218301E-2</v>
+        <v>0.18609097887675</v>
       </c>
       <c r="F4" s="1">
         <f>[6]results_deepgar_Lithuania!D3</f>
-        <v>3.8554361285450797E-2</v>
+        <v>0.23755940045471099</v>
       </c>
       <c r="G4" s="1">
         <f>[5]results_benchmark_Lithuania!L3</f>
-        <v>0.84347069203965697</v>
+        <v>0.98265245777107801</v>
       </c>
       <c r="H4" s="1">
         <f>[6]results_deepgar_Lithuania!L3</f>
-        <v>0.72442689999999998</v>
+        <v>0.93085949999999995</v>
       </c>
       <c r="I4" s="1">
         <f>[5]results_benchmark_Lithuania!M3</f>
-        <v>0.44560448668553498</v>
+        <v>0.396699197680562</v>
       </c>
       <c r="J4" s="1">
         <f>[6]results_deepgar_Lithuania!M3</f>
-        <v>0.44480380000000003</v>
+        <v>0.37304989999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <f>[5]results_benchmark_Lithuania!B4</f>
-        <v>0.85247207419067905</v>
+        <v>0.85498459999999998</v>
       </c>
       <c r="C5" s="1">
         <f>[5]results_benchmark_Lithuania!C4</f>
-        <v>1.14209579357559</v>
+        <v>1.39920542306266</v>
       </c>
       <c r="D5" s="1">
         <f>[6]results_deepgar_Lithuania!C4</f>
-        <v>1.1881685</v>
+        <v>1.1940713999999999</v>
       </c>
       <c r="E5" s="1">
         <f>[5]results_benchmark_Lithuania!D4</f>
-        <v>0.28962371938491399</v>
+        <v>0.54422082306266295</v>
       </c>
       <c r="F5" s="1">
         <f>[6]results_deepgar_Lithuania!D4</f>
-        <v>0.33569645150512001</v>
+        <v>0.339086812086486</v>
       </c>
       <c r="G5" s="1">
         <f>[5]results_benchmark_Lithuania!L4</f>
-        <v>0.86846319958278895</v>
+        <v>0.71420431504650905</v>
       </c>
       <c r="H5" s="1">
         <f>[6]results_deepgar_Lithuania!L4</f>
-        <v>0.67819870000000004</v>
+        <v>0.86131829999999998</v>
       </c>
       <c r="I5" s="1">
         <f>[5]results_benchmark_Lithuania!M4</f>
-        <v>0.45254422737993599</v>
+        <v>0.27982241434946598</v>
       </c>
       <c r="J5" s="1">
         <f>[6]results_deepgar_Lithuania!M4</f>
-        <v>0.44356000000000001</v>
+        <v>0.34469031999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <f>[5]results_benchmark_Lithuania!B5</f>
-        <v>1.03613302368439</v>
+        <v>1.2053041</v>
       </c>
       <c r="C6" s="1">
         <f>[5]results_benchmark_Lithuania!C5</f>
-        <v>0.87643009138911798</v>
+        <v>0.91456707123824998</v>
       </c>
       <c r="D6" s="1">
         <f>[6]results_deepgar_Lithuania!C5</f>
-        <v>1.3607726</v>
+        <v>1.1388136</v>
       </c>
       <c r="E6" s="1">
         <f>[5]results_benchmark_Lithuania!D5</f>
-        <v>0.15970293229527099</v>
+        <v>0.29073702876174901</v>
       </c>
       <c r="F6" s="1">
         <f>[6]results_deepgar_Lithuania!D5</f>
-        <v>0.324639586026303</v>
+        <v>6.6490485154724097E-2</v>
       </c>
       <c r="G6" s="1">
         <f>[5]results_benchmark_Lithuania!L5</f>
-        <v>0.83201135749536104</v>
+        <v>0.81783472879894004</v>
       </c>
       <c r="H6" s="1">
         <f>[6]results_deepgar_Lithuania!L5</f>
-        <v>1.0080674999999999</v>
+        <v>1.2924310999999999</v>
       </c>
       <c r="I6" s="1">
         <f>[5]results_benchmark_Lithuania!M5</f>
-        <v>0.56205011589054199</v>
+        <v>0.47545864511837099</v>
       </c>
       <c r="J6" s="1">
         <f>[6]results_deepgar_Lithuania!M5</f>
-        <v>0.32617676000000001</v>
+        <v>0.33008720000000003</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <f>[5]results_benchmark_Lithuania!B6</f>
-        <v>0.89708633060050003</v>
+        <v>0.86655579999999999</v>
       </c>
       <c r="C7" s="1">
         <f>[5]results_benchmark_Lithuania!C6</f>
-        <v>1.1336714709826901</v>
+        <v>1.1356572226141499</v>
       </c>
       <c r="D7" s="1">
         <f>[6]results_deepgar_Lithuania!C6</f>
-        <v>1.2347466</v>
+        <v>1.2570182999999999</v>
       </c>
       <c r="E7" s="1">
         <f>[5]results_benchmark_Lithuania!D6</f>
-        <v>0.23658514038219899</v>
+        <v>0.26910142261415798</v>
       </c>
       <c r="F7" s="1">
         <f>[6]results_deepgar_Lithuania!D6</f>
-        <v>0.33766024475502898</v>
+        <v>0.39046252771301199</v>
       </c>
       <c r="G7" s="1">
         <f>[5]results_benchmark_Lithuania!L6</f>
-        <v>0.88257142326396698</v>
+        <v>0.96442104876328005</v>
       </c>
       <c r="H7" s="1">
         <f>[6]results_deepgar_Lithuania!L6</f>
-        <v>0.70969605000000002</v>
+        <v>0.89589909999999995</v>
       </c>
       <c r="I7" s="1">
         <f>[5]results_benchmark_Lithuania!M6</f>
-        <v>0.45500588043893397</v>
+        <v>0.37383622486752499</v>
       </c>
       <c r="J7" s="1">
         <f>[6]results_deepgar_Lithuania!M6</f>
-        <v>0.42453154999999998</v>
+        <v>0.30512869999999997</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <f>[5]results_benchmark_Lithuania!B7</f>
-        <v>0.85498464347970005</v>
+        <v>1.2837395999999901</v>
       </c>
       <c r="C8" s="1">
         <f>[5]results_benchmark_Lithuania!C7</f>
-        <v>1.52717075289062</v>
+        <v>1.00375951033932</v>
       </c>
       <c r="D8" s="1">
         <f>[6]results_deepgar_Lithuania!C7</f>
-        <v>1.3938699000000001</v>
+        <v>1.0540243</v>
       </c>
       <c r="E8" s="1">
         <f>[5]results_benchmark_Lithuania!D7</f>
-        <v>0.67218610941092705</v>
+        <v>0.279980089660676</v>
       </c>
       <c r="F8" s="1">
         <f>[6]results_deepgar_Lithuania!D7</f>
-        <v>0.538885233381872</v>
+        <v>0.22971526127777001</v>
       </c>
       <c r="G8" s="1">
         <f>[5]results_benchmark_Lithuania!L7</f>
-        <v>0.61229096560969198</v>
+        <v>0.85899161324638995</v>
       </c>
       <c r="H8" s="1">
         <f>[6]results_deepgar_Lithuania!L7</f>
-        <v>0.64113295000000003</v>
+        <v>0.9557795</v>
       </c>
       <c r="I8" s="1">
         <f>[5]results_benchmark_Lithuania!M7</f>
-        <v>0.309383193395322</v>
+        <v>0.43368422127953499</v>
       </c>
       <c r="J8" s="1">
         <f>[6]results_deepgar_Lithuania!M7</f>
-        <v>0.37959290000000001</v>
+        <v>0.40941040000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <f>[5]results_benchmark_Lithuania!B8</f>
-        <v>1.20530406950161</v>
+        <v>1.402795</v>
       </c>
       <c r="C9" s="1">
         <f>[5]results_benchmark_Lithuania!C8</f>
-        <v>0.90326323332056901</v>
+        <v>1.0688372400036901</v>
       </c>
       <c r="D9" s="1">
         <f>[6]results_deepgar_Lithuania!C8</f>
-        <v>1.3194155000000001</v>
+        <v>1.1436356999999999</v>
       </c>
       <c r="E9" s="1">
         <f>[5]results_benchmark_Lithuania!D8</f>
-        <v>0.30204083618104</v>
+        <v>0.33395775999630101</v>
       </c>
       <c r="F9" s="1">
         <f>[6]results_deepgar_Lithuania!D8</f>
-        <v>0.11411138059452</v>
+        <v>0.25915925018310498</v>
       </c>
       <c r="G9" s="1">
         <f>[5]results_benchmark_Lithuania!L8</f>
-        <v>0.779286796016604</v>
+        <v>0.78329736237550296</v>
       </c>
       <c r="H9" s="1">
         <f>[6]results_deepgar_Lithuania!L8</f>
-        <v>1.0178102</v>
+        <v>0.91491999999999996</v>
       </c>
       <c r="I9" s="1">
         <f>[5]results_benchmark_Lithuania!M8</f>
-        <v>0.55093534885322104</v>
+        <v>0.40830912646185002</v>
       </c>
       <c r="J9" s="1">
         <f>[6]results_deepgar_Lithuania!M8</f>
-        <v>0.35937544999999999</v>
+        <v>0.37426922000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <f>[5]results_benchmark_Lithuania!B9</f>
-        <v>0.86655582462860004</v>
+        <v>1.1810267999999999</v>
       </c>
       <c r="C10" s="1">
         <f>[5]results_benchmark_Lithuania!C9</f>
-        <v>0.96419747437571102</v>
+        <v>0.95416017006369802</v>
       </c>
       <c r="D10" s="1">
         <f>[6]results_deepgar_Lithuania!C9</f>
-        <v>1.2660834000000001</v>
+        <v>1.1390212</v>
       </c>
       <c r="E10" s="1">
         <f>[5]results_benchmark_Lithuania!D9</f>
-        <v>9.76416497471118E-2</v>
+        <v>0.22686662993630199</v>
       </c>
       <c r="F10" s="1">
         <f>[6]results_deepgar_Lithuania!D9</f>
-        <v>0.399527535089722</v>
+        <v>4.2005641781616303E-2</v>
       </c>
       <c r="G10" s="1">
         <f>[5]results_benchmark_Lithuania!L9</f>
-        <v>0.83536114711950804</v>
+        <v>0.74300369040955905</v>
       </c>
       <c r="H10" s="1">
         <f>[6]results_deepgar_Lithuania!L9</f>
-        <v>0.78063004999999996</v>
+        <v>1.1498344</v>
       </c>
       <c r="I10" s="1">
         <f>[5]results_benchmark_Lithuania!M9</f>
-        <v>0.524327851266296</v>
+        <v>0.462301692515389</v>
       </c>
       <c r="J10" s="1">
         <f>[6]results_deepgar_Lithuania!M9</f>
-        <v>0.39535427000000001</v>
+        <v>0.35245278000000002</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
         <f>[5]results_benchmark_Lithuania!B10</f>
-        <v>1.2837395970509</v>
+        <v>0.39741379999999998</v>
       </c>
       <c r="C11" s="1">
         <f>[5]results_benchmark_Lithuania!C10</f>
-        <v>1.1726986214745401</v>
+        <v>0.69811592156631497</v>
       </c>
       <c r="D11" s="1">
         <f>[6]results_deepgar_Lithuania!C10</f>
-        <v>1.2075438000000001</v>
+        <v>0.83743299999999998</v>
       </c>
       <c r="E11" s="1">
         <f>[5]results_benchmark_Lithuania!D10</f>
-        <v>0.111040975576356</v>
+        <v>0.30070212156631498</v>
       </c>
       <c r="F11" s="1">
         <f>[6]results_deepgar_Lithuania!D10</f>
-        <v>7.6195747105831602E-2</v>
+        <v>0.44001918053741401</v>
       </c>
       <c r="G11" s="1">
         <f>[5]results_benchmark_Lithuania!L10</f>
-        <v>0.89183286740380197</v>
+        <v>1.06124293541515</v>
       </c>
       <c r="H11" s="1">
         <f>[6]results_deepgar_Lithuania!L10</f>
-        <v>0.72224074999999999</v>
+        <v>0.96437349999999999</v>
       </c>
       <c r="I11" s="1">
         <f>[5]results_benchmark_Lithuania!M10</f>
-        <v>0.43707865093724702</v>
+        <v>0.56455076605936505</v>
       </c>
       <c r="J11" s="1">
         <f>[6]results_deepgar_Lithuania!M10</f>
-        <v>0.43736392000000002</v>
+        <v>0.51436369999999998</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
         <f>[5]results_benchmark_Lithuania!B11</f>
-        <v>1.40279497611888</v>
+        <v>1.2897021</v>
       </c>
       <c r="C12" s="1">
         <f>[5]results_benchmark_Lithuania!C11</f>
-        <v>1.1302784346750301</v>
+        <v>0.86995570222349095</v>
       </c>
       <c r="D12" s="1">
         <f>[6]results_deepgar_Lithuania!C11</f>
-        <v>1.1837888999999999</v>
+        <v>0.90062370000000003</v>
       </c>
       <c r="E12" s="1">
         <f>[5]results_benchmark_Lithuania!D11</f>
-        <v>0.27251654144384002</v>
+        <v>0.41974639777650802</v>
       </c>
       <c r="F12" s="1">
         <f>[6]results_deepgar_Lithuania!D11</f>
-        <v>0.219006080511885</v>
+        <v>0.38907842083892802</v>
       </c>
       <c r="G12" s="1">
         <f>[5]results_benchmark_Lithuania!L11</f>
-        <v>0.758287311655365</v>
+        <v>0.81310757963263003</v>
       </c>
       <c r="H12" s="1">
         <f>[6]results_deepgar_Lithuania!L11</f>
-        <v>0.73713379999999995</v>
+        <v>0.87276964999999995</v>
       </c>
       <c r="I12" s="1">
         <f>[5]results_benchmark_Lithuania!M11</f>
-        <v>0.45859196449960099</v>
+        <v>0.494511031399958</v>
       </c>
       <c r="J12" s="1">
         <f>[6]results_deepgar_Lithuania!M11</f>
-        <v>0.44439430000000002</v>
+        <v>0.47962025000000003</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1">
         <f>[5]results_benchmark_Lithuania!B12</f>
-        <v>1.18102681297209</v>
+        <v>0.73158529999999999</v>
       </c>
       <c r="C13" s="1">
         <f>[5]results_benchmark_Lithuania!C12</f>
-        <v>1.30070870091476</v>
+        <v>0.92254774111350502</v>
       </c>
       <c r="D13" s="1">
         <f>[6]results_deepgar_Lithuania!C12</f>
-        <v>1.3585160000000001</v>
+        <v>1.0874820999999999</v>
       </c>
       <c r="E13" s="1">
         <f>[5]results_benchmark_Lithuania!D12</f>
-        <v>0.119681887942673</v>
+        <v>0.19096244111350499</v>
       </c>
       <c r="F13" s="1">
         <f>[6]results_deepgar_Lithuania!D12</f>
-        <v>0.17748916488740701</v>
+        <v>0.35589679476470898</v>
       </c>
       <c r="G13" s="1">
         <f>[5]results_benchmark_Lithuania!L12</f>
-        <v>0.86137955028469804</v>
+        <v>0.88172296208474399</v>
       </c>
       <c r="H13" s="1">
         <f>[6]results_deepgar_Lithuania!L12</f>
-        <v>0.73417909999999997</v>
+        <v>0.94584259999999998</v>
       </c>
       <c r="I13" s="1">
         <f>[5]results_benchmark_Lithuania!M12</f>
-        <v>0.38711035550752398</v>
+        <v>0.47468880870189401</v>
       </c>
       <c r="J13" s="1">
         <f>[6]results_deepgar_Lithuania!M12</f>
-        <v>0.38354355000000001</v>
+        <v>0.37962222000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
         <f>[5]results_benchmark_Lithuania!B13</f>
-        <v>0.39741379310344999</v>
+        <v>-5.8640365000000001</v>
       </c>
       <c r="C14" s="1">
         <f>[5]results_benchmark_Lithuania!C13</f>
-        <v>1.1352338864037601</v>
+        <v>1.50549115723255</v>
       </c>
       <c r="D14" s="1">
         <f>[6]results_deepgar_Lithuania!C13</f>
-        <v>1.2848953999999999</v>
+        <v>-5.6037860000000004</v>
       </c>
       <c r="E14" s="1">
         <f>[5]results_benchmark_Lithuania!D13</f>
-        <v>0.73782009330031195</v>
+        <v>7.3695276572325499</v>
       </c>
       <c r="F14" s="1">
         <f>[6]results_deepgar_Lithuania!D13</f>
-        <v>0.88748162697101196</v>
+        <v>0.26025050833129798</v>
       </c>
       <c r="G14" s="1">
         <f>[5]results_benchmark_Lithuania!L13</f>
-        <v>0.71262802423261895</v>
+        <v>6.9375372067493897E-4</v>
       </c>
       <c r="H14" s="1">
         <f>[6]results_deepgar_Lithuania!L13</f>
-        <v>0.50270190000000003</v>
+        <v>0.15216133000000001</v>
       </c>
       <c r="I14" s="1">
         <f>[5]results_benchmark_Lithuania!M13</f>
-        <v>0.45520557543490098</v>
+        <v>0.163389165882905</v>
       </c>
       <c r="J14" s="1">
         <f>[6]results_deepgar_Lithuania!M13</f>
-        <v>0.40284969999999998</v>
+        <v>0.95939695999999997</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1">
         <f>[5]results_benchmark_Lithuania!B14</f>
-        <v>1.2897021320441999</v>
+        <v>3.8817072000000001</v>
       </c>
       <c r="C15" s="1">
         <f>[5]results_benchmark_Lithuania!C14</f>
-        <v>0.79577463194835996</v>
+        <v>-0.78496948923338705</v>
       </c>
       <c r="D15" s="1">
         <f>[6]results_deepgar_Lithuania!C14</f>
-        <v>0.99345773000000004</v>
+        <v>-0.61204829999999999</v>
       </c>
       <c r="E15" s="1">
         <f>[5]results_benchmark_Lithuania!D14</f>
-        <v>0.49392750009583902</v>
+        <v>4.6666766892333804</v>
       </c>
       <c r="F15" s="1">
         <f>[6]results_deepgar_Lithuania!D14</f>
-        <v>0.29624439745939102</v>
+        <v>4.4937555279228203</v>
       </c>
       <c r="G15" s="1">
         <f>[5]results_benchmark_Lithuania!L14</f>
-        <v>0.71902069350926601</v>
+        <v>5.0685733716895601E-80</v>
       </c>
       <c r="H15" s="1">
         <f>[6]results_deepgar_Lithuania!L14</f>
-        <v>0.8193492</v>
+        <v>1.6135692999999999E-6</v>
       </c>
       <c r="I15" s="1">
         <f>[5]results_benchmark_Lithuania!M14</f>
-        <v>0.59548785821873396</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
         <f>[6]results_deepgar_Lithuania!M14</f>
-        <v>0.51349400000000001</v>
+        <v>0.99126590000000003</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1">
         <f>[5]results_benchmark_Lithuania!B15</f>
-        <v>0.73158532760271</v>
+        <v>1.5550774999999999</v>
       </c>
       <c r="C16" s="1">
         <f>[5]results_benchmark_Lithuania!C15</f>
-        <v>1.8390654179711501</v>
+        <v>1.1567180734686999</v>
       </c>
       <c r="D16" s="1">
         <f>[6]results_deepgar_Lithuania!C15</f>
-        <v>1.5513382</v>
+        <v>1.2989390000000001</v>
       </c>
       <c r="E16" s="1">
         <f>[5]results_benchmark_Lithuania!D15</f>
-        <v>1.1074800903684401</v>
+        <v>0.39835942653129303</v>
       </c>
       <c r="F16" s="1">
         <f>[6]results_deepgar_Lithuania!D15</f>
-        <v>0.81975286819807103</v>
+        <v>0.256138510360717</v>
       </c>
       <c r="G16" s="1">
         <f>[5]results_benchmark_Lithuania!L15</f>
-        <v>0.43901600027235799</v>
+        <v>0.610731195978513</v>
       </c>
       <c r="H16" s="1">
         <f>[6]results_deepgar_Lithuania!L15</f>
-        <v>0.57450646000000005</v>
+        <v>1.2419411</v>
       </c>
       <c r="I16" s="1">
         <f>[5]results_benchmark_Lithuania!M15</f>
-        <v>0.21424324260899</v>
+        <v>0.37174622063131102</v>
       </c>
       <c r="J16" s="1">
         <f>[6]results_deepgar_Lithuania!M15</f>
-        <v>0.34043780000000001</v>
+        <v>0.12617296</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <f>[5]results_benchmark_Lithuania!B16</f>
-        <v>-5.8640364903303803</v>
+        <v>1.7075258</v>
       </c>
       <c r="C17" s="1">
         <f>[5]results_benchmark_Lithuania!C16</f>
-        <v>1.3407847535123401</v>
+        <v>1.5664540726796099</v>
       </c>
       <c r="D17" s="1">
         <f>[6]results_deepgar_Lithuania!C16</f>
-        <v>-5.6402169999999998</v>
+        <v>1.6815485999999999</v>
       </c>
       <c r="E17" s="1">
         <f>[5]results_benchmark_Lithuania!D16</f>
-        <v>7.2048212438427299</v>
+        <v>0.141071727320387</v>
       </c>
       <c r="F17" s="1">
         <f>[6]results_deepgar_Lithuania!D16</f>
-        <v>0.223819662937811</v>
+        <v>2.5977204571533099E-2</v>
       </c>
       <c r="G17" s="1">
         <f>[5]results_benchmark_Lithuania!L16</f>
-        <v>2.9496379409838002E-4</v>
+        <v>1.0092332449828501</v>
       </c>
       <c r="H17" s="1">
         <f>[6]results_deepgar_Lithuania!L16</f>
-        <v>0.16573067999999999</v>
+        <v>1.7093929999999999</v>
       </c>
       <c r="I17" s="1">
         <f>[5]results_benchmark_Lithuania!M16</f>
-        <v>0.37069833902188198</v>
+        <v>0.23876979349174601</v>
       </c>
       <c r="J17" s="1">
         <f>[6]results_deepgar_Lithuania!M16</f>
-        <v>0.98961747</v>
+        <v>8.2172415999999998E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <f>[5]results_benchmark_Lithuania!B17</f>
-        <v>3.8817071644406198</v>
+        <v>1.2022796</v>
       </c>
       <c r="C18" s="1">
         <f>[5]results_benchmark_Lithuania!C17</f>
-        <v>-1.2305531999700701</v>
+        <v>1.3397505490405199</v>
       </c>
       <c r="D18" s="1">
         <f>[6]results_deepgar_Lithuania!C17</f>
-        <v>0.13442942999999999</v>
+        <v>2.0400596000000002</v>
       </c>
       <c r="E18" s="1">
         <f>[5]results_benchmark_Lithuania!D17</f>
-        <v>5.1122603644106901</v>
+        <v>0.13747094904052801</v>
       </c>
       <c r="F18" s="1">
         <f>[6]results_deepgar_Lithuania!D17</f>
-        <v>3.7472777394394701</v>
+        <v>0.83777996649780195</v>
       </c>
       <c r="G18" s="1">
         <f>[5]results_benchmark_Lithuania!L17</f>
-        <v>2.40151857237634E-48</v>
+        <v>1.13172954581734</v>
       </c>
       <c r="H18" s="1">
         <f>[6]results_deepgar_Lithuania!L17</f>
-        <v>1.4336493E-5</v>
+        <v>6.8045149999999999E-2</v>
       </c>
       <c r="I18" s="1">
         <f>[5]results_benchmark_Lithuania!M17</f>
-        <v>1</v>
+        <v>0.25918476638976201</v>
       </c>
       <c r="J18" s="1">
         <f>[6]results_deepgar_Lithuania!M17</f>
-        <v>0.96011316999999996</v>
+        <v>1.9074694000000001E-3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
         <f>[5]results_benchmark_Lithuania!B18</f>
-        <v>1.5550774526678</v>
+        <v>0.72037209999999996</v>
       </c>
       <c r="C19" s="1">
         <f>[5]results_benchmark_Lithuania!C18</f>
-        <v>1.7741415906900799</v>
+        <v>0.85198792310788596</v>
       </c>
       <c r="D19" s="1">
         <f>[6]results_deepgar_Lithuania!C18</f>
-        <v>2.0735160000000001</v>
+        <v>0.95852894</v>
       </c>
       <c r="E19" s="1">
         <f>[5]results_benchmark_Lithuania!D18</f>
-        <v>0.219064138022282</v>
+        <v>0.131615823107886</v>
       </c>
       <c r="F19" s="1">
         <f>[6]results_deepgar_Lithuania!D18</f>
-        <v>0.51843843936100797</v>
+        <v>0.238156835909271</v>
       </c>
       <c r="G19" s="1">
         <f>[5]results_benchmark_Lithuania!L18</f>
-        <v>0.70043293604640799</v>
+        <v>0.91882296424158005</v>
       </c>
       <c r="H19" s="1">
         <f>[6]results_deepgar_Lithuania!L18</f>
-        <v>0.89700663000000003</v>
+        <v>0.97983354</v>
       </c>
       <c r="I19" s="1">
         <f>[5]results_benchmark_Lithuania!M18</f>
-        <v>0.24299247882977901</v>
+        <v>0.50246145706502598</v>
       </c>
       <c r="J19" s="1">
         <f>[6]results_deepgar_Lithuania!M18</f>
-        <v>8.8829240000000004E-2</v>
+        <v>0.44936955000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1">
         <f>[5]results_benchmark_Lithuania!B19</f>
-        <v>1.70752582473919</v>
+        <v>1.2538825999999901</v>
       </c>
       <c r="C20" s="1">
         <f>[5]results_benchmark_Lithuania!C19</f>
-        <v>1.1350083907424</v>
+        <v>1.0867780789803501</v>
       </c>
       <c r="D20" s="1">
         <f>[6]results_deepgar_Lithuania!C19</f>
-        <v>1.5591097</v>
+        <v>1.2734426999999999</v>
       </c>
       <c r="E20" s="1">
         <f>[5]results_benchmark_Lithuania!D19</f>
-        <v>0.572517433996798</v>
+        <v>0.16710452101964299</v>
       </c>
       <c r="F20" s="1">
         <f>[6]results_deepgar_Lithuania!D19</f>
-        <v>0.148416136934024</v>
+        <v>1.95601452087403E-2</v>
       </c>
       <c r="G20" s="1">
         <f>[5]results_benchmark_Lithuania!L19</f>
-        <v>0.64742484653096599</v>
+        <v>0.294003294627735</v>
       </c>
       <c r="H20" s="1">
         <f>[6]results_deepgar_Lithuania!L19</f>
-        <v>0.94023199999999996</v>
+        <v>8.4975719999999999</v>
       </c>
       <c r="I20" s="1">
         <f>[5]results_benchmark_Lithuania!M19</f>
-        <v>0.45609691989883</v>
+        <v>0.46739022829566801</v>
       </c>
       <c r="J20" s="1">
         <f>[6]results_deepgar_Lithuania!M19</f>
-        <v>0.24146889999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1">
-        <f>[5]results_benchmark_Lithuania!B20</f>
-        <v>1.2022795820766099</v>
-      </c>
-      <c r="C21" s="1">
-        <f>[5]results_benchmark_Lithuania!C20</f>
-        <v>0.90318003514053902</v>
-      </c>
-      <c r="D21" s="1">
-        <f>[6]results_deepgar_Lithuania!C20</f>
-        <v>1.5266535999999999</v>
-      </c>
-      <c r="E21" s="1">
-        <f>[5]results_benchmark_Lithuania!D20</f>
-        <v>0.29909954693606999</v>
-      </c>
-      <c r="F21" s="1">
-        <f>[6]results_deepgar_Lithuania!D20</f>
-        <v>0.32437406534618002</v>
-      </c>
-      <c r="G21" s="1">
-        <f>[5]results_benchmark_Lithuania!L20</f>
-        <v>0.69832268629209604</v>
-      </c>
-      <c r="H21" s="1">
-        <f>[6]results_deepgar_Lithuania!L20</f>
-        <v>1.3451945000000001</v>
-      </c>
-      <c r="I21" s="1">
-        <f>[5]results_benchmark_Lithuania!M20</f>
-        <v>0.54613815214839601</v>
-      </c>
-      <c r="J21" s="1">
-        <f>[6]results_deepgar_Lithuania!M20</f>
-        <v>0.16112035999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1">
-        <f>[5]results_benchmark_Lithuania!B21</f>
-        <v>0.72037212365702996</v>
-      </c>
-      <c r="C22" s="1">
-        <f>[5]results_benchmark_Lithuania!C21</f>
-        <v>1.08344731178144</v>
-      </c>
-      <c r="D22" s="1">
-        <f>[6]results_deepgar_Lithuania!C21</f>
-        <v>1.0241123000000001</v>
-      </c>
-      <c r="E22" s="1">
-        <f>[5]results_benchmark_Lithuania!D21</f>
-        <v>0.36307518812441197</v>
-      </c>
-      <c r="F22" s="1">
-        <f>[6]results_deepgar_Lithuania!D21</f>
-        <v>0.30374022013111601</v>
-      </c>
-      <c r="G22" s="1">
-        <f>[5]results_benchmark_Lithuania!L21</f>
-        <v>0.85512069048633099</v>
-      </c>
-      <c r="H22" s="1">
-        <f>[6]results_deepgar_Lithuania!L21</f>
-        <v>0.63446340000000001</v>
-      </c>
-      <c r="I22" s="1">
-        <f>[5]results_benchmark_Lithuania!M21</f>
-        <v>0.47769068011857502</v>
-      </c>
-      <c r="J22" s="1">
-        <f>[6]results_deepgar_Lithuania!M21</f>
-        <v>0.50097170000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1">
-        <f>[5]results_benchmark_Lithuania!B22</f>
-        <v>1.2538826222004</v>
-      </c>
-      <c r="C23" s="1">
-        <f>[5]results_benchmark_Lithuania!C22</f>
-        <v>1.38775987706051</v>
-      </c>
-      <c r="D23" s="1">
-        <f>[6]results_deepgar_Lithuania!C22</f>
-        <v>1.3018145999999999</v>
-      </c>
-      <c r="E23" s="1">
-        <f>[5]results_benchmark_Lithuania!D22</f>
-        <v>0.13387725486011301</v>
-      </c>
-      <c r="F23" s="1">
-        <f>[6]results_deepgar_Lithuania!D22</f>
-        <v>4.7931933921426098E-2</v>
-      </c>
-      <c r="G23" s="1">
-        <f>[5]results_benchmark_Lithuania!L22</f>
-        <v>0.860707034212702</v>
-      </c>
-      <c r="H23" s="1">
-        <f>[6]results_deepgar_Lithuania!L22</f>
-        <v>0.69044702999999996</v>
-      </c>
-      <c r="I23" s="1">
-        <f>[5]results_benchmark_Lithuania!M22</f>
-        <v>0.35407522114815099</v>
-      </c>
-      <c r="J23" s="1">
-        <f>[6]results_deepgar_Lithuania!M22</f>
-        <v>0.40888216999999999</v>
+        <v>7.2112789999999996E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7471,7 +7004,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J23"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8403,10 +7936,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDD1369-D4E4-8343-B358-0A1F6A0C04C7}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G22"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8438,611 +7971,524 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <f>[1]results_deepgar_Bulgaria!I2</f>
-        <v>0.36399913</v>
+        <v>0.38355403999999998</v>
       </c>
       <c r="C2" s="1">
         <f>[1]results_deepgar_Bulgaria!J2</f>
-        <v>-6.1149765000000002E-2</v>
+        <v>-8.1533739999999993E-2</v>
       </c>
       <c r="D2" s="1">
         <f>[1]results_deepgar_Bulgaria!K2</f>
-        <v>1.5519860999999999</v>
+        <v>1.5822563000000001</v>
       </c>
       <c r="E2" s="1">
         <f>[1]results_deepgar_Bulgaria!E2</f>
-        <v>3.7783104999999997E-2</v>
+        <v>8.9529990000000004E-2</v>
       </c>
       <c r="F2" s="1">
         <f>[1]results_deepgar_Bulgaria!F2</f>
-        <v>1.2125988999999999</v>
+        <v>1.4140345000000001</v>
       </c>
       <c r="G2" s="1">
         <f>[1]results_deepgar_Bulgaria!G2</f>
-        <v>1.1748158</v>
+        <v>1.3245045</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <f>[1]results_deepgar_Bulgaria!I3</f>
-        <v>0.47513139999999998</v>
+        <v>0.42491030000000002</v>
       </c>
       <c r="C3" s="1">
         <f>[1]results_deepgar_Bulgaria!J3</f>
-        <v>-0.10543658</v>
+        <v>-0.13852069</v>
       </c>
       <c r="D3" s="1">
         <f>[1]results_deepgar_Bulgaria!K3</f>
-        <v>1.4283946000000001</v>
+        <v>1.5110633</v>
       </c>
       <c r="E3" s="1">
         <f>[1]results_deepgar_Bulgaria!E3</f>
-        <v>7.0753880000000005E-2</v>
+        <v>-0.14063086999999999</v>
       </c>
       <c r="F3" s="1">
         <f>[1]results_deepgar_Bulgaria!F3</f>
-        <v>1.6439980999999999</v>
+        <v>1.3629515999999999</v>
       </c>
       <c r="G3" s="1">
         <f>[1]results_deepgar_Bulgaria!G3</f>
-        <v>1.5732442</v>
+        <v>1.5035825</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <f>[1]results_deepgar_Bulgaria!I4</f>
-        <v>0.51049310000000003</v>
+        <v>0.46765125000000002</v>
       </c>
       <c r="C4" s="1">
         <f>[1]results_deepgar_Bulgaria!J4</f>
-        <v>-0.15692999999999999</v>
+        <v>-9.8198140000000003E-2</v>
       </c>
       <c r="D4" s="1">
         <f>[1]results_deepgar_Bulgaria!K4</f>
-        <v>1.3445784999999999</v>
+        <v>1.4839859</v>
       </c>
       <c r="E4" s="1">
         <f>[1]results_deepgar_Bulgaria!E4</f>
-        <v>-0.31091364999999999</v>
+        <v>-0.21177208</v>
       </c>
       <c r="F4" s="1">
         <f>[1]results_deepgar_Bulgaria!F4</f>
-        <v>1.4190803000000001</v>
+        <v>1.4314385999999999</v>
       </c>
       <c r="G4" s="1">
         <f>[1]results_deepgar_Bulgaria!G4</f>
-        <v>1.7299939</v>
+        <v>1.6432106</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <f>[1]results_deepgar_Bulgaria!I5</f>
-        <v>0.43705505</v>
+        <v>0.42555486999999997</v>
       </c>
       <c r="C5" s="1">
         <f>[1]results_deepgar_Bulgaria!J5</f>
-        <v>-6.896803E-2</v>
+        <v>-0.21420591999999999</v>
       </c>
       <c r="D5" s="1">
         <f>[1]results_deepgar_Bulgaria!K5</f>
-        <v>1.4732696999999999</v>
+        <v>1.4470961</v>
       </c>
       <c r="E5" s="1">
         <f>[1]results_deepgar_Bulgaria!E5</f>
-        <v>0.110183984</v>
+        <v>-0.36588502000000001</v>
       </c>
       <c r="F5" s="1">
         <f>[1]results_deepgar_Bulgaria!F5</f>
-        <v>1.5388012</v>
+        <v>1.1939964999999999</v>
       </c>
       <c r="G5" s="1">
         <f>[1]results_deepgar_Bulgaria!G5</f>
-        <v>1.4286171999999999</v>
+        <v>1.5598816</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <f>[1]results_deepgar_Bulgaria!I6</f>
-        <v>0.46814030000000001</v>
+        <v>0.44316410000000001</v>
       </c>
       <c r="C6" s="1">
         <f>[1]results_deepgar_Bulgaria!J6</f>
-        <v>-9.1312290000000004E-2</v>
+        <v>-0.27634399999999998</v>
       </c>
       <c r="D6" s="1">
         <f>[1]results_deepgar_Bulgaria!K6</f>
-        <v>1.4300721000000001</v>
+        <v>1.3306849000000001</v>
       </c>
       <c r="E6" s="1">
         <f>[1]results_deepgar_Bulgaria!E6</f>
-        <v>-7.4453649999999998E-3</v>
+        <v>-0.76370716000000005</v>
       </c>
       <c r="F6" s="1">
         <f>[1]results_deepgar_Bulgaria!F6</f>
-        <v>1.5379332999999999</v>
+        <v>0.92038363000000001</v>
       </c>
       <c r="G6" s="1">
         <f>[1]results_deepgar_Bulgaria!G6</f>
-        <v>1.5453787000000001</v>
+        <v>1.6840908999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <f>[1]results_deepgar_Bulgaria!I7</f>
-        <v>0.40581286</v>
+        <v>0.50736844999999997</v>
       </c>
       <c r="C7" s="1">
         <f>[1]results_deepgar_Bulgaria!J7</f>
-        <v>-6.8753436000000001E-2</v>
+        <v>-0.20654458000000001</v>
       </c>
       <c r="D7" s="1">
         <f>[1]results_deepgar_Bulgaria!K7</f>
-        <v>1.5092536999999999</v>
+        <v>1.3348088</v>
       </c>
       <c r="E7" s="1">
         <f>[1]results_deepgar_Bulgaria!E7</f>
-        <v>6.5444969999999998E-3</v>
+        <v>-0.6257663</v>
       </c>
       <c r="F7" s="1">
         <f>[1]results_deepgar_Bulgaria!F7</f>
-        <v>1.3260909000000001</v>
+        <v>1.2468106000000001</v>
       </c>
       <c r="G7" s="1">
         <f>[1]results_deepgar_Bulgaria!G7</f>
-        <v>1.3195465</v>
+        <v>1.8725768</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <f>[1]results_deepgar_Bulgaria!I8</f>
-        <v>0.51954730000000005</v>
+        <v>0.47923344000000001</v>
       </c>
       <c r="C8" s="1">
         <f>[1]results_deepgar_Bulgaria!J8</f>
-        <v>-0.15343270000000001</v>
+        <v>-0.21916527999999999</v>
       </c>
       <c r="D8" s="1">
         <f>[1]results_deepgar_Bulgaria!K8</f>
-        <v>1.3468792000000001</v>
+        <v>1.3273349999999999</v>
       </c>
       <c r="E8" s="1">
         <f>[1]results_deepgar_Bulgaria!E8</f>
-        <v>-0.21315282999999999</v>
+        <v>-0.72598169999999995</v>
       </c>
       <c r="F8" s="1">
         <f>[1]results_deepgar_Bulgaria!F8</f>
-        <v>1.545358</v>
+        <v>1.0521246</v>
       </c>
       <c r="G8" s="1">
         <f>[1]results_deepgar_Bulgaria!G8</f>
-        <v>1.7585108</v>
+        <v>1.7781062999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <f>[1]results_deepgar_Bulgaria!I9</f>
-        <v>0.58450294000000003</v>
+        <v>0.25975323</v>
       </c>
       <c r="C9" s="1">
         <f>[1]results_deepgar_Bulgaria!J9</f>
-        <v>-0.23274723999999999</v>
+        <v>0.33975798000000001</v>
       </c>
       <c r="D9" s="1">
         <f>[1]results_deepgar_Bulgaria!K9</f>
-        <v>1.2309709</v>
+        <v>2.172987</v>
       </c>
       <c r="E9" s="1">
         <f>[1]results_deepgar_Bulgaria!E9</f>
-        <v>-0.66568755999999996</v>
+        <v>3.4795866000000002</v>
       </c>
       <c r="F9" s="1">
         <f>[1]results_deepgar_Bulgaria!F9</f>
-        <v>1.3849678999999999</v>
+        <v>4.5185804000000003</v>
       </c>
       <c r="G9" s="1">
         <f>[1]results_deepgar_Bulgaria!G9</f>
-        <v>2.0506554000000001</v>
+        <v>1.0389938000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <f>[1]results_deepgar_Bulgaria!I10</f>
-        <v>0.55759099999999995</v>
+        <v>0.45174180000000003</v>
       </c>
       <c r="C10" s="1">
         <f>[1]results_deepgar_Bulgaria!J10</f>
-        <v>-0.19058512</v>
+        <v>-0.11069999</v>
       </c>
       <c r="D10" s="1">
         <f>[1]results_deepgar_Bulgaria!K10</f>
-        <v>1.2876763</v>
+        <v>1.4429471</v>
       </c>
       <c r="E10" s="1">
         <f>[1]results_deepgar_Bulgaria!E10</f>
-        <v>-0.48289530000000003</v>
+        <v>-0.53768813999999998</v>
       </c>
       <c r="F10" s="1">
         <f>[1]results_deepgar_Bulgaria!F10</f>
-        <v>1.4370797</v>
+        <v>1.0628850000000001</v>
       </c>
       <c r="G10" s="1">
         <f>[1]results_deepgar_Bulgaria!G10</f>
-        <v>1.919975</v>
+        <v>1.6005731999999999</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <f>[1]results_deepgar_Bulgaria!I11</f>
-        <v>0.58079700000000001</v>
+        <v>0.43254959999999998</v>
       </c>
       <c r="C11" s="1">
         <f>[1]results_deepgar_Bulgaria!J11</f>
-        <v>-0.26028190000000001</v>
+        <v>-0.17317149000000001</v>
       </c>
       <c r="D11" s="1">
         <f>[1]results_deepgar_Bulgaria!K11</f>
-        <v>1.2054986000000001</v>
+        <v>1.3942032</v>
       </c>
       <c r="E11" s="1">
         <f>[1]results_deepgar_Bulgaria!E11</f>
-        <v>-0.90024585000000001</v>
+        <v>-0.84675102999999996</v>
       </c>
       <c r="F11" s="1">
         <f>[1]results_deepgar_Bulgaria!F11</f>
-        <v>1.1609691</v>
+        <v>0.72216590000000003</v>
       </c>
       <c r="G11" s="1">
         <f>[1]results_deepgar_Bulgaria!G11</f>
-        <v>2.0612149999999998</v>
+        <v>1.5689169000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <f>[1]results_deepgar_Bulgaria!I12</f>
-        <v>0.12250352</v>
+        <v>0.49825191000000002</v>
       </c>
       <c r="C12" s="1">
         <f>[1]results_deepgar_Bulgaria!J12</f>
-        <v>0.36304140000000001</v>
+        <v>-0.16627650999999999</v>
       </c>
       <c r="D12" s="1">
         <f>[1]results_deepgar_Bulgaria!K12</f>
-        <v>2.4864619000000001</v>
+        <v>1.4281349000000001</v>
       </c>
       <c r="E12" s="1">
         <f>[1]results_deepgar_Bulgaria!E12</f>
-        <v>3.7070273999999999</v>
+        <v>-0.54617850000000001</v>
       </c>
       <c r="F12" s="1">
         <f>[1]results_deepgar_Bulgaria!F12</f>
-        <v>4.1920742999999998</v>
+        <v>1.2502626999999999</v>
       </c>
       <c r="G12" s="1">
         <f>[1]results_deepgar_Bulgaria!G12</f>
-        <v>0.48504686000000002</v>
+        <v>1.7964412999999999</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1">
         <f>[1]results_deepgar_Bulgaria!I13</f>
-        <v>0.48407483000000001</v>
+        <v>1.1792984</v>
       </c>
       <c r="C13" s="1">
         <f>[1]results_deepgar_Bulgaria!J13</f>
-        <v>-0.16051613000000001</v>
+        <v>-2.0262380000000002</v>
       </c>
       <c r="D13" s="1">
         <f>[1]results_deepgar_Bulgaria!K13</f>
-        <v>1.3320476999999999</v>
+        <v>0.13434660000000001</v>
       </c>
       <c r="E13" s="1">
         <f>[1]results_deepgar_Bulgaria!E13</f>
-        <v>-0.75558110000000001</v>
+        <v>-9.9439124999999997</v>
       </c>
       <c r="F13" s="1">
         <f>[1]results_deepgar_Bulgaria!F13</f>
-        <v>0.88884896000000002</v>
+        <v>-5.0729674999999999</v>
       </c>
       <c r="G13" s="1">
         <f>[1]results_deepgar_Bulgaria!G13</f>
-        <v>1.6444300000000001</v>
+        <v>4.8709449999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1">
         <f>[1]results_deepgar_Bulgaria!I14</f>
-        <v>0.5556297</v>
+        <v>0.3276502</v>
       </c>
       <c r="C14" s="1">
         <f>[1]results_deepgar_Bulgaria!J14</f>
-        <v>-0.13751362</v>
+        <v>0.32087502000000001</v>
       </c>
       <c r="D14" s="1">
         <f>[1]results_deepgar_Bulgaria!K14</f>
-        <v>1.2706227999999999</v>
+        <v>1.8260164000000001</v>
       </c>
       <c r="E14" s="1">
         <f>[1]results_deepgar_Bulgaria!E14</f>
-        <v>-0.80539530000000004</v>
+        <v>0.10000439</v>
       </c>
       <c r="F14" s="1">
         <f>[1]results_deepgar_Bulgaria!F14</f>
-        <v>1.0846378999999999</v>
+        <v>1.370255</v>
       </c>
       <c r="G14" s="1">
         <f>[1]results_deepgar_Bulgaria!G14</f>
-        <v>1.8900332</v>
+        <v>1.2702506</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1">
         <f>[1]results_deepgar_Bulgaria!I15</f>
-        <v>0.18187581999999999</v>
+        <v>0.27107012000000003</v>
       </c>
       <c r="C15" s="1">
         <f>[1]results_deepgar_Bulgaria!J15</f>
-        <v>-0.20850437999999999</v>
+        <v>0.21021126000000001</v>
       </c>
       <c r="D15" s="1">
         <f>[1]results_deepgar_Bulgaria!K15</f>
-        <v>1.857613</v>
+        <v>2.0803695000000002</v>
       </c>
       <c r="E15" s="1">
         <f>[1]results_deepgar_Bulgaria!E15</f>
-        <v>-0.17072335</v>
+        <v>2.7137701999999999</v>
       </c>
       <c r="F15" s="1">
         <f>[1]results_deepgar_Bulgaria!F15</f>
-        <v>0.42831045000000001</v>
+        <v>3.6537660000000001</v>
       </c>
       <c r="G15" s="1">
         <f>[1]results_deepgar_Bulgaria!G15</f>
-        <v>0.59903382999999999</v>
+        <v>0.93999577000000001</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <f>[1]results_deepgar_Bulgaria!I16</f>
-        <v>1.561474</v>
+        <v>0.34464901999999997</v>
       </c>
       <c r="C16" s="1">
         <f>[1]results_deepgar_Bulgaria!J16</f>
-        <v>-2.1378653000000001</v>
+        <v>3.256071E-2</v>
       </c>
       <c r="D16" s="1">
         <f>[1]results_deepgar_Bulgaria!K16</f>
-        <v>0.22911239</v>
+        <v>1.7246087000000001</v>
       </c>
       <c r="E16" s="1">
         <f>[1]results_deepgar_Bulgaria!E16</f>
-        <v>-10.971496999999999</v>
+        <v>0.81353222999999997</v>
       </c>
       <c r="F16" s="1">
         <f>[1]results_deepgar_Bulgaria!F16</f>
-        <v>-4.4720383000000004</v>
+        <v>1.9695464</v>
       </c>
       <c r="G16" s="1">
         <f>[1]results_deepgar_Bulgaria!G16</f>
-        <v>6.4994582999999997</v>
+        <v>1.1560142</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <f>[1]results_deepgar_Bulgaria!I17</f>
-        <v>0.40706784000000001</v>
+        <v>0.16587192000000001</v>
       </c>
       <c r="C17" s="1">
         <f>[1]results_deepgar_Bulgaria!J17</f>
-        <v>0.36520153</v>
+        <v>2.7050103999999998E-2</v>
       </c>
       <c r="D17" s="1">
         <f>[1]results_deepgar_Bulgaria!K17</f>
-        <v>1.6075117999999999</v>
+        <v>2.1973962999999999</v>
       </c>
       <c r="E17" s="1">
         <f>[1]results_deepgar_Bulgaria!E17</f>
-        <v>4.5464932999999999E-2</v>
+        <v>1.258426</v>
       </c>
       <c r="F17" s="1">
         <f>[1]results_deepgar_Bulgaria!F17</f>
-        <v>1.5721210999999999</v>
+        <v>1.7735057999999999</v>
       </c>
       <c r="G17" s="1">
         <f>[1]results_deepgar_Bulgaria!G17</f>
-        <v>1.5266561999999999</v>
+        <v>0.51507985999999994</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1">
         <f>[1]results_deepgar_Bulgaria!I18</f>
-        <v>0.2320103</v>
+        <v>0.3853203</v>
       </c>
       <c r="C18" s="1">
         <f>[1]results_deepgar_Bulgaria!J18</f>
-        <v>8.4652439999999995E-2</v>
+        <v>-7.5490840000000003E-2</v>
       </c>
       <c r="D18" s="1">
         <f>[1]results_deepgar_Bulgaria!K18</f>
-        <v>2.0104489999999999</v>
+        <v>1.5747796999999999</v>
       </c>
       <c r="E18" s="1">
         <f>[1]results_deepgar_Bulgaria!E18</f>
-        <v>2.0795379000000001</v>
+        <v>0.21576103999999999</v>
       </c>
       <c r="F18" s="1">
         <f>[1]results_deepgar_Bulgaria!F18</f>
-        <v>2.7823045</v>
+        <v>1.5462461999999999</v>
       </c>
       <c r="G18" s="1">
         <f>[1]results_deepgar_Bulgaria!G18</f>
-        <v>0.70276665999999999</v>
+        <v>1.3304851</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
         <f>[1]results_deepgar_Bulgaria!I19</f>
-        <v>0.27382958000000002</v>
+        <v>0.52901710000000002</v>
       </c>
       <c r="C19" s="1">
         <f>[1]results_deepgar_Bulgaria!J19</f>
-        <v>-8.9248690000000006E-2</v>
+        <v>-0.10146951</v>
       </c>
       <c r="D19" s="1">
         <f>[1]results_deepgar_Bulgaria!K19</f>
-        <v>1.7030953</v>
+        <v>1.3745183999999999</v>
       </c>
       <c r="E19" s="1">
         <f>[1]results_deepgar_Bulgaria!E19</f>
-        <v>0.28590064999999998</v>
+        <v>-0.28985149999999998</v>
       </c>
       <c r="F19" s="1">
         <f>[1]results_deepgar_Bulgaria!F19</f>
-        <v>1.1551096000000001</v>
+        <v>1.5980127</v>
       </c>
       <c r="G19" s="1">
         <f>[1]results_deepgar_Bulgaria!G19</f>
-        <v>0.86920900000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1">
-        <f>[1]results_deepgar_Bulgaria!I20</f>
-        <v>0.17064547999999999</v>
-      </c>
-      <c r="C20" s="1">
-        <f>[1]results_deepgar_Bulgaria!J20</f>
-        <v>0.12298988</v>
-      </c>
-      <c r="D20" s="1">
-        <f>[1]results_deepgar_Bulgaria!K20</f>
-        <v>2.0932987000000001</v>
-      </c>
-      <c r="E20" s="1">
-        <f>[1]results_deepgar_Bulgaria!E20</f>
-        <v>1.3614409999999999</v>
-      </c>
-      <c r="F20" s="1">
-        <f>[1]results_deepgar_Bulgaria!F20</f>
-        <v>1.8807642</v>
-      </c>
-      <c r="G20" s="1">
-        <f>[1]results_deepgar_Bulgaria!G20</f>
-        <v>0.51932319999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1">
-        <f>[1]results_deepgar_Bulgaria!I21</f>
-        <v>0.43114763</v>
-      </c>
-      <c r="C21" s="1">
-        <f>[1]results_deepgar_Bulgaria!J21</f>
-        <v>-0.11071520999999999</v>
-      </c>
-      <c r="D21" s="1">
-        <f>[1]results_deepgar_Bulgaria!K21</f>
-        <v>1.4681118</v>
-      </c>
-      <c r="E21" s="1">
-        <f>[1]results_deepgar_Bulgaria!E21</f>
-        <v>0.12577283</v>
-      </c>
-      <c r="F21" s="1">
-        <f>[1]results_deepgar_Bulgaria!F21</f>
-        <v>1.5475076000000001</v>
-      </c>
-      <c r="G21" s="1">
-        <f>[1]results_deepgar_Bulgaria!G21</f>
-        <v>1.4217348000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1">
-        <f>[1]results_deepgar_Bulgaria!I22</f>
-        <v>0.47764862000000002</v>
-      </c>
-      <c r="C22" s="1">
-        <f>[1]results_deepgar_Bulgaria!J22</f>
-        <v>-0.13117129</v>
-      </c>
-      <c r="D22" s="1">
-        <f>[1]results_deepgar_Bulgaria!K22</f>
-        <v>1.4187342000000001</v>
-      </c>
-      <c r="E22" s="1">
-        <f>[1]results_deepgar_Bulgaria!E22</f>
-        <v>-6.4501909999999996E-2</v>
-      </c>
-      <c r="F22" s="1">
-        <f>[1]results_deepgar_Bulgaria!F22</f>
-        <v>1.5287644</v>
-      </c>
-      <c r="G22" s="1">
-        <f>[1]results_deepgar_Bulgaria!G22</f>
-        <v>1.5932662</v>
+        <v>1.8878641</v>
       </c>
     </row>
   </sheetData>
@@ -9091,27 +8537,27 @@
       </c>
       <c r="B2" s="1">
         <f>[3]results_deepgar_Estonia!I2</f>
-        <v>0.49227166</v>
+        <v>0.66041386000000002</v>
       </c>
       <c r="C2" s="1">
         <f>[3]results_deepgar_Estonia!J2</f>
-        <v>-5.8220513000000002E-2</v>
+        <v>5.4766636E-2</v>
       </c>
       <c r="D2" s="1">
         <f>[3]results_deepgar_Estonia!K2</f>
-        <v>1.3025907000000001</v>
+        <v>1.2741275000000001</v>
       </c>
       <c r="E2" s="1">
         <f>[3]results_deepgar_Estonia!E2</f>
-        <v>-1.3270495</v>
+        <v>-0.88402944999999999</v>
       </c>
       <c r="F2" s="1">
         <f>[3]results_deepgar_Estonia!F2</f>
-        <v>2.0158260000000001</v>
+        <v>3.6169875</v>
       </c>
       <c r="G2" s="1">
         <f>[3]results_deepgar_Estonia!G2</f>
-        <v>3.3428754999999999</v>
+        <v>4.501017</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -9120,27 +8566,27 @@
       </c>
       <c r="B3" s="1">
         <f>[3]results_deepgar_Estonia!I3</f>
-        <v>0.59107750000000003</v>
+        <v>0.64731609999999995</v>
       </c>
       <c r="C3" s="1">
         <f>[3]results_deepgar_Estonia!J3</f>
-        <v>9.7652520000000007E-2</v>
+        <v>7.9016489999999995E-2</v>
       </c>
       <c r="D3" s="1">
         <f>[3]results_deepgar_Estonia!K3</f>
-        <v>1.2635563999999999</v>
+        <v>1.2958137999999999</v>
       </c>
       <c r="E3" s="1">
         <f>[3]results_deepgar_Estonia!E3</f>
-        <v>-0.71933199999999997</v>
+        <v>-0.73530320000000005</v>
       </c>
       <c r="F3" s="1">
         <f>[3]results_deepgar_Estonia!F3</f>
-        <v>3.3360612000000001</v>
+        <v>3.6751149999999999</v>
       </c>
       <c r="G3" s="1">
         <f>[3]results_deepgar_Estonia!G3</f>
-        <v>4.0553929999999996</v>
+        <v>4.4104184999999996</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -9149,27 +8595,27 @@
       </c>
       <c r="B4" s="1">
         <f>[3]results_deepgar_Estonia!I4</f>
-        <v>0.61316203999999996</v>
+        <v>0.63814389999999999</v>
       </c>
       <c r="C4" s="1">
         <f>[3]results_deepgar_Estonia!J4</f>
-        <v>0.17117909000000001</v>
+        <v>0.10398999</v>
       </c>
       <c r="D4" s="1">
         <f>[3]results_deepgar_Estonia!K4</f>
-        <v>1.2724960000000001</v>
+        <v>1.3115829999999999</v>
       </c>
       <c r="E4" s="1">
         <f>[3]results_deepgar_Estonia!E4</f>
-        <v>-0.30536020000000003</v>
+        <v>-0.44980013000000002</v>
       </c>
       <c r="F4" s="1">
         <f>[3]results_deepgar_Estonia!F4</f>
-        <v>3.9637446000000001</v>
+        <v>3.9058242000000001</v>
       </c>
       <c r="G4" s="1">
         <f>[3]results_deepgar_Estonia!G4</f>
-        <v>4.2691049999999997</v>
+        <v>4.3556239999999997</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -9178,27 +8624,27 @@
       </c>
       <c r="B5" s="1">
         <f>[3]results_deepgar_Estonia!I5</f>
-        <v>0.62661135000000001</v>
+        <v>0.62144977000000001</v>
       </c>
       <c r="C5" s="1">
         <f>[3]results_deepgar_Estonia!J5</f>
-        <v>0.10873590399999999</v>
+        <v>0.14096990000000001</v>
       </c>
       <c r="D5" s="1">
         <f>[3]results_deepgar_Estonia!K5</f>
-        <v>1.2426558999999999</v>
+        <v>1.3271503</v>
       </c>
       <c r="E5" s="1">
         <f>[3]results_deepgar_Estonia!E5</f>
-        <v>-0.66025524999999996</v>
+        <v>-0.31800830000000002</v>
       </c>
       <c r="F5" s="1">
         <f>[3]results_deepgar_Estonia!F5</f>
-        <v>3.6581635000000001</v>
+        <v>3.948658</v>
       </c>
       <c r="G5" s="1">
         <f>[3]results_deepgar_Estonia!G5</f>
-        <v>4.3184189999999996</v>
+        <v>4.2666664000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -9207,27 +8653,27 @@
       </c>
       <c r="B6" s="1">
         <f>[3]results_deepgar_Estonia!I6</f>
-        <v>0.65317166000000004</v>
+        <v>0.74054675999999997</v>
       </c>
       <c r="C6" s="1">
         <f>[3]results_deepgar_Estonia!J6</f>
-        <v>-1.7079792999999999E-2</v>
+        <v>-0.11151643</v>
       </c>
       <c r="D6" s="1">
         <f>[3]results_deepgar_Estonia!K6</f>
-        <v>1.2031061999999999</v>
+        <v>1.1428475</v>
       </c>
       <c r="E6" s="1">
         <f>[3]results_deepgar_Estonia!E6</f>
-        <v>-1.4398899000000001</v>
+        <v>-2.0274733999999999</v>
       </c>
       <c r="F6" s="1">
         <f>[3]results_deepgar_Estonia!F6</f>
-        <v>3.046449</v>
+        <v>3.1417033999999999</v>
       </c>
       <c r="G6" s="1">
         <f>[3]results_deepgar_Estonia!G6</f>
-        <v>4.4863385999999998</v>
+        <v>5.1691770000000004</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -9236,27 +8682,27 @@
       </c>
       <c r="B7" s="1">
         <f>[3]results_deepgar_Estonia!I7</f>
-        <v>0.55799860000000001</v>
+        <v>0.67720084999999997</v>
       </c>
       <c r="C7" s="1">
         <f>[3]results_deepgar_Estonia!J7</f>
-        <v>0.13159841</v>
+        <v>2.8644077E-2</v>
       </c>
       <c r="D7" s="1">
         <f>[3]results_deepgar_Estonia!K7</f>
-        <v>1.3318875999999999</v>
+        <v>1.2388098000000001</v>
       </c>
       <c r="E7" s="1">
         <f>[3]results_deepgar_Estonia!E7</f>
-        <v>-0.23217006000000001</v>
+        <v>-0.99487510000000001</v>
       </c>
       <c r="F7" s="1">
         <f>[3]results_deepgar_Estonia!F7</f>
-        <v>3.5881287999999998</v>
+        <v>3.6353249999999999</v>
       </c>
       <c r="G7" s="1">
         <f>[3]results_deepgar_Estonia!G7</f>
-        <v>3.8202989999999999</v>
+        <v>4.6302000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -9265,27 +8711,27 @@
       </c>
       <c r="B8" s="1">
         <f>[3]results_deepgar_Estonia!I8</f>
-        <v>0.68106294000000001</v>
+        <v>0.76136820000000005</v>
       </c>
       <c r="C8" s="1">
         <f>[3]results_deepgar_Estonia!J8</f>
-        <v>-3.6124616999999998E-2</v>
+        <v>-0.16278625999999999</v>
       </c>
       <c r="D8" s="1">
         <f>[3]results_deepgar_Estonia!K8</f>
-        <v>1.1773328999999999</v>
+        <v>1.0932496</v>
       </c>
       <c r="E8" s="1">
         <f>[3]results_deepgar_Estonia!E8</f>
-        <v>-1.573709</v>
+        <v>-2.2684530999999999</v>
       </c>
       <c r="F8" s="1">
         <f>[3]results_deepgar_Estonia!F8</f>
-        <v>3.1240988000000001</v>
+        <v>3.1224050000000001</v>
       </c>
       <c r="G8" s="1">
         <f>[3]results_deepgar_Estonia!G8</f>
-        <v>4.6978080000000002</v>
+        <v>5.3908579999999997</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -9294,27 +8740,27 @@
       </c>
       <c r="B9" s="1">
         <f>[3]results_deepgar_Estonia!I9</f>
-        <v>0.639374</v>
+        <v>0.71010510000000004</v>
       </c>
       <c r="C9" s="1">
         <f>[3]results_deepgar_Estonia!J9</f>
-        <v>1.5214040999999999E-2</v>
+        <v>-4.9827542000000002E-2</v>
       </c>
       <c r="D9" s="1">
         <f>[3]results_deepgar_Estonia!K9</f>
-        <v>1.2010928000000001</v>
+        <v>1.1944471999999999</v>
       </c>
       <c r="E9" s="1">
         <f>[3]results_deepgar_Estonia!E9</f>
-        <v>-1.3036867000000001</v>
+        <v>-1.5437132</v>
       </c>
       <c r="F9" s="1">
         <f>[3]results_deepgar_Estonia!F9</f>
-        <v>3.0889125000000002</v>
+        <v>3.3471391000000001</v>
       </c>
       <c r="G9" s="1">
         <f>[3]results_deepgar_Estonia!G9</f>
-        <v>4.3925989999999997</v>
+        <v>4.8908525000000003</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -9323,27 +8769,27 @@
       </c>
       <c r="B10" s="1">
         <f>[3]results_deepgar_Estonia!I10</f>
-        <v>0.68296659999999998</v>
+        <v>0.74987029999999999</v>
       </c>
       <c r="C10" s="1">
         <f>[3]results_deepgar_Estonia!J10</f>
-        <v>-6.5034665E-3</v>
+        <v>-0.13472724999999999</v>
       </c>
       <c r="D10" s="1">
         <f>[3]results_deepgar_Estonia!K10</f>
-        <v>1.1978259</v>
+        <v>1.1226041</v>
       </c>
       <c r="E10" s="1">
         <f>[3]results_deepgar_Estonia!E10</f>
-        <v>-1.3845582999999999</v>
+        <v>-2.1229247999999998</v>
       </c>
       <c r="F10" s="1">
         <f>[3]results_deepgar_Estonia!F10</f>
-        <v>3.3090093</v>
+        <v>3.1428946999999998</v>
       </c>
       <c r="G10" s="1">
         <f>[3]results_deepgar_Estonia!G10</f>
-        <v>4.6935678000000003</v>
+        <v>5.2658195000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -9352,27 +8798,27 @@
       </c>
       <c r="B11" s="1">
         <f>[3]results_deepgar_Estonia!I11</f>
-        <v>0.75255614999999998</v>
+        <v>0.71243816999999998</v>
       </c>
       <c r="C11" s="1">
         <f>[3]results_deepgar_Estonia!J11</f>
-        <v>-7.4178670000000002E-2</v>
+        <v>-4.6319899999999997E-2</v>
       </c>
       <c r="D11" s="1">
         <f>[3]results_deepgar_Estonia!K11</f>
-        <v>1.1451530000000001</v>
+        <v>1.1742455999999999</v>
       </c>
       <c r="E11" s="1">
         <f>[3]results_deepgar_Estonia!E11</f>
-        <v>-1.9240664000000001</v>
+        <v>-1.4716691</v>
       </c>
       <c r="F11" s="1">
         <f>[3]results_deepgar_Estonia!F11</f>
-        <v>3.3037488000000002</v>
+        <v>3.4474597</v>
       </c>
       <c r="G11" s="1">
         <f>[3]results_deepgar_Estonia!G11</f>
-        <v>5.2278149999999997</v>
+        <v>4.9191289999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -9381,27 +8827,27 @@
       </c>
       <c r="B12" s="1">
         <f>[3]results_deepgar_Estonia!I12</f>
-        <v>0.73391472999999996</v>
+        <v>0.69621750000000004</v>
       </c>
       <c r="C12" s="1">
         <f>[3]results_deepgar_Estonia!J12</f>
-        <v>-7.3358025000000004E-3</v>
+        <v>-1.4869031E-2</v>
       </c>
       <c r="D12" s="1">
         <f>[3]results_deepgar_Estonia!K12</f>
-        <v>1.1818964000000001</v>
+        <v>1.2047669999999999</v>
       </c>
       <c r="E12" s="1">
         <f>[3]results_deepgar_Estonia!E12</f>
-        <v>-1.4339622000000001</v>
+        <v>-1.2136681</v>
       </c>
       <c r="F12" s="1">
         <f>[3]results_deepgar_Estonia!F12</f>
-        <v>3.620854</v>
+        <v>3.5669900999999999</v>
       </c>
       <c r="G12" s="1">
         <f>[3]results_deepgar_Estonia!G12</f>
-        <v>5.0548162000000003</v>
+        <v>4.7806582000000004</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -9410,27 +8856,27 @@
       </c>
       <c r="B13" s="1">
         <f>[3]results_deepgar_Estonia!I13</f>
-        <v>0.85133150000000002</v>
+        <v>0.77084649999999999</v>
       </c>
       <c r="C13" s="1">
         <f>[3]results_deepgar_Estonia!J13</f>
-        <v>-0.21712923000000001</v>
+        <v>-0.17206263999999999</v>
       </c>
       <c r="D13" s="1">
         <f>[3]results_deepgar_Estonia!K13</f>
-        <v>1.0810153</v>
+        <v>1.0838357999999999</v>
       </c>
       <c r="E13" s="1">
         <f>[3]results_deepgar_Estonia!E13</f>
-        <v>-3.1706466999999998</v>
+        <v>-2.4571679999999998</v>
       </c>
       <c r="F13" s="1">
         <f>[3]results_deepgar_Estonia!F13</f>
-        <v>2.9369814000000001</v>
+        <v>3.015949</v>
       </c>
       <c r="G13" s="1">
         <f>[3]results_deepgar_Estonia!G13</f>
-        <v>6.1076280000000001</v>
+        <v>5.4731170000000002</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -9439,27 +8885,27 @@
       </c>
       <c r="B14" s="1">
         <f>[3]results_deepgar_Estonia!I14</f>
-        <v>0.68840129999999999</v>
+        <v>0.74970113999999999</v>
       </c>
       <c r="C14" s="1">
         <f>[3]results_deepgar_Estonia!J14</f>
-        <v>-7.3630705000000005E-2</v>
+        <v>-0.12536938</v>
       </c>
       <c r="D14" s="1">
         <f>[3]results_deepgar_Estonia!K14</f>
-        <v>1.1567099000000001</v>
+        <v>1.1181946</v>
       </c>
       <c r="E14" s="1">
         <f>[3]results_deepgar_Estonia!E14</f>
-        <v>-1.8578967</v>
+        <v>-2.0943329999999998</v>
       </c>
       <c r="F14" s="1">
         <f>[3]results_deepgar_Estonia!F14</f>
-        <v>2.9168655999999999</v>
+        <v>3.1649761000000001</v>
       </c>
       <c r="G14" s="1">
         <f>[3]results_deepgar_Estonia!G14</f>
-        <v>4.774762</v>
+        <v>5.259309</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -9468,27 +8914,27 @@
       </c>
       <c r="B15" s="1">
         <f>[3]results_deepgar_Estonia!I15</f>
-        <v>0.79173183000000003</v>
+        <v>0.71448462999999995</v>
       </c>
       <c r="C15" s="1">
         <f>[3]results_deepgar_Estonia!J15</f>
-        <v>-0.13801152</v>
+        <v>-7.3359995999999997E-2</v>
       </c>
       <c r="D15" s="1">
         <f>[3]results_deepgar_Estonia!K15</f>
-        <v>1.1929888</v>
+        <v>1.1927851</v>
       </c>
       <c r="E15" s="1">
         <f>[3]results_deepgar_Estonia!E15</f>
-        <v>-2.1982113999999999</v>
+        <v>-1.7215016999999999</v>
       </c>
       <c r="F15" s="1">
         <f>[3]results_deepgar_Estonia!F15</f>
-        <v>3.3202588999999998</v>
+        <v>3.2107599000000002</v>
       </c>
       <c r="G15" s="1">
         <f>[3]results_deepgar_Estonia!G15</f>
-        <v>5.5184702999999997</v>
+        <v>4.9322615000000001</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -9497,27 +8943,27 @@
       </c>
       <c r="B16" s="1">
         <f>[3]results_deepgar_Estonia!I16</f>
-        <v>1.3086134</v>
+        <v>1.1591309000000001</v>
       </c>
       <c r="C16" s="1">
         <f>[3]results_deepgar_Estonia!J16</f>
-        <v>-1.3301461999999999</v>
+        <v>-1.3205003</v>
       </c>
       <c r="D16" s="1">
         <f>[3]results_deepgar_Estonia!K16</f>
-        <v>0.82587169999999999</v>
+        <v>0.45385343</v>
       </c>
       <c r="E16" s="1">
         <f>[3]results_deepgar_Estonia!E16</f>
-        <v>-17.368210000000001</v>
+        <v>-11.677408</v>
       </c>
       <c r="F16" s="1">
         <f>[3]results_deepgar_Estonia!F16</f>
-        <v>-1.6668909000000001</v>
+        <v>-1.4532559</v>
       </c>
       <c r="G16" s="1">
         <f>[3]results_deepgar_Estonia!G16</f>
-        <v>15.701319</v>
+        <v>10.224152999999999</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -9526,27 +8972,27 @@
       </c>
       <c r="B17" s="1">
         <f>[3]results_deepgar_Estonia!I17</f>
-        <v>0.59311663999999997</v>
+        <v>0.53797700000000004</v>
       </c>
       <c r="C17" s="1">
         <f>[3]results_deepgar_Estonia!J17</f>
-        <v>-0.46505573</v>
+        <v>-0.40330806000000002</v>
       </c>
       <c r="D17" s="1">
         <f>[3]results_deepgar_Estonia!K17</f>
-        <v>1.0908567</v>
+        <v>1.3981425999999999</v>
       </c>
       <c r="E17" s="1">
         <f>[3]results_deepgar_Estonia!E17</f>
-        <v>-4.8435699999999997</v>
+        <v>-4.3385490000000004</v>
       </c>
       <c r="F17" s="1">
         <f>[3]results_deepgar_Estonia!F17</f>
-        <v>-0.16471566000000001</v>
+        <v>-0.15993126999999999</v>
       </c>
       <c r="G17" s="1">
         <f>[3]results_deepgar_Estonia!G17</f>
-        <v>4.6788544999999999</v>
+        <v>4.1786180000000002</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -9555,27 +9001,27 @@
       </c>
       <c r="B18" s="1">
         <f>[3]results_deepgar_Estonia!I18</f>
-        <v>0.42996264000000001</v>
+        <v>0.50565963999999997</v>
       </c>
       <c r="C18" s="1">
         <f>[3]results_deepgar_Estonia!J18</f>
-        <v>0.20500544000000001</v>
+        <v>0.36356339999999998</v>
       </c>
       <c r="D18" s="1">
         <f>[3]results_deepgar_Estonia!K18</f>
-        <v>1.4260911999999999</v>
+        <v>1.5400324999999999</v>
       </c>
       <c r="E18" s="1">
         <f>[3]results_deepgar_Estonia!E18</f>
-        <v>4.3588783999999998E-2</v>
+        <v>0.93837839999999995</v>
       </c>
       <c r="F18" s="1">
         <f>[3]results_deepgar_Estonia!F18</f>
-        <v>3.0257022</v>
+        <v>4.7748220000000003</v>
       </c>
       <c r="G18" s="1">
         <f>[3]results_deepgar_Estonia!G18</f>
-        <v>2.9821133999999998</v>
+        <v>3.8364440000000002</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -9584,27 +9030,27 @@
       </c>
       <c r="B19" s="1">
         <f>[3]results_deepgar_Estonia!I19</f>
-        <v>0.43560100000000002</v>
+        <v>0.55477770000000004</v>
       </c>
       <c r="C19" s="1">
         <f>[3]results_deepgar_Estonia!J19</f>
-        <v>-0.16463091999999999</v>
+        <v>0.2510753</v>
       </c>
       <c r="D19" s="1">
         <f>[3]results_deepgar_Estonia!K19</f>
-        <v>1.3221915</v>
+        <v>1.4353772</v>
       </c>
       <c r="E19" s="1">
         <f>[3]results_deepgar_Estonia!E19</f>
-        <v>-1.7435335000000001</v>
+        <v>0.22026213</v>
       </c>
       <c r="F19" s="1">
         <f>[3]results_deepgar_Estonia!F19</f>
-        <v>1.2676400999999999</v>
+        <v>4.1459875000000004</v>
       </c>
       <c r="G19" s="1">
         <f>[3]results_deepgar_Estonia!G19</f>
-        <v>3.0111737000000001</v>
+        <v>3.9257255</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -9613,27 +9059,27 @@
       </c>
       <c r="B20" s="1">
         <f>[3]results_deepgar_Estonia!I20</f>
-        <v>0.46301234000000002</v>
+        <v>0.47181440000000002</v>
       </c>
       <c r="C20" s="1">
         <f>[3]results_deepgar_Estonia!J20</f>
-        <v>0.33137319999999998</v>
+        <v>0.37280595</v>
       </c>
       <c r="D20" s="1">
         <f>[3]results_deepgar_Estonia!K20</f>
-        <v>1.3988361</v>
+        <v>1.5923096999999999</v>
       </c>
       <c r="E20" s="1">
         <f>[3]results_deepgar_Estonia!E20</f>
-        <v>0.36960850000000001</v>
+        <v>0.81486075999999996</v>
       </c>
       <c r="F20" s="1">
         <f>[3]results_deepgar_Estonia!F20</f>
-        <v>3.7990599</v>
+        <v>4.4285445000000001</v>
       </c>
       <c r="G20" s="1">
         <f>[3]results_deepgar_Estonia!G20</f>
-        <v>3.4294514999999999</v>
+        <v>3.6136837000000002</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -9642,27 +9088,27 @@
       </c>
       <c r="B21" s="1">
         <f>[3]results_deepgar_Estonia!I21</f>
-        <v>0.60741155999999996</v>
+        <v>0.55073070000000002</v>
       </c>
       <c r="C21" s="1">
         <f>[3]results_deepgar_Estonia!J21</f>
-        <v>0.20644199999999999</v>
+        <v>0.26558807000000001</v>
       </c>
       <c r="D21" s="1">
         <f>[3]results_deepgar_Estonia!K21</f>
-        <v>1.2770082</v>
+        <v>1.4394579000000001</v>
       </c>
       <c r="E21" s="1">
         <f>[3]results_deepgar_Estonia!E21</f>
-        <v>-0.13255550999999999</v>
+        <v>0.31778356000000002</v>
       </c>
       <c r="F21" s="1">
         <f>[3]results_deepgar_Estonia!F21</f>
-        <v>4.1397542999999999</v>
+        <v>4.2429170000000003</v>
       </c>
       <c r="G21" s="1">
         <f>[3]results_deepgar_Estonia!G21</f>
-        <v>4.2723100000000001</v>
+        <v>3.9251334999999998</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -9671,27 +9117,27 @@
       </c>
       <c r="B22" s="1">
         <f>[3]results_deepgar_Estonia!I22</f>
-        <v>0.62269540000000001</v>
+        <v>0.70884055000000001</v>
       </c>
       <c r="C22" s="1">
         <f>[3]results_deepgar_Estonia!J22</f>
-        <v>4.0408075000000002E-2</v>
+        <v>-3.6054067000000002E-2</v>
       </c>
       <c r="D22" s="1">
         <f>[3]results_deepgar_Estonia!K22</f>
-        <v>1.2595434999999999</v>
+        <v>1.1855895999999999</v>
       </c>
       <c r="E22" s="1">
         <f>[3]results_deepgar_Estonia!E22</f>
-        <v>-0.87755733999999996</v>
+        <v>-1.4645866999999999</v>
       </c>
       <c r="F22" s="1">
         <f>[3]results_deepgar_Estonia!F22</f>
-        <v>3.370358</v>
+        <v>3.4193305999999999</v>
       </c>
       <c r="G22" s="1">
         <f>[3]results_deepgar_Estonia!G22</f>
-        <v>4.2479152999999998</v>
+        <v>4.8839173000000002</v>
       </c>
     </row>
   </sheetData>
@@ -9701,10 +9147,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB69483-77D3-9440-A9B1-953013B22789}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9731,611 +9177,524 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <f>[6]results_deepgar_Lithuania!I2</f>
-        <v>0.51150965999999998</v>
+        <v>0.40463734000000001</v>
       </c>
       <c r="C2" s="1">
         <f>[6]results_deepgar_Lithuania!J2</f>
-        <v>0.17697067999999999</v>
+        <v>0.10085534</v>
       </c>
       <c r="D2" s="1">
         <f>[6]results_deepgar_Lithuania!K2</f>
-        <v>1.3789089999999999</v>
+        <v>1.5419778</v>
       </c>
       <c r="E2" s="1">
         <f>[6]results_deepgar_Lithuania!E2</f>
-        <v>2.0062364999999999E-2</v>
+        <v>6.7602283999999999E-2</v>
       </c>
       <c r="F2" s="1">
         <f>[6]results_deepgar_Lithuania!F2</f>
-        <v>3.4447237999999998</v>
+        <v>2.7209968999999998</v>
       </c>
       <c r="G2" s="1">
         <f>[6]results_deepgar_Lithuania!G2</f>
-        <v>3.4246614000000002</v>
+        <v>2.6533945000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <f>[6]results_deepgar_Lithuania!I3</f>
-        <v>0.64887720000000004</v>
+        <v>0.52334696000000003</v>
       </c>
       <c r="C3" s="1">
         <f>[6]results_deepgar_Lithuania!J3</f>
-        <v>-4.2573306999999998E-2</v>
+        <v>-2.6987339999999999E-2</v>
       </c>
       <c r="D3" s="1">
         <f>[6]results_deepgar_Lithuania!K3</f>
-        <v>1.2513018</v>
+        <v>1.4121334999999999</v>
       </c>
       <c r="E3" s="1">
         <f>[6]results_deepgar_Lithuania!E3</f>
-        <v>-1.0405256000000001</v>
+        <v>-0.64282669999999997</v>
       </c>
       <c r="F3" s="1">
         <f>[6]results_deepgar_Lithuania!F3</f>
-        <v>3.2622239999999998</v>
+        <v>2.8177938</v>
       </c>
       <c r="G3" s="1">
         <f>[6]results_deepgar_Lithuania!G3</f>
-        <v>4.3027496000000003</v>
+        <v>3.4606203999999998</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <f>[6]results_deepgar_Lithuania!I4</f>
-        <v>0.64316879999999998</v>
+        <v>0.51716620000000002</v>
       </c>
       <c r="C4" s="1">
         <f>[6]results_deepgar_Lithuania!J4</f>
-        <v>-3.5538199999999999E-2</v>
+        <v>-7.0685044000000002E-2</v>
       </c>
       <c r="D4" s="1">
         <f>[6]results_deepgar_Lithuania!K4</f>
-        <v>1.2555524</v>
+        <v>1.4629272</v>
       </c>
       <c r="E4" s="1">
         <f>[6]results_deepgar_Lithuania!E4</f>
-        <v>-1.0051128</v>
+        <v>-0.63906589999999996</v>
       </c>
       <c r="F4" s="1">
         <f>[6]results_deepgar_Lithuania!F4</f>
-        <v>3.2554183000000001</v>
+        <v>2.7704105000000001</v>
       </c>
       <c r="G4" s="1">
         <f>[6]results_deepgar_Lithuania!G4</f>
-        <v>4.2605310000000003</v>
+        <v>3.4094764999999998</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <f>[6]results_deepgar_Lithuania!I5</f>
-        <v>0.47882068</v>
+        <v>0.42586970000000002</v>
       </c>
       <c r="C5" s="1">
         <f>[6]results_deepgar_Lithuania!J5</f>
-        <v>0.116519466</v>
+        <v>7.5520690000000001E-2</v>
       </c>
       <c r="D5" s="1">
         <f>[6]results_deepgar_Lithuania!K5</f>
-        <v>1.4134469999999999</v>
+        <v>1.4958897</v>
       </c>
       <c r="E5" s="1">
         <f>[6]results_deepgar_Lithuania!E5</f>
-        <v>-2.5250576E-2</v>
+        <v>-0.14293678000000001</v>
       </c>
       <c r="F5" s="1">
         <f>[6]results_deepgar_Lithuania!F5</f>
-        <v>3.1136045000000001</v>
+        <v>2.6535392</v>
       </c>
       <c r="G5" s="1">
         <f>[6]results_deepgar_Lithuania!G5</f>
-        <v>3.1388552000000001</v>
+        <v>2.7964760000000002</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <f>[6]results_deepgar_Lithuania!I6</f>
-        <v>0.62695800000000002</v>
+        <v>0.49088985000000002</v>
       </c>
       <c r="C6" s="1">
         <f>[6]results_deepgar_Lithuania!J6</f>
-        <v>3.8730241000000001E-3</v>
+        <v>1.6440090000000001E-2</v>
       </c>
       <c r="D6" s="1">
         <f>[6]results_deepgar_Lithuania!K6</f>
-        <v>1.2692695000000001</v>
+        <v>1.4540698999999999</v>
       </c>
       <c r="E6" s="1">
         <f>[6]results_deepgar_Lithuania!E6</f>
-        <v>-0.82895180000000002</v>
+        <v>-0.32704175000000002</v>
       </c>
       <c r="F6" s="1">
         <f>[6]results_deepgar_Lithuania!F6</f>
-        <v>3.3120484000000001</v>
+        <v>2.8972042</v>
       </c>
       <c r="G6" s="1">
         <f>[6]results_deepgar_Lithuania!G6</f>
-        <v>4.1410003</v>
+        <v>3.2242459999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <f>[6]results_deepgar_Lithuania!I7</f>
-        <v>0.67441547000000002</v>
+        <v>0.52379279999999995</v>
       </c>
       <c r="C7" s="1">
         <f>[6]results_deepgar_Lithuania!J7</f>
-        <v>0.15301982</v>
+        <v>-3.5387293E-2</v>
       </c>
       <c r="D7" s="1">
         <f>[6]results_deepgar_Lithuania!K7</f>
-        <v>1.2256463</v>
+        <v>1.4004129999999999</v>
       </c>
       <c r="E7" s="1">
         <f>[6]results_deepgar_Lithuania!E7</f>
-        <v>-0.61070990000000003</v>
+        <v>-0.74283516000000005</v>
       </c>
       <c r="F7" s="1">
         <f>[6]results_deepgar_Lithuania!F7</f>
-        <v>3.9502343999999998</v>
+        <v>2.7285162999999999</v>
       </c>
       <c r="G7" s="1">
         <f>[6]results_deepgar_Lithuania!G7</f>
-        <v>4.5609446</v>
+        <v>3.4713516000000002</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <f>[6]results_deepgar_Lithuania!I8</f>
-        <v>0.50913112999999999</v>
+        <v>0.5374584</v>
       </c>
       <c r="C8" s="1">
         <f>[6]results_deepgar_Lithuania!J8</f>
-        <v>7.0046559999999994E-2</v>
+        <v>-3.2696693999999998E-2</v>
       </c>
       <c r="D8" s="1">
         <f>[6]results_deepgar_Lithuania!K8</f>
-        <v>1.381659</v>
+        <v>1.3931544</v>
       </c>
       <c r="E8" s="1">
         <f>[6]results_deepgar_Lithuania!E8</f>
-        <v>-0.22932095999999999</v>
+        <v>-0.69648129999999997</v>
       </c>
       <c r="F8" s="1">
         <f>[6]results_deepgar_Lithuania!F8</f>
-        <v>3.094544</v>
+        <v>2.868595</v>
       </c>
       <c r="G8" s="1">
         <f>[6]results_deepgar_Lithuania!G8</f>
-        <v>3.3238650000000001</v>
+        <v>3.5650759999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <f>[6]results_deepgar_Lithuania!I9</f>
-        <v>0.54274940000000005</v>
+        <v>0.46903669999999997</v>
       </c>
       <c r="C9" s="1">
         <f>[6]results_deepgar_Lithuania!J9</f>
-        <v>-2.7998660000000002E-2</v>
+        <v>3.0243684E-2</v>
       </c>
       <c r="D9" s="1">
         <f>[6]results_deepgar_Lithuania!K9</f>
-        <v>1.3515185000000001</v>
+        <v>1.4364984000000001</v>
       </c>
       <c r="E9" s="1">
         <f>[6]results_deepgar_Lithuania!E9</f>
-        <v>-0.55309516000000003</v>
+        <v>-0.35790914000000001</v>
       </c>
       <c r="F9" s="1">
         <f>[6]results_deepgar_Lithuania!F9</f>
-        <v>2.9919120000000001</v>
+        <v>2.7329826000000002</v>
       </c>
       <c r="G9" s="1">
         <f>[6]results_deepgar_Lithuania!G9</f>
-        <v>3.545007</v>
+        <v>3.0908918000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <f>[6]results_deepgar_Lithuania!I10</f>
-        <v>0.64895210000000003</v>
+        <v>0.3796602</v>
       </c>
       <c r="C10" s="1">
         <f>[6]results_deepgar_Lithuania!J10</f>
-        <v>1.28498E-2</v>
+        <v>5.2661527E-2</v>
       </c>
       <c r="D10" s="1">
         <f>[6]results_deepgar_Lithuania!K10</f>
-        <v>1.2477653</v>
+        <v>1.4859205</v>
       </c>
       <c r="E10" s="1">
         <f>[6]results_deepgar_Lithuania!E10</f>
-        <v>-0.91960894999999998</v>
+        <v>-0.33517282999999998</v>
       </c>
       <c r="F10" s="1">
         <f>[6]results_deepgar_Lithuania!F10</f>
-        <v>3.3802360999999999</v>
+        <v>2.1534019999999998</v>
       </c>
       <c r="G10" s="1">
         <f>[6]results_deepgar_Lithuania!G10</f>
-        <v>4.2998450000000004</v>
+        <v>2.488575</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <f>[6]results_deepgar_Lithuania!I11</f>
-        <v>0.63605343999999997</v>
+        <v>0.51343419999999995</v>
       </c>
       <c r="C11" s="1">
         <f>[6]results_deepgar_Lithuania!J11</f>
-        <v>-5.766553E-2</v>
+        <v>-4.6487003999999998E-2</v>
       </c>
       <c r="D11" s="1">
         <f>[6]results_deepgar_Lithuania!K11</f>
-        <v>1.2631357000000001</v>
+        <v>1.3930777000000001</v>
       </c>
       <c r="E11" s="1">
         <f>[6]results_deepgar_Lithuania!E11</f>
-        <v>-1.0262245000000001</v>
+        <v>-0.88228399999999996</v>
       </c>
       <c r="F11" s="1">
         <f>[6]results_deepgar_Lithuania!F11</f>
-        <v>3.1896205000000002</v>
+        <v>2.5270790000000001</v>
       </c>
       <c r="G11" s="1">
         <f>[6]results_deepgar_Lithuania!G11</f>
-        <v>4.2158449999999998</v>
+        <v>3.4093629999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <f>[6]results_deepgar_Lithuania!I12</f>
-        <v>0.6420785</v>
+        <v>0.47183757999999998</v>
       </c>
       <c r="C12" s="1">
         <f>[6]results_deepgar_Lithuania!J12</f>
-        <v>5.5442779999999997E-2</v>
+        <v>1.882938E-2</v>
       </c>
       <c r="D12" s="1">
         <f>[6]results_deepgar_Lithuania!K12</f>
-        <v>1.2606219999999999</v>
+        <v>1.4285569</v>
       </c>
       <c r="E12" s="1">
         <f>[6]results_deepgar_Lithuania!E12</f>
-        <v>-0.67090110000000003</v>
+        <v>-0.43799149999999998</v>
       </c>
       <c r="F12" s="1">
         <f>[6]results_deepgar_Lithuania!F12</f>
-        <v>3.5855025999999999</v>
+        <v>2.6732488000000001</v>
       </c>
       <c r="G12" s="1">
         <f>[6]results_deepgar_Lithuania!G12</f>
-        <v>4.2564039999999999</v>
+        <v>3.1112403999999998</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1">
         <f>[6]results_deepgar_Lithuania!I13</f>
-        <v>0.60981649999999998</v>
+        <v>1.7963327</v>
       </c>
       <c r="C13" s="1">
         <f>[6]results_deepgar_Lithuania!J13</f>
-        <v>1.6665407E-2</v>
+        <v>-0.96473986</v>
       </c>
       <c r="D13" s="1">
         <f>[6]results_deepgar_Lithuania!K13</f>
-        <v>1.2867968999999999</v>
+        <v>0.60168060000000001</v>
       </c>
       <c r="E13" s="1">
         <f>[6]results_deepgar_Lithuania!E13</f>
-        <v>-0.69534830000000003</v>
+        <v>-14.763104999999999</v>
       </c>
       <c r="F13" s="1">
         <f>[6]results_deepgar_Lithuania!F13</f>
-        <v>3.323248</v>
+        <v>0.61805575999999995</v>
       </c>
       <c r="G13" s="1">
         <f>[6]results_deepgar_Lithuania!G13</f>
-        <v>4.0185959999999996</v>
+        <v>15.381161000000001</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1">
         <f>[6]results_deepgar_Lithuania!I14</f>
-        <v>0.58065489999999997</v>
+        <v>0.28290004000000002</v>
       </c>
       <c r="C14" s="1">
         <f>[6]results_deepgar_Lithuania!J14</f>
-        <v>-0.11646193000000001</v>
+        <v>-3.5080800000000002E-2</v>
       </c>
       <c r="D14" s="1">
         <f>[6]results_deepgar_Lithuania!K14</f>
-        <v>1.3023473999999999</v>
+        <v>1.5361564999999999</v>
       </c>
       <c r="E14" s="1">
         <f>[6]results_deepgar_Lithuania!E14</f>
-        <v>-1.1345662000000001</v>
+        <v>-1.5678369999999999</v>
       </c>
       <c r="F14" s="1">
         <f>[6]results_deepgar_Lithuania!F14</f>
-        <v>2.7264409999999999</v>
+        <v>0.26936611999999999</v>
       </c>
       <c r="G14" s="1">
         <f>[6]results_deepgar_Lithuania!G14</f>
-        <v>3.8610072</v>
+        <v>1.8372031</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1">
         <f>[6]results_deepgar_Lithuania!I15</f>
-        <v>0.70292699999999997</v>
+        <v>0.28131378000000001</v>
       </c>
       <c r="C15" s="1">
         <f>[6]results_deepgar_Lithuania!J15</f>
-        <v>0.28849520000000001</v>
+        <v>0.22462435</v>
       </c>
       <c r="D15" s="1">
         <f>[6]results_deepgar_Lithuania!K15</f>
-        <v>1.1916844</v>
+        <v>1.6470993</v>
       </c>
       <c r="E15" s="1">
         <f>[6]results_deepgar_Lithuania!E15</f>
-        <v>-0.40884150000000002</v>
+        <v>0.60535830000000002</v>
       </c>
       <c r="F15" s="1">
         <f>[6]results_deepgar_Lithuania!F15</f>
-        <v>4.5647216000000004</v>
+        <v>2.5225455999999999</v>
       </c>
       <c r="G15" s="1">
         <f>[6]results_deepgar_Lithuania!G15</f>
-        <v>4.9735630000000004</v>
+        <v>1.9171872000000001</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <f>[6]results_deepgar_Lithuania!I16</f>
-        <v>1.5446886</v>
+        <v>0.37393736999999999</v>
       </c>
       <c r="C16" s="1">
         <f>[6]results_deepgar_Lithuania!J16</f>
-        <v>-1.1870978000000001</v>
+        <v>0.105572</v>
       </c>
       <c r="D16" s="1">
         <f>[6]results_deepgar_Lithuania!K16</f>
-        <v>0.56834673999999996</v>
+        <v>1.6728472999999999</v>
       </c>
       <c r="E16" s="1">
         <f>[6]results_deepgar_Lithuania!E16</f>
-        <v>-13.876250000000001</v>
+        <v>0.64198964999999997</v>
       </c>
       <c r="F16" s="1">
         <f>[6]results_deepgar_Lithuania!F16</f>
-        <v>-0.19331760000000001</v>
+        <v>3.0528933999999999</v>
       </c>
       <c r="G16" s="1">
         <f>[6]results_deepgar_Lithuania!G16</f>
-        <v>13.682933</v>
+        <v>2.4109037</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <f>[6]results_deepgar_Lithuania!I17</f>
-        <v>0.29551696999999999</v>
+        <v>0.1920886</v>
       </c>
       <c r="C17" s="1">
         <f>[6]results_deepgar_Lithuania!J17</f>
-        <v>-0.10909885</v>
+        <v>0.17973469</v>
       </c>
       <c r="D17" s="1">
         <f>[6]results_deepgar_Lithuania!K17</f>
-        <v>1.5943735000000001</v>
+        <v>2.1354527000000001</v>
       </c>
       <c r="E17" s="1">
         <f>[6]results_deepgar_Lithuania!E17</f>
-        <v>-0.93404240000000005</v>
+        <v>1.6272224</v>
       </c>
       <c r="F17" s="1">
         <f>[6]results_deepgar_Lithuania!F17</f>
-        <v>0.95340440000000004</v>
+        <v>2.8426355999999999</v>
       </c>
       <c r="G17" s="1">
         <f>[6]results_deepgar_Lithuania!G17</f>
-        <v>1.8874469</v>
+        <v>1.2154132</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1">
         <f>[6]results_deepgar_Lithuania!I18</f>
-        <v>0.51381856000000004</v>
+        <v>0.48756206000000002</v>
       </c>
       <c r="C18" s="1">
         <f>[6]results_deepgar_Lithuania!J18</f>
-        <v>0.29421130000000001</v>
+        <v>-2.7021132E-2</v>
       </c>
       <c r="D18" s="1">
         <f>[6]results_deepgar_Lithuania!K18</f>
-        <v>1.4107277</v>
+        <v>1.3977643</v>
       </c>
       <c r="E18" s="1">
         <f>[6]results_deepgar_Lithuania!E18</f>
-        <v>0.77370410000000001</v>
+        <v>-0.70025826000000002</v>
       </c>
       <c r="F18" s="1">
         <f>[6]results_deepgar_Lithuania!F18</f>
-        <v>4.3886447000000004</v>
+        <v>2.5305882</v>
       </c>
       <c r="G18" s="1">
         <f>[6]results_deepgar_Lithuania!G18</f>
-        <v>3.6149406000000002</v>
+        <v>3.2308463999999999</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
         <f>[6]results_deepgar_Lithuania!I19</f>
-        <v>0.49347580000000002</v>
+        <v>7.3022069999999994E-2</v>
       </c>
       <c r="C19" s="1">
         <f>[6]results_deepgar_Lithuania!J19</f>
-        <v>0.19832610000000001</v>
+        <v>-0.38741550000000002</v>
       </c>
       <c r="D19" s="1">
         <f>[6]results_deepgar_Lithuania!K19</f>
-        <v>1.4045839</v>
+        <v>2.7936396999999999</v>
       </c>
       <c r="E19" s="1">
         <f>[6]results_deepgar_Lithuania!E19</f>
-        <v>0.22041239000000001</v>
+        <v>0.71947116</v>
       </c>
       <c r="F19" s="1">
         <f>[6]results_deepgar_Lithuania!F19</f>
-        <v>3.5409666999999998</v>
+        <v>1.3526106</v>
       </c>
       <c r="G19" s="1">
         <f>[6]results_deepgar_Lithuania!G19</f>
-        <v>3.3205543</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1">
-        <f>[6]results_deepgar_Lithuania!I20</f>
-        <v>0.36443508000000002</v>
-      </c>
-      <c r="C20" s="1">
-        <f>[6]results_deepgar_Lithuania!J20</f>
-        <v>0.23495490999999999</v>
-      </c>
-      <c r="D20" s="1">
-        <f>[6]results_deepgar_Lithuania!K20</f>
-        <v>1.5575842</v>
-      </c>
-      <c r="E20" s="1">
-        <f>[6]results_deepgar_Lithuania!E20</f>
-        <v>0.62253709999999995</v>
-      </c>
-      <c r="F20" s="1">
-        <f>[6]results_deepgar_Lithuania!F20</f>
-        <v>3.0846431000000001</v>
-      </c>
-      <c r="G20" s="1">
-        <f>[6]results_deepgar_Lithuania!G20</f>
-        <v>2.4621059999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1">
-        <f>[6]results_deepgar_Lithuania!I21</f>
-        <v>0.66010670000000005</v>
-      </c>
-      <c r="C21" s="1">
-        <f>[6]results_deepgar_Lithuania!J21</f>
-        <v>-0.14027682</v>
-      </c>
-      <c r="D21" s="1">
-        <f>[6]results_deepgar_Lithuania!K21</f>
-        <v>1.2385112</v>
-      </c>
-      <c r="E21" s="1">
-        <f>[6]results_deepgar_Lithuania!E21</f>
-        <v>-1.4497392</v>
-      </c>
-      <c r="F21" s="1">
-        <f>[6]results_deepgar_Lithuania!F21</f>
-        <v>2.9954068999999999</v>
-      </c>
-      <c r="G21" s="1">
-        <f>[6]results_deepgar_Lithuania!G21</f>
-        <v>4.4451460000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1">
-        <f>[6]results_deepgar_Lithuania!I22</f>
-        <v>0.67035719999999999</v>
-      </c>
-      <c r="C22" s="1">
-        <f>[6]results_deepgar_Lithuania!J22</f>
-        <v>0.103891045</v>
-      </c>
-      <c r="D22" s="1">
-        <f>[6]results_deepgar_Lithuania!K22</f>
-        <v>1.2277883999999999</v>
-      </c>
-      <c r="E22" s="1">
-        <f>[6]results_deepgar_Lithuania!E22</f>
-        <v>-0.75702480000000005</v>
-      </c>
-      <c r="F22" s="1">
-        <f>[6]results_deepgar_Lithuania!F22</f>
-        <v>3.7328408</v>
-      </c>
-      <c r="G22" s="1">
-        <f>[6]results_deepgar_Lithuania!G22</f>
-        <v>4.4898660000000001</v>
+        <v>0.63313942999999995</v>
       </c>
     </row>
   </sheetData>
@@ -10347,7 +9706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736CA9B9-98A3-D340-BB53-F91E4CA46E31}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
